--- a/MissingReferences.xlsx
+++ b/MissingReferences.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1100">
   <si>
     <t xml:space="preserve">Articles</t>
   </si>
@@ -2378,10 +2378,13 @@
     <t xml:space="preserve">[30] Lin VC, Ng EH, Aw SE, Tan MG, Ng EH, Chan VS, Ho GH. Progestins inhibit the growth of MDA-MB-231 cells transfected with progesterone receptor complementary DNA. Clin Cancer Res. 1999 Feb;5(2):395-403. PMID: 10037189. </t>
   </si>
   <si>
-    <t xml:space="preserve">[38] Macaione S, Ientile R, Lentini M, Di Giorgio RM. Effects of estrogens and progesterone on GABA system in ovariectomized rat retina. Ital J Biochem. 1981 Jul-Aug;30(4):279-89. PMID: 7298312. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40] Mauvais-Jarvis P, Gompel A, Malet C, Kuttenn F. Antiestrogènes et prolifération cellulaire mammaire normale humaine [Antiestrogens and normal human breast cell proliferation]. Ann Endocrinol (Paris). 1989;50(3):181-8. French. PMID: 2683973. </t>
+    <t xml:space="preserve">[33] Lin VC, Ng EH, Aw SE, Tan MG, Ng EH, Chan VS, Ho GH. Progestins inhibit the growth of MDA-MB-231 cells transfected with progesterone receptor complementary DNA. Clin Cancer Res. 1999 Feb;5(2):395-403. PMID: 10037189. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[39] Macaione S, Ientile R, Lentini M, Di Giorgio RM. Effects of estrogens and progesterone on GABA system in ovariectomized rat retina. Ital J Biochem. 1981 Jul-Aug;30(4):279-89. PMID: 7298312. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[41] Mauvais-Jarvis P, Gompel A, Malet C, Kuttenn F. Antiestrogènes et prolifération cellulaire mammaire normale humaine [Antiestrogens and normal human breast cell proliferation]. Ann Endocrinol (Paris). 1989;50(3):181-8. French. PMID: 2683973. </t>
   </si>
   <si>
     <r>
@@ -2702,6 +2705,36 @@
     <t xml:space="preserve">[14] Dyro FM. Quadriparesis as an unusual manifestation of hypercalcemia. J Maine Med Assoc. 1977 Oct;68(10):370-1. PMID: 908889. </t>
   </si>
   <si>
+    <t xml:space="preserve">[21] Gannagé-Yared MH, Tohmé A, Halaby G. L'hypovitaminose D, problème mondial majeur de santé publique [Hypovitaminosis D: a major worldwide public health problem]. Presse Med. 2001 Apr 7;30(13):653-8. French. PMID: 11346909. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Grecu EO, Weinshelbaum A, Simmons R. Effective therapy of glucocorticoid-induced osteoporosis with medroxyprogesterone acetate. Calcif Tissue Int. 1990 May;46(5):294-9. doi: 10.1007/BF02563818. PMID: 2140069. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Haas PJ. Antiallergische Wirkung von Kalzium per os. Eine klinisch-experimentelle Studie [Antiallergic effect of oral calcium. A clinico-experimental study]. Fortschr Med. 1985 Mar 28;103(12):328-30. German. PMID: 3872822. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] Hilgard P, Hohage R, Schmitt W, Minne H, Ziegler R. The possible role of platelets as trigger in intravascular coagulation associated with acute hyperparathyroidism. Acta Univ Carol Med Monogr. 1972;53:427-32. PMID: 4670750. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34] Massry SG. Pathogenesis of the anemia of uremia: role of secondary hyperparathyroidism. Kidney Int Suppl. 1983 Dec;16:S204-7. PMID: 6376915. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[49] Ouchi Y, Orimo H. [Calcium and magnesium metabolism in the aged]. Nihon Ronen Igakkai Zasshi. 1989 May;26(3):216-22. Japanese. PMID: 2795971. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[59] Rude RK, Kirchen ME, Gruber HE, Meyer MH, Luck JS, Crawford DL. Magnesium deficiency-induced osteoporosis in the rat: uncoupling of bone formation and bone resorption. Magnes Res. 1999 Dec;12(4):257-67. PMID: 10612083. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[60] Schmid C. Hyperkalzämie [Hypercalcemia]. Schweiz Med Wochenschr. 1994 Jun 25;124(25):1122-8. German. PMID: 8029686. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[69] Utz G, Hauck AM. Orale anwendung von Kalzium plus Vitamin D2 bei allergischem Asthma bronchiale [Oral application of calcium and vitamin D2 in allergic bronchial asthma (author's transl)]. MMW Munch Med Wochenschr. 1976 Oct 22;118(43):1395-8. German. PMID: 825744. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[76] Zofková I, Kanceva RL. Nové látky s pozitivním úcinkem na kost [New drugs with positive effects on bones]. Cas Lek Cesk. 1997 Jul 30;136(15):459-63. Czech. PMID: 9340191. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -2831,10 +2864,10 @@
     <t xml:space="preserve">[61] Pozharisskaia TD, Vasil'eva TP, Sokolova EN, Alekseeva II. K mekhanizmu rasstroĭstv krovoobrashcheniia u zhivotnykh, obluchennykh v bol'shih dozakh [Mechanism of circulatory disorders in animals irradiated at high doses]. Radiobiologiia. 1985 Nov-Dec;25(6):763-7. Russian. PMID: 4080994. </t>
   </si>
   <si>
-    <t xml:space="preserve">[68] Smídová L, Base J, Mourek J, Cechová I. Proportion of individual fatty acids in the non-esterified (free) fatty acid (FFA) fraction in the serum of laboratory rats of different ages. Physiol Bohemoslov. 1990;39(2):125-34. PMID: 2144352. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[70] Staub F, Winkler A, Peters J, Kempski O, Baethmann A. Mechanisms of glial swelling by arachidonic acid. Acta Neurochir Suppl (Wien). 1994;60:20-3. doi: 10.1007/978-3-7091-9334-1_5. PMID: 7976545. </t>
+    <t xml:space="preserve">[69] Smídová L, Base J, Mourek J, Cechová I. Proportion of individual fatty acids in the non-esterified (free) fatty acid (FFA) fraction in the serum of laboratory rats of different ages. Physiol Bohemoslov. 1990;39(2):125-34. PMID: 2144352. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[71] Staub F, Winkler A, Peters J, Kempski O, Baethmann A. Mechanisms of glial swelling by arachidonic acid. Acta Neurochir Suppl (Wien). 1994;60:20-3. doi: 10.1007/978-3-7091-9334-1_5. PMID: 7976545. </t>
   </si>
   <si>
     <r>
@@ -3537,6 +3570,9 @@
   </si>
   <si>
     <t xml:space="preserve">[20] D. Green-Kelly, B.V. Derjaguin, Research in Surface Forces vol. 2, p. 117, Consultants Bureau, NY (1966).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] McIntyre GI. Increased cell hydration promotes both tumor growth and metastasis: a biochemical mechanism consistent with genetic signatures. Med Hypotheses. 2007;69(5):1127-30. doi: 10.1016/j.mehy.2007.01.080. Epub 2007 Mar 30. PMID: 17399912. </t>
   </si>
   <si>
     <r>
@@ -4042,19 +4078,19 @@
     <t xml:space="preserve">[22] Merk FB, Warhol MJ, Kwan PW, Leav I, Alroy J, Ofner P, Pinkus GS. Multiple phenotypes of prostatic glandular cells in castrated dogs after individual or combined treatment with androgen and estrogen. Morphometric, ultrastructural, and cytochemical distinctions. Lab Invest. 1986 Apr;54(4):442-56. PMID: 2421104. </t>
   </si>
   <si>
-    <t xml:space="preserve">[25] Rolland PH, Martin PM, Jacquemier J, Rolland AM, Toga M. Prostaglandin in human breast cancer: Evidence suggesting that an elevated prostaglandin production is a marker of high metastatic potential for neoplastic cells. J Natl Cancer Inst. 1980 May;64(5):1061-70. PMID: 6767871. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[27] Schuman LM, Mandel J, Blackard C, Bauer H, Scarlett J, McHugh R. Epidemiologic study of prostatic cancer: preliminary report. Cancer Treat Rep. 1977 Mar-Apr;61(2):181-6. PMID: 194689. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[28] Siiteri, P.K. and P. C. MacDonald, "Role of extraglandular estrogen in human endocrinology," In Handbook of Physiology, section 7, Endocrinology Vol II (Eds. S. R. Geiger, et al.,) pp. 615-629, Williams &amp; Wilkins, Baltimore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[31] TULLNER WW. HORMONAL FACTORS IN THE ADRENAL-DEPENDENT GROWTH OF THE RAT VENTRAL PROSTATE. Natl Cancer Inst Monogr. 1963 Oct;12:211-23. PMID: 14072993. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[35] Vermeulen, A. "Hormonal factors related to abnormal growth of the prostate." Prostate Cancer. 48 (1979): 81-92.  UICC, Geneva</t>
+    <t xml:space="preserve">[24] Rolland PH, Martin PM, Jacquemier J, Rolland AM, Toga M. Prostaglandin in human breast cancer: Evidence suggesting that an elevated prostaglandin production is a marker of high metastatic potential for neoplastic cells. J Natl Cancer Inst. 1980 May;64(5):1061-70. PMID: 6767871. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] Schuman LM, Mandel J, Blackard C, Bauer H, Scarlett J, McHugh R. Epidemiologic study of prostatic cancer: preliminary report. Cancer Treat Rep. 1977 Mar-Apr;61(2):181-6. PMID: 194689. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Siiteri, P.K. and P. C. MacDonald, "Role of extraglandular estrogen in human endocrinology," In Handbook of Physiology, section 7, Endocrinology Vol II (Eds. S. R. Geiger, et al.,) pp. 615-629, Williams &amp; Wilkins, Baltimore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] TULLNER WW. HORMONAL FACTORS IN THE ADRENAL-DEPENDENT GROWTH OF THE RAT VENTRAL PROSTATE. Natl Cancer Inst Monogr. 1963 Oct;12:211-23. PMID: 14072993. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34] Vermeulen, A. "Hormonal factors related to abnormal growth of the prostate." Prostate Cancer. 48 (1979): 81-92.  UICC, Geneva</t>
   </si>
   <si>
     <r>
@@ -4270,16 +4306,16 @@
     <t xml:space="preserve">[14] THE DAILY CITIZEN, April 5, 1994. Robert Greene, "Soggy Chickens," AP, April 2, 1994; "Interview with Elaine Dodge,"</t>
   </si>
   <si>
-    <t xml:space="preserve">[17] Ideta T. [Studies on relationship between progressive muscular dystrophy and estrogen]. Kumamoto Igakkai Zasshi. 1969 Aug 25;43(8):661-80. Japanese. PMID: 5395315. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[21] Jonkman JH, Westenberg HG, Rijntjes NV, van der Kleijn E, Lindeboom SF. Whole body distribution of the quaternary ammonium compound thiazinamium (N-methylpromethazine) and promethazine in monkey and mice. Arzneimittelforschung. 1983;33(2):223-8. PMID: 6133524. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[23] Kovach JS, Svingen PA. Enhancement of the antiproliferative activity of human interferon by polyamine depletion. Cancer Treat Rep. 1985 Jan;69(1):97-103. PMID: 3917854. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[25] Kuchár S, Mozes S, Boda K, Koppel J. The effect of androgen and estrogen on food intake and body weight in rats--age dependency. Endokrinologie. 1982 Nov;80(3):294-8. PMID: 7166161. </t>
+    <t xml:space="preserve">[16] Ideta T. [Studies on relationship between progressive muscular dystrophy and estrogen]. Kumamoto Igakkai Zasshi. 1969 Aug 25;43(8):661-80. Japanese. PMID: 5395315. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Jonkman JH, Westenberg HG, Rijntjes NV, van der Kleijn E, Lindeboom SF. Whole body distribution of the quaternary ammonium compound thiazinamium (N-methylpromethazine) and promethazine in monkey and mice. Arzneimittelforschung. 1983;33(2):223-8. PMID: 6133524. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Kovach JS, Svingen PA. Enhancement of the antiproliferative activity of human interferon by polyamine depletion. Cancer Treat Rep. 1985 Jan;69(1):97-103. PMID: 3917854. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Kuchár S, Mozes S, Boda K, Koppel J. The effect of androgen and estrogen on food intake and body weight in rats--age dependency. Endokrinologie. 1982 Nov;80(3):294-8. PMID: 7166161. </t>
   </si>
   <si>
     <t xml:space="preserve">[27] Lewis JS, Vijayanathan V, Thomas TJ, Pestell RG, Albanese C, Gallo MA, Thomas T. Activation of cyclin D1 by estradiol and spermine in MCF-7 breast cancer cells: a mechanism involving the p38 MAP kinase and phosphorylation of ATF-2. Oncol Res. 2005;15(3):113-28. doi: 10.3727/096504005776367924. PMID: 16050133. </t>
@@ -7129,8 +7165,8 @@
   </sheetPr>
   <dimension ref="A1:BH98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P53" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7180,7 +7216,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="63" style="2" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7328,7 +7364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -7390,7 +7426,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -7482,7 +7518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>98</v>
       </c>
@@ -7523,7 +7559,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
@@ -7531,7 +7567,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>113</v>
       </c>
@@ -7542,7 +7578,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -7556,7 +7592,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>120</v>
       </c>
@@ -7585,7 +7621,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>129</v>
       </c>
@@ -7608,7 +7644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>136</v>
       </c>
@@ -7664,7 +7700,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
@@ -7714,7 +7750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>170</v>
       </c>
@@ -7737,7 +7773,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>177</v>
       </c>
@@ -7790,7 +7826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="265.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="291.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>194</v>
       </c>
@@ -7828,7 +7864,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>206</v>
       </c>
@@ -7875,7 +7911,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>221</v>
       </c>
@@ -7913,7 +7949,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>233</v>
       </c>
@@ -7937,7 +7973,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>240</v>
       </c>
@@ -7951,7 +7987,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>244</v>
       </c>
@@ -7980,7 +8016,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>253</v>
       </c>
@@ -8003,7 +8039,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>260</v>
       </c>
@@ -8038,7 +8074,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>271</v>
       </c>
@@ -8055,7 +8091,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>276</v>
       </c>
@@ -8093,7 +8129,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>288</v>
       </c>
@@ -8132,7 +8168,7 @@
       </c>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>300</v>
       </c>
@@ -8155,7 +8191,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>307</v>
       </c>
@@ -8199,7 +8235,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>321</v>
       </c>
@@ -8255,7 +8291,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>339</v>
       </c>
@@ -8395,7 +8431,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>385</v>
       </c>
@@ -8430,7 +8466,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>396</v>
       </c>
@@ -8441,7 +8477,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>399</v>
       </c>
@@ -8464,7 +8500,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>406</v>
       </c>
@@ -8490,7 +8526,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>414</v>
       </c>
@@ -8507,7 +8543,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>419</v>
       </c>
@@ -8530,7 +8566,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>426</v>
       </c>
@@ -8562,7 +8598,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>436</v>
       </c>
@@ -8591,7 +8627,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>445</v>
       </c>
@@ -8626,7 +8662,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>456</v>
       </c>
@@ -8652,7 +8688,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>464</v>
       </c>
@@ -8666,7 +8702,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>468</v>
       </c>
@@ -8686,7 +8722,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>474</v>
       </c>
@@ -8700,7 +8736,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>476</v>
       </c>
@@ -8733,1573 +8769,1609 @@
       <c r="H44" s="4" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>544</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q70" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="R70" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="S70" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="U89" s="4" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="V89" s="4" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="W89" s="4" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="X89" s="4" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="Y89" s="4" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="Z89" s="4" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="AA89" s="4" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="AB89" s="4" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="AC89" s="4" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="AD89" s="4" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="AE89" s="4" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="AF89" s="4" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="AG89" s="4" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="AH89" s="4" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="AI89" s="4" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="AJ89" s="4" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="AK89" s="4" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="AL89" s="4" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="AM89" s="4" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="AN89" s="4" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="AO89" s="4" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="AP89" s="4" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="AQ89" s="4" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="AR89" s="4" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="AS89" s="4" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="AT89" s="2" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="AU89" s="4" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="AV89" s="4" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="AW89" s="4" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="AX89" s="4" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="AY89" s="4" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="AZ89" s="4" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="BA89" s="2" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="BB89" s="4" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="BC89" s="4" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="BD89" s="4" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="BE89" s="4" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="BF89" s="4" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="BG89" s="4" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="BH89" s="4" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10433,18 +10505,19 @@
   </sheetPr>
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="0" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -10509,569 +10582,569 @@
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="B37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="B45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>1084</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>

--- a/MissingReferences.xlsx
+++ b/MissingReferences.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1503">
   <si>
     <t xml:space="preserve">Articles</t>
   </si>
@@ -628,51 +628,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">1988-09 Natural Immunity And Viral Infections</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[05] Cellerier, Rey, International de Médecine et de Chirurgie, Vol 28, 29-30, 1917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[07] R. McGuire, "Debate continued on best agent for coke withdrawal," Medical Tribune, p. 9, June 4,1986.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[08] “Study of antivirals' gonad risks urged," Medical World News, p. 108, Feb. 10, 1986.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[12] Marokko, I. N., et al. "Effect of hydrocortisone on the liver cytochrome P-450 system and the intensity of food anaphylaxis in guinea pigs." Biulleten'Eksperimental'noi Biologii i Meditsiny 98.12 (1984): 713-715. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[14] Kasai, N. O. B. U. H. I. K. O., and K. I. Y. O. S. H. I. Egawa. "Effect of endotoxin on cytochrome P-450 activity." Handbook of Endotoxin 3 (1985): 185-198. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[16] Ray Peat Newsletter #29 (1-49 missing), September 1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[21] R. Salganik."Enzymes vs viruses," Science in the USSR 4, 98-103, 1985.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[22] Sowing antiviral seeds, Science News 130, 26, 1986.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">1997 Estriol, DES, DDT, etc</t>
     </r>
     <r>
@@ -1144,6 +1099,9 @@
     <t xml:space="preserve">[39] Zacharski LR, Loynes JT. Low-molecular-weight heparin in oncology. Anticancer Res. 2003 May-Jun;23(3C):2789-93. PMID: 12926114. </t>
   </si>
   <si>
+    <t xml:space="preserve">needs fixed whole list, missing [21] changes in flow etc</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -1412,9 +1370,6 @@
   </si>
   <si>
     <t xml:space="preserve">[22] Krzanowska H, Szołtys M. Preovulatory dynamics of ovarian steroid hormones in two mouse strains differing in the rate of meiotic maturation. Folia Biol (Krakow). 1996;44(3-4):111-6. PMID: 9342935. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[26] Biokhimiia 1987 Sep;52(9):1501-11 [Activation of lipolysis and ketogenesis in tumor-bearing animals as a reflection of chronic stress states]. Russian</t>
   </si>
   <si>
     <t xml:space="preserve">[27] Potapova GI, Shapot VS. Sopriazhennost' immunodepresii i narusheniĭ nukleinovogo obmena limfoidnoĭ tkani kak proiavlenie paraneoplasticheskogo sindroma [Combination of immunodepression and disorders in nucleic acid metabolism of lymphoid tissue as a manifestation of a paraneoplastic syndrome]. Arkh Patol. 1987;49(6):10-8. Russian. PMID: 3310967. </t>
@@ -1756,10 +1711,6 @@
     <t xml:space="preserve">[116] Court, Jennifer A., and Elaine K. Perry. "CNS Nicotinic Receptors: Possible Therapeutic Targets in Neurodegenerative Disorders." CNS Drugs 2.3 (1994): 216-233.</t>
   </si>
   <si>
-    <t xml:space="preserve">[121] Sviridov OV. Novoe svoĭstvo izvestnykh belkov: spetsificheskoe sviazyvanie tireoidnykh gormonov apolipoproteinami plazmy cheloveka [A new property of known proteins: specific binding of thyroid hormones by human plasma apolipoproteins]. Biokhimiia. 1994 May;59(5):625-38. Russian. PMID: 8043689.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[126] Loeb, Leo, V. Suntzeff, and E. L. Burns. "Changes in the nature of the stroma in vagina, cervix and uterus of the mouse produced by long-continued injections of estrogen and by advancing age." The American Journal of Cancer 35.2 (1939): 159-174. </t>
   </si>
   <si>
@@ -1884,9 +1835,6 @@
     <t xml:space="preserve">[18] Novik V, Cárdenas IE, González R, Peña M, López Moreno JM. Insuficiencia cardíaca grave como complicación de hipotiroidismo primario [Severe cardiac failure as complication of primary hypothyroidism]. Rev Med Chil. 1996 Oct;124(10):1248-50. Spanish. PMID: 9239915. </t>
   </si>
   <si>
-    <t xml:space="preserve">[21] Azimova ShS, Umarova GD, Petrova OS, Tukhtaev KR, Abdukarimov A. O prirode retseptorov tireoidnykh gormonov. Translokatsiia tireoidnykh gormonov cherez plazmaticheskuiu membranu [The nature of thyroid hormone receptors. Translocation of thyroid hormones through plasma membranes]. Biokhimiia. 1984 Aug;49(8):1350-6. Russian. PMID: 6093898. </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -4264,9 +4212,6 @@
     <t xml:space="preserve">[12] Donaldson PJ, Grey AC, Merriman-Smith BR, Sisley AM, Soeller C, Cannell MB, Jacobs MD. Functional imaging: new views on lens structure and function. Clin Exp Pharmacol Physiol. 2004 Dec;31(12):890-5. doi: 10.1111/j.1440-1681.2004.04099.x. PMID: 15659055. </t>
   </si>
   <si>
-    <t xml:space="preserve">[24] Korsakova NV, Sergeeva VE. [The bioamine profile of the lens during the development of different types of human age-related cataract]. Vestn Oftalmol. 2010 Jan-Feb;126(1):32-5. Russian. PMID: 20645573. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[29] Mori K. [Magnetic resonance imaging study on rat sugar cataract]. Nippon Ganka Gakkai Zasshi. 1993 Oct;97(10):1157-64. Japanese. PMID: 8256667. </t>
   </si>
   <si>
@@ -4493,7 +4438,7 @@
     <t xml:space="preserve">[51] Jeyarasasingam G, Yeluashvili M, Quik M. Nitric oxide is involved in acetylcholinesterase inhibitor-induced myopathy in rats. J Pharmacol Exp Ther. 2000 Oct;295(1):314-20. PMID: 10991996. </t>
   </si>
   <si>
-    <t xml:space="preserve">[52] Jeyarasasingam G, Yeluashvili M, Quik M. Tacrine, a reversible acetylcholinesterase inhibitor, induces myopathy. Neuroreport. 2000 Apr 27;11(6):1173-6. doi: 10.1097/00001756-200004270-00006. PMID: 10817586. </t>
+    <t xml:space="preserve">azi</t>
   </si>
   <si>
     <t xml:space="preserve">[53] Coste J, Vial JC, Faury G, Deronzier A, Usson Y, Robert-Nicoud M, Verdetti J. NO synthesis, unlike respiration, influences intracellular oxygen tension. Biochem Biophys Res Commun. 2002 Jan 11;290(1):97-104. doi: 10.1006/bbrc.2001.6221. PMID: 11779139. </t>
@@ -4806,42 +4751,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1988 Natural Immunity and Viral Infections</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1988-01 Abnormal Cells in the Uterine Cervix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[01] Meerson FZ. Rol' stressa v mekhanizme dolgovremennoĭ adaptatsii i profilaktika stressornykh povrezheniĭ [Role of stress in the mechanism of long-term-adaptation and the prevention of stress injuries]. Patol Fiziol Eksp Ter. 1980 Sep-Oct;(5):3-16. Russian. PMID: 6999435. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] 4. Rosenfeld, A. “Superpowder,” Omni magazine; 1980. </t>
   </si>
   <si>
     <r>
@@ -4863,6 +4776,45 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[03] Ye. Chazov, et al, "Chemical asymmetry of the brain," Science in the USSR, No. 1, pp. 21-29, 1987</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1988-09 Natural Immunity And Viral Infections</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[05] Cellerier, Rey, International de Médecine et de Chirurgie, Vol 28, 29-30, 1917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[08] “Study of antivirals' gonad risks urged," Medical World News, p. 108, Feb. 10, 1986.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Kasai, N. O. B. U. H. I. K. O., and K. I. Y. O. S. H. I. Egawa. "Effect of endotoxin on cytochrome P-450 activity." Handbook of Endotoxin 3 (1985): 185-198. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16] Ray Peat Newsletter #29 (1-49 missing), September 1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] R. Salganik."Enzymes vs viruses," Science in the USSR 4, 98-103, 1985.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4882,6 +4834,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[03] Chemical Abstracts 101 (1984), P9548 (NH3 and CO); 93656 (NH3 and CH4 ); 115982(propylene and nitrogen dioxide).</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4901,6 +4856,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01-B] Shanklin and Hodin, lnfant Health and Matenral Nutrition, 1978.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[08-A] E.D. Danopoulos, The Possibility of treating malignancies with urea. TL/D Feb-March, 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09] V.S. Shapat, Biochemical Aspects of Tumor Growht, Mir Publ., 1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] Hasan H, Unsworth J. Hydration effects on muscle response. Physiol Chem Phys Med NMR. 1985;17(1):131-4. PMID: 3929281. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] K.H. Schutte, Metabolic Aspects of Health: Nutritional Elements in Health and Disease, Discovery Press, Kentfield, CA, 1979</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4920,23 +4890,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1990-12 Education Against Knowledge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[19] Kohli J, Bhattacharya SK, Gupta VS, Sen P, Chakravarty AK. Effect of metronidazole on immune mechanism in experimental animals. Indian J Exp Biol. 1987 Mar;25(3):177-80. PMID: 3666815. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Kovalev GV, Spasov AA, Bogachev NA, Petrianik VD, Ostrovskiĭ OV. Rol' GAMK-ergicheskoĭ sistemy v mekhanizme stress-reguliruiushchego deĭstviia fenibuta [Role of the GABAergic system in the mechanism of the stress-regulating action of phenibut]. Biull Eksp Biol Med. 1987 Nov;104(11):588-90. Russian. PMID: 3676496. </t>
   </si>
   <si>
     <r>
@@ -4958,23 +4915,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1991-01 Solving Some of the Problems of Aging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[04] [unpublished] Large study on Procaine done at Edgemoor Geriatric Hospital, Santee, California, in 1960. </t>
   </si>
   <si>
     <r>
@@ -4996,137 +4937,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1992-03 Taxol, Yew &amp; Cancer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1992-06 Resistance of the Heart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1992-09 Brain Aging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1992-11 Origins of Progesterone Therapy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1992-12 Failures of Immunity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1993 The Bean Syndrome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1993-11 Thyroid Misconceptions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[01] Sas, Geza, The Biology of Antithrombins, CRC Press, Boa Raton, 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Beller FK, Ebert C. Effects of oral contraceptives on blood coagulation. A review. Obstet Gynecol Surv. 1985 Jul;40(7):425-36. doi: 10.1097/00006254-198507000-00003. PMID: 3895067. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] [26] Bonnar J, Haddon M, Hunter DH, Richards DH, Thornton C. Coagulation system changes in post-menopausal women receiving oestrogen preparations. Postgrad Med J. 1976;52 Suppl 6:30-6. PMID: 981116. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] DeSwiet, M. "Thromboembolism," in Med Disorders in Obstretic Practice, Ed., Blackwell Scientific, Oxford, 1984, 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Hellgren, M. "Thromboembolism and pregnancy." Studies on blood coagulation, fibrinolysis and treatment with heparin and antithrombin [Thesis]. Stockholm: Karolinska Institute (1981). </t>
   </si>
   <si>
     <r>
@@ -5148,6 +4971,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Hershko C, Link G, Pinson A. Modification of iron uptake and lipid peroxidation by hypoxia, ascorbic acid, and alpha-tocopherol in iron-loaded rat myocardial cell cultures. J Lab Clin Med. 1987 Sep;110(3):355-61. PMID: 3611956. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[02] B. Eddinger., et al., Ann. Intern. Med, 106; 40-45, 1987</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5167,6 +4996,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[03] Hartroft, W. S., and E. A. Porta. "Present knowledge of ceroid pigment." Present knowledge in nutrition (1967): 28. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] BALO J, BANGA I. Effect of metal complexes upon experimental carcinoma. Acta Unio Int Contra Cancrum. 1957;13(3):463-5. PMID: 13469606. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5186,6 +5021,54 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Pathol Biol (Paris) 1979 Dec;27(10):615-626 [Biological and pharmacological effects of carrageenan].[Article in French] Roch-Arveiller M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[05] Tobacman JK. Filament disassembly and loss of mammary myoepithelial cells after exposure to lambda-carrageenan. Cancer Res. 1997 Jul 15;57(14):2823-6. PMID: 9230181. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Thomson AW. Carrageenan and the immune response. Biomedicine. 1978 May-Jun;28(3):148-52. PMID: 359059. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] Rod Riley. Crohn's disease and ulcerative colitis: morbidity and mortality. Health Rep. 1990;2(4):343-59. English, French. PMID: 2101290. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] Coppéré H, Audigier JC. Evolution de la mortalité par cirrhose en France entre 1925 et 1982 [Trends of mortality from cirrhosis in France between 1925 and 1982]. Gastroenterol Clin Biol. 1986 Jun-Jul;10(6-7):468-74. French. PMID: 3758591. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] Cortes-Espinosa T, Mondragón-Sánchez R, Hurtado-Andrade H, Sánchez-Cisneros R. Hepatocellular carcinoma and hepatic cirrhosis in Mexico: a 25 year necroscopy review. Hepatogastroenterology. 1997 Sep-Oct;44(17):1401-3. PMID: 9356862. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] Bartoloni St Omer F, Giannini A, Napoli P. Hepatocellular carcinoma and cirrhosis: a review of their relative incidence in a 25-year period in the Florence area. Hepatogastroenterology. 1984 Oct;31(5):215-7. PMID: 6096240. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Pintera J. Increasing trend of hyperbilirubinemia incidence in the blood donors population. J Hyg Epidemiol Microbiol Immunol. 1990;34(4):343-8. PMID: 2100746. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Bethke BA, Schubert GE. Primary hepatic cancer and liver cirrhosis. Autopsy study covering fifty years. Hepatogastroenterology. 1984 Oct;31(5):211-4. PMID: 6096239. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Tarantino G, Morelli L, Califano C. Contraccettivi orali e danno epatico [Oral contraceptive and hepatic effects]. Riv Eur Sci Med Farmacol. 1990 Jun;12(3):165-8. Italian. PMID: 2101166. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] Acta Hepatogastroenterol (Stuttg) 1977 Apr;24(2):97-101 Plasma prolactin and prolactin release in liver cirrhosis. Wernze H, Schmitz E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Kujawa KI, Berning A, Odeyale C, Yaffe LJ. Effect of macrophage inhibition in carrageenan- and D-galactosamine-induced sensitivity to low-dose endotoxin. Prog Clin Biol Res. 1989;286:237-42. PMID: 2928367. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[33] Volkheimer G. Persorption von Mikropartikeln [Persorption of microparticles]. Pathologe. 1993 Sep;14(5):247-52. German. PMID: 8415433. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[36] Prokop O. Der Herbst-Volkheimer-Effekt [The Herbst-Volkheimer effect]. Kitasato Arch Exp Med. 1990 Apr;63(1):1-6. German. PMID: 2273756. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[37] Volkheimer G. Das Phänomen der Persorption--Historie und Fakten [The phenomenon of persorption--history and facts]. Z Arztl Fortbild (Jena). 1993 Mar 12;87(3):217-21. German. PMID: 8470407. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[39] R.F.V. Pulvertaft, PHA in relation to Burkitt's tumour, Lancet sept 12, pp 552-554, 1964. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5205,23 +5088,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1995-09 Regeneration and the Anti-adaptogens</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[02] Zeilmaker GH. Effects of prolonged feeding of an ovulation inhibitor (Lyndiol) on ageing of the hypothalamic-ovarian axis and pituitary gland tumorigenesis in rats. J Endocrinol. 1969 Jan;43(1):xxi-xxii. PMID: 5815247. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Wise PM. Influence of estrogen on aging of the central nervous system: its role in declining female reproductive function. Prog Clin Biol Res. 1989;320:53-70. PMID: 2690143. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] WISE, PM, et al. "Neuroendocrine influences on aging of the female reproductive system." Frontiers in neuroendocrinology 12.4 (1991): 323-356. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[05] Li, Min Hsin, and W. U. Gardner. "Experimental studies on the pathogenesis and histogenesis of ovarian tumors in mice." Cancer Research 7.9 (1947): 549-566. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] GARDNER WU. Hormonal imbalances in tumorigenesis. Cancer Res. 1948 Sep;8(9):397-411. PMID: 18107381. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09] Lee, NC, et al. "Estrogen therapy and the risk of breast ovary and endometrial cancer," Aging, Reproduction, and the Climacteric Mastroianni Jr. 1986,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] Bauer, Douglas C., Deborah Grady, and Alice Pressman. "Skin thickness, estrogen use, and bone mass in older women." Menopause 1.3 (1994): 131-136. </t>
   </si>
   <si>
     <r>
@@ -5243,6 +5128,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[16] 16. J. I. Kitay, M. D Altschule, The Pineal Gland, Harvard Univ. Press, Cambridge, 1964. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] Kunkel and Williams, J. Biological Chemistry, 1951. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Pastore D, Greco M, Petragallo VA, Passarella S. Increase in &lt;--H+/e- ratio of the cytochrome c oxidase reaction in mitochondria irradiated with helium-neon laser. Biochem Mol Biol Int. 1994 Oct;34(4):817-26. PMID: 7866309. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] A. T. Pikulev, et al., Radiobiology 24(1), 29-44, 1984. Krebs cycle enzymes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Yu. I. Prokopenko, Gigiyena i Sanitariya 12, pp. 8-10, 1982, “Adaptogenic light.” </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5262,6 +5162,30 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] C.M. Papa and A.M. Kligman, chapter XI in Advances in the Biology of Skin, vol VI aging ed. Pergamon Press, 1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[02] Gherondache, C. N., L. P. Romanoff, and G. Pincus. "Steroid hormones in aging men." Endocrines and aging. Charles C. Thomas Amsterdam, Oxford, 1967. 76-101. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Porter SB, Ong DE, Chytil F. Vitamin A status affects chromatin structure. Int J Vitam Nutr Res. 1986;56(1):11-20. PMID: 2423469. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[08] Anonymous, "Estrogens for osteoporosis," FDA Drug Bulletin, 16(1), pages 5-6, June 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09-A] S. Brody, et al, Maturitas (Netherlands) 4(2), 113-122 1982, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09-B] M. Boross, et al. Aktuelle Gerontologie, (Stuttgart) 13(1), 15-18, 1983 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] F. P. Mandel, et al. J Reprod. Med. 27(8), 511-519, 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] T. Nencioni, and P. Polvani, Calcitonin, p297-305, A Pecile, editor, Elsevier, NY, 1985</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5281,6 +5205,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[09] Volkheimer G. Persorption von Mikropartikeln [Persorption of microparticles]. Pathologe. 1993 Sep;14(5):247-52. German. PMID: 8415433. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5300,6 +5227,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Robinson, K. R., and M. A. Messerli. "Electric embryos: the embryonic epithelium as a generator of developmental information." Nerve Growth and Nerve Guidance (1996): 131-150. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] McCaig, Colin D. "Nerve growth and guidance." (No Title) (1996). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] C. M. Child, The Origin and Development ofthe Nervous System, Univ. ofChicago Press, 1921. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] Buteyko, K.P., "The theory of CO2-deficient  diseases of civilisation as an adaptation to the  evolution  of atmosphere," Kiberneticheskie  Aspekty Adaptatsii Sistemy "Chelovek-Sreda,"  Tez. Seminara, Moscow, 1975. seminar thesis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Stubbs M, Rodrigues L, Howe FA, Wang J, Jeong KS, Veech RL, Griffiths JR. Metabolic consequences of a reversed pH gradient in rat tumors. Cancer Res. 1994 Aug 1;54(15):4011-6. PMID: 8033132. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5319,6 +5261,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Baraboĭ VA, Nikiforova NA, Moskalenko IP. Sposobnost' limfotsitov perifericheskoĭ krovi k reparatsii DNK i vyzhivaemost' krys [The ability of peripheral blood lymphocytes to repair DNA and the survival of rats]. Radiobiologiia. 1990 May-Jun;30(3):305-7. Russian. PMID: 2371387. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Byrne E, Dennett X, Trounce I. Oxidative energy failure in post-mitotic cells: a major factor in senescence. Rev Neurol (Paris). 1991;147(6-7):532-5. PMID: 1962059. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] Wu WX, Derks JB, Zhang Q, Nathanielsz PW. Changes in heat shock protein-90 and -70 messenger ribonucleic acid in uterine tissues of the ewe in relation to parturition and regulation by estradiol and progesterone. Endocrinology. 1996 Dec;137(12):5685-93. doi: 10.1210/endo.137.12.8940400. PMID: 8940400. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5338,6 +5289,33 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Sharma GP, Eiseman B. Protective effect of ATP in experimental hemorrhagic shock. Surgery. 1966 Jan;59(1):66-75. PMID: 5901454. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] TALAAT SM, MASSION WH, SCHILLING JA. EFFECTS OF ADENOSINE TRIPHOSPHATE ADMINISTRATION IN IRREVERSIBLE HEMORRHAGIC SHOCK. Surgery. 1964 Jun;55:813-9. PMID: 14168003. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] G. R. Bartlett, The Human Red Cell in Vitro, pages 5-29, Greenwah and Jamieson, eds., Grune and Stratton, London, 1974 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Keef KD, Pasco JS, Eckman DM. Purinergic relaxation and hyperpolarization in guinea pig and rabbit coronary artery: role of the endothelium. J Pharmacol Exp Ther. 1992 Feb;260(2):592-600. PMID: 1738109. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Rønning G, Sager G, Revhaug A. Intraosseous infusion of a small volume of hyperosmotic fluid increases mean arterial pressure and lessens the catecholamine response in pigs with haemorrhagic shock. Eur J Surg. 1995 Oct;161(10):715-20. PMID: 8555337. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Rønning G, Busund R, Revhaug A, Sager G. Effect of haemorrhagic shock and intraosseous resuscitation on plasma and urine catecholamine concentrations and urinary clearance in pigs. Eur J Surg. 1995 Jun;161(6):387-94. PMID: 7548373. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] MC, MAZZONI. "Capillary narrowing in hemorrhagic shock is rectified by hyperosmotic saline-dextran reinfusion." Circ Shock 31 (1990): 407-418. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] Pascual JM, Watson JC, Runyon AE, Wade CE, Kramer GC. Resuscitation of intraoperative hypovolemia: a comparison of normal saline and hyperosmotic/hyperoncotic solutions in swine. Crit Care Med. 1992 Feb;20(2):200-10. PMID: 1371098. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Solomatina VD. Osobennosti obmena fosfornykh soedineniĭ v mitokhondriiakh pecheni karpa pri adaptatsii k povyshennomu urovniu uglekisloty v vode [Peculiarities of phosphoric compound metabolism in liver mitochondria of carp adapted to higher concentrations of CO2 in water]. Ukr Biokhim Zh (1978). 1980 Mar-Apr;52(2):183-6. Russian. PMID: 6247795. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5357,6 +5335,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Rothen A. Daily periodicity in the activity of a slide used to perform immunologic reactions at a liquid-solid interface. Proc Natl Acad Sci U S A. 1975 Jun;72(6):2462-4. doi: 10.1073/pnas.72.6.2462. PMID: 1094472; PMCID: PMC432780. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] Rothen A, Mathot C. Immunoelectroadsorption. The fundamentals of the immunoelectroadsorption method. Immunochemistry. 1969 Mar;6(2):241-51. PMID: 5778779. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Mitsui Y, Yamamoto K, Yamamoto M, Matuoka K. Cell surface changes in senescent and Werner's syndrome fibroblasts: their role in cell proliferation. Adv Exp Med Biol. 1985;190:567-85. doi: 10.1007/978-1-4684-7853-2_30. PMID: 4083164. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Bernhard SA. The intracellular equilibrium thermodynamic and steady-state concentrations of metabolites. Cell Biophys. 1988 Jan-Jun;12:119-32. doi: 10.1007/BF02918354. PMID: 2453275. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16] Gospodarowicz D, Greenburg G, Birdwell CR. Determination of cellular shape by the extracellular matrix and its correlation with the control of cellular growth. Cancer Res. 1978 Nov;38(11 Pt 2):4155-71. PMID: 359133. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] Tauber JP, Cheng J, Gospodarowicz D. Effect of high and low density lipoproteins on proliferation of cultured bovine vascular endothelial cells. J Clin Invest. 1980 Oct;66(4):696-708. doi: 10.1172/JCI109907. PMID: 7419717; PMCID: PMC371644. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5376,6 +5372,39 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[09] Strong LC, Matsunaga H. Effect of 5-methyl-cytidine on growth and regression of spontaneous tumours in mice. Cytobios. 1973 Jul-Aug;7(28):253-7. PMID: 4760571. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Strong LC, Matsunaga H. Further studies on a transmissible entity in relation to the control of cancer in mice. J Surg Oncol. 1975;7(5):367-73. doi: 10.1002/jso.2930070507. PMID: 1177469. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] Decloître F, Martin M, Ouldelhkim M, Nizard C. Altérations du cytosquelette cellulaire et promotion tumorale hépatique [Modification of the cellular cytoskeleton and hepatic tumor promotion]. Bull Cancer. 1990;77(5):479-83. French. PMID: 2400820. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[37] Lafarge-Frayssinet C, Frayssinet C. Oncogènes et promotion tumorale [Oncogenes and tumor promotion]. Bull Cancer. 1990;77(5):475-8. French. PMID: 2400819. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[38] Lafarge-Frayssinet C, Morel-Chany E, Trincal G, Frayssinet C. Enhancement of DNA synthesis by biliverdin in a non-transformed liver cell strain. Cell Mol Biol Incl Cyto Enzymol. 1981;27(2-3):77-82. PMID: 6271402. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[40] Paradisi F, Graziano L, de Ritis F. A cytochemical study of some enzyme activities in biliverdin-treated cell cultures. Pathol Biol (Paris). 1975 Feb;23(2):101-5. PMID: 165446. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[42] Takahashi K, Hara E, Ogawa K, Kimura D, Fujita H, Shibahara S. Possible implications of the induction of human heme oxygenase-1 by nitric oxide donors. J Biochem. 1997 Jun;121(6):1162-8. doi: 10.1093/oxfordjournals.jbchem.a021710. PMID: 9354392. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[43] Kostoglou-Athanassiou I, Jacobs RA, Satta MA, Dahia PL, Costa A, Navarra P, Chew SL, Forsling ML, Grossman AB. Acute and subacute effects of endotoxin on hypothalamic gaseous neuromodulators. Ann N Y Acad Sci. 1998 May 1;840:249-61. doi: 10.1111/j.1749-6632.1998.tb09565.x. PMID: 9629253. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[44] Chekulaev VA, Shelepov VP, Pasha-zade GR, Shapot VS. Aktivatsiia lipoliza i ketogeneza v opukholevom organizme kak otrazhenie khronicheskogo stressornogo sostoianiia [Activation of lipolysis and ketogenesis in tumor-bearing animals as a reflection of chronic stress states]. Biokhimiia. 1987 Sep;52(9):1501-11. Russian. PMID: 3676360. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[45] Potapova GI, Shapot VS. Sopriazhennost' immunodepresii i narusheniĭ nukleinovogo obmena limfoidnoĭ tkani kak proiavlenie paraneoplasticheskogo sindroma [Combination of immunodepression and disorders in nucleic acid metabolism of lymphoid tissue as a manifestation of a paraneoplastic syndrome]. Arkh Patol. 1987;49(6):10-8. Russian. PMID: 3310967. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[50] Wetterberg L, Olsson MB, Alm-Agvald I. Ostrogenbehandling gav akuta porfyriattacker [Estrogen treatment caused acute attacks of porphyria]. Lakartidningen. 1995 May 24;92(21):2197-8, 2201. Swedish. PMID: 7776757. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5395,6 +5424,33 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[06] ]16] McCall WV, Ellinwood EH Jr, Nishita JK, Lee TH. Clomiphene blocks the effect of intravenous estradiol on the firing rate of rat nigral dopamine neurons. Res Commun Chem Pathol Pharmacol. 1988 Apr;60(1):141-4. PMID: 3381008. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] Burtea C, David A, Butnaru F. The role of catecholamines in the distribution of steroid hormones in the striated and cardiac muscle. Rom J Endocrinol. 1993;31(1-2):41-8. PMID: 8173572. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Verrecchia F, Hervé JC. Reversible inhibition of gap junctional communication elicited by several classes of lipophilic compounds in cultured rat cardiomyocytes. Can J Cardiol. 1997 Nov;13(11):1093-100. PMID: 9413243. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Moss RL, Gu Q, Wong M. Estrogen: nontranscriptional signaling pathway. Recent Prog Horm Res. 1997;52:33-68; discussion 68-9. PMID: 9238847. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28] Wiebe JP. Nongenomic actions of steroids on gonadotropin release. Recent Prog Horm Res. 1997;52:71-99; discussion 99-101. PMID: 9238848. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Wiebe JP. Nongenomic actions of steroids on gonadotropin release. Recent Prog Horm Res. 1997;52:71-99; discussion 99-101. PMID: 9238848. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] Kobayashi K, Kobayashi H, Ueda M, Honda Y. Estrogen receptor expression in bovine and rat retinas. Invest Ophthalmol Vis Sci. 1998 Oct;39(11):2105-10. PMID: 9761289. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[33] Bodey B, Bodey B Jr, Kaiser HE. Immunocytochemical detection of prostate specific antigen expression in human breast carcinoma cells. Anticancer Res. 1997 Jul-Aug;17(4A):2577-81. PMID: 9252683. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[35] Tsukamoto Y, Kuwabara K, Hirota S, Kawano K, Yoshikawa K, Ozawa K, Kobayashi T, Yanagi H, Stern DM, Tohyama M, Kitamura Y, Ogawa S. Expression of the 150-kd oxygen-regulated protein in human breast cancer. Lab Invest. 1998 Jun;78(6):699-706. PMID: 9645760. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5414,6 +5470,27 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Pak GD, Sverchkova VS. Rol' uglekisloty v korrektsii koaguliatsionnogo gemostaza pri gipoksii [Role of carbon dioxide in the correction of coagulation hemostasis during hypoxia]. Kosm Biol Aviakosm Med. 1987 Nov-Dec;21(6):43-7. Russian. PMID: 3125377.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[02] Wong DW, Mishkin FS, Tanaka TT. The effects of bicarbonate on blood coagulation. JAMA. 1980 Jul 4;244(1):61-2. PMID: 7382058. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Fujimoto M, Mizuno S. [Erythrocyte calcium and pH levels during postoperative tetany following radical operations for thyroid cancer]. Nihon Geka Gakkai Zasshi. 1987 Jul;88(7):864-71. Japanese. PMID: 3670271. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] Stadler G, Steurer J, Dür P, Binswanger U, Vetter W. Elektrolytveränderungen während und nach willkürlicher Hyperventilation [Electrolyte changes during and after voluntary hyperventilation]. Praxis (Bern 1994). 1995 Mar 21;84(12):328-34. German. PMID: 7701171. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Davidoff F. Guanidine derivatives in medicine. N Engl J Med. 1973 Jul 19;289(3):141-6. doi: 10.1056/NEJM197307192890308. PMID: 4576011. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[08] Hermann LS. Biguanides and lactate metabolism: a review. Dan Med Bull. 1973 Jun;20(3):65-79. PMID: 4594325. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] Vannucci RC, Brucklacher RM, Vannucci SJ. Effect of carbon dioxide on cerebral metabolism during hypoxia-ischemia in the immature rat. Pediatr Res. 1997 Jul;42(1):24-9. doi: 10.1203/00006450-199707000-00005. PMID: 9212033. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5433,6 +5510,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Folgering H. The pathophysiology of hyperventilation syndrome. Monaldi Arch Chest Dis. 1999 Aug;54(4):365-72. PMID: 10546483. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Obrosov AN. K voprosu o mekhanizme lechebnogo deĭstviia fizicheskikh faktorov [The mechanism of the therapeutic action of physical factors]. Vopr Kurortol Fizioter Lech Fiz Kult. 1990 Sep-Oct;(5):46-9. Russian. PMID: 2281625.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] Baum MA, Harris HW. Recent insights into the coordinate regulation of body water and divalent mineral ion metabolism. Am J Med Sci. 1998 Nov;316(5):321-8. doi: 10.1097/00000441-199811000-00005. PMID: 9822114. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[05] Stadler G, Steurer J, Dür P, Binswanger U, Vetter W. Elektrolytveränderungen während und nach willkürlicher Hyperventilation [Electrolyte changes during and after voluntary hyperventilation]. Praxis (Bern 1994). 1995 Mar 21;84(12):328-34. German. PMID: 7701171. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Steurer J, Pei P, Vetter W. Einfluss einer kurzzeitigen Hyperventilation auf die Konzentration des ionisierten Serumcalciums [The effect of short-term hyperventilation on the concentration of ionized serum calcium]. Dtsch Med Wochenschr. 1997 Jul 11;122(28-29):887-9. German. doi: 10.1055/s-2008-1047705. PMID: 9264919. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5452,6 +5544,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[25] T. Nencioni and F. Polvani, "Rationale for the use of calcitonin in the prevention of post-menopausal osteopo rosis," in Calcitonin, A. Pecile, editor, Elsevier Science Publ., 1985. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] C. C. Johnston, et aI., "Age-related bone loss," pages 91-100 in U. S. Barrel, editor, Osteoporosis II, Grone and Stratton, N. Y., 1979. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5471,9 +5569,60 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[03] Aschner M, Kimelberg HK. The use of astrocytes in culture as model systems for evaluating neurotoxic-induced-injury. Neurotoxicology. 1991 Fall;12(3):505-17. PMID: 1684034. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] Brignone JA, Campos de Brignone CM, Rodríguez RR, Marzi A, Rebagliati de Mignone I, Rodoni MJ, Susemihl MC. Effect in vivo of endogenous sexual hormones upon the liver mitochondrial function compared in male and female diabetic rats. Acta Physiol Pharmacol Latinoam. 1989;39(3):197-209. PMID: 2534494. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Dawson TM, Dawson VL. ADP-ribosylation as a mechanism for the action of nitric oxide in the nervous system. New Horiz. 1995 Feb;3(1):85-92. PMID: 7704595. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Felipo V, Hermenegildo C, Montoliu C, Llansola M, Miñana MD. Neurotoxicity of ammonia and glutamate: molecular mechanisms and prevention. Neurotoxicology. 1998 Aug-Oct;19(4-5):675-81. PMID: 9745928. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] Hirata T, Koehler RC, Kawaguchi T, Brusilow SW, Traystman RJ. Impaired pial arteriolar reactivity to hypercapnia during hyperammonemia depends on glutamine synthesis. Stroke. 1996 Apr;27(4):729-36. doi: 10.1161/01.str.27.4.729. PMID: 8614939. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16] Gourdon I, Guérin MC, Torreilles J. Modulation de l'activité respiratoire des macrophages rénaux du loup (Dicentrarchus labrax) par exposition chronique à des concentrations sublétales d'ammoniaque [Modulation of respiratory activity of renal macrophages in sea bass (Dicentrarchus labrax) by chronic exposure to sublethal concentration of ammonia]. C R Seances Soc Biol Fil. 1997;191(4):617-25. French. PMID: 9404463. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Kozakiewicz J, Wrzolkowa T. Badania nad ultrastruktura tkanki łacznej w profirii póznej oraz zwyrodnieniu starczym skóry (elastosis senilis [Ultrastructure of connective tissue in porphyria cutanea tarda and elastosis senilis]. Przegl Dermatol. 1973 May-Jun;60(3):289-96. Polish. PMID: 4748069. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Lamartiniere CA. Modulation (feminization) of hepatic enzymes by an ectopic pituitary tumor. Endocrinology. 1985 Aug;117(2):523-6. doi: 10.1210/endo-117-2-523. PMID: 3926455. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Ogonowski AA, May SW, Moore AB, Barrett LT, O'Bryant CL, Pollock SH. Antiinflammatory and analgesic activity of an inhibitor of neuropeptide amidation. J Pharmacol Exp Ther. 1997 Feb;280(2):846-53. PMID: 9023299. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[31] Pushkina NV, Tsybul'skiĭ IE, Lukash AI. Amidirovannost' belkov krovi v usloviiakh giperglikemii pri éksperimental'nom sakharnom diabete [Amidation of blood proteins during hyperglycemia in experimental diabetes mellitus]. Vopr Med Khim. 1987 Jul-Aug;33(4):52-5. Russian. PMID: 3660740.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[35] Kurs'kyĭ MD. Viddil biokhimiĭ m'iaziv [Department of the Biochemistry of Muscles]. Ukr Biokhim Zh (1978). 1995 May-Jun;67(3):59-69. Ukrainian. PMID: 7571074. </t>
+  </si>
+  <si>
     <t xml:space="preserve">2001 Fibrosis, Estrogen, stiffness, excitotoxicity, aging</t>
   </si>
   <si>
+    <t xml:space="preserve">[10] Lahita RG. Collagen disease: the enemy within. Int J Fertil Womens Med. 1998 Sep-Oct;43(5):229-34. PMID: 9863615. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] Lanari A, de Kremer GH. Fibrosis y cirrosis en el conejo por acción del dietilestilbestrol y su inhibición por la progesterona [Fibrosis and cirrhosis in the rabbit induced by diethylstilbestrol and its inhibition with progesterone]. Medicina (B Aires). 1985;45(2):110-6. Spanish. PMID: 3841921. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Medicina (B Aires) 1983;43(6 Pt 1):677-681. [Effect of progesterone on the development of experimental pleural adhesions]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] Confino E, Friberg J, Vermesh M, Thomas W, Gleicher N. Effects of progesterone on postoperative adhesion formation in hysterectomized rabbits. Int J Fertil. 1988 Mar-Apr;33(2):139-42. PMID: 2898453. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Breborowicz A, Martis L, Oreopoulos DG. In vitro influence of lactate on function of peritoneal fibroblasts. Adv Perit Dial. 1994;10:225-9. PMID: 7999834. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[44] NI Arlashchenko, Izv Akad Nauk Ser BioI 1995 May-Jun;(3):361-6. [Disruption of the permeability of blood-tissue barriers in mechanisms of primary reaction to irradiation] Russian.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5493,6 +5642,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[10] Lin MT, Ho LT, Uang WN. Effects of anterior pituitary hormones and their releasing hormones on physiological and behavioral functions in rats. J Steroid Biochem. 1983 Jul;19(1B):433-8. doi: 10.1016/0022-4731(83)90200-5. PMID: 6350720. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Nicolau GY, Haus E, Lakatua DJ, Bogdan C, Petrescu E, Sackett-Lundeen L, Berg HG, Ioaniţiu D, Popescu M, Chioran C. Endocrine circadian time structure in the aged. Endocrinologie. 1982 Jul-Sep;20(3):165-76. PMID: 6755633. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5512,6 +5667,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Barrett-Connor E, Goodman-Gruen D, Patay B. Endogenous sex hormones and cognitive function in older men. J Clin Endocrinol Metab. 1999 Oct;84(10):3681-5. doi: 10.1210/jcem.84.10.6086. PMID: 10523014. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5531,6 +5689,36 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Grieve JF. Prevention of gestational failure by high protein diet. J Reprod Med. 1974 Nov;13(5):170-4. PMID: 4427320. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Huether G. Amino acid availability and brain development: effects of nutritional and metabolic inadequacies. Eur J Clin Nutr. 1989;43 Suppl 1:19-25. PMID: 2567665. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09] Mello NK, Sarnyai Z, Mendelson JH, Drieze JM, Kelly M. Acute effects of cocaine on anterior pituitary hormones in male and female rhesus monkeys. J Pharmacol Exp Ther. 1993 Aug;266(2):804-11. PMID: 8355210. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] Slotkin TA. Fetal nicotine or cocaine exposure: which one is worse? J Pharmacol Exp Ther. 1998 Jun;285(3):931-45. PMID: 9618392. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] Riley EP, LaFiette MH. The effects of prenatal cocaine exposure on subsequent learning in the rat. NIDA Res Monogr. 1996;164:53-77. PMID: 8809868. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] de Jong G, Pattinson RC, Odendaal HJ. Influence of perinatal care on stillbirths in patients of low socio-economic class. S Afr Med J. 1988 Jul 16;74(2):53-4. PMID: 3399970. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] Wolfe HM, Sokol RJ, Dombrowski MP, Bottoms SF, Norman GS. Increased neonatal urinary ammonia: a marker for in utero caloric deprivation? Am J Perinatol. 1989 Jan;6(1):4-7. doi: 10.1055/s-2007-999533. PMID: 2910317. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] [23] Chen WJ, McAlhany RE Jr, Maier SE, West JR. Cocaine exposure during the brain growth spurt failed to produce cerebellar Purkinje cell loss in rat pups. Teratology. 1996 Mar;53(3):145-51. doi: 10.1002/(SICI)1096-9926(199603)53:3&lt;145::AID-TERA1&gt;3.0.CO;2-3. PMID: 8761881. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Mansani FE, Cavatorta E, Ceruti M, Coppola F, Vadora E. Effetti della infusione di l-aminoacidi naturali liberi alla madre nella terapia della insufficienza feto-placentare cronica [Effects of the infusion of free natural L-amino acids in the mother in the treatment of chronic feto-placental insufficiency]. Ateneo Parmense Acta Biomed. 1974 Jan-APR;45(1-2):29-40. Italian. PMID: 4157137. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] Fanard A, Picazo JJ. Cómo estimular la función placentaria [How to stimulate the placental function (author's transl)]. Reproduccion. 1976 Jan-Jun;3(1-2):15-25. Spanish. PMID: 1027640. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5550,6 +5738,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Papousek M. Chronobiologische Aspekte der Zyklothymie [Chronobiological aspects of cyclothymia (author's transl)]. Fortschr Neurol Psychiatr Grenzgeb. 1975 Aug;43(8):381-440. German. PMID: 170178. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Watanabe A. [The influence of L-triiodothyronine on the action of desipramine on beta and serotonin 2A receptor, monoamines in the rat brain]. Nihon Shinkei Seishin Yakurigaku Zasshi. 1999 Oct;19(4):139-46. Japanese. PMID: 10681158.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Kotake H, Oikawa S. [Syndrome X]. Nihon Rinsho. 1999 Mar;57(3):622-6. Japanese. PMID: 10199144. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09] Donchenko GV, Kuchmerovskaia TM, Parkhomets PK, Obrosova IG, Klimenko AP, Efimov AS. Vliianie nikotinamida na zakhvat i vysvobozhdenie serotonina i GAMK sinaptosomami kory golovnogo mozga krys s diabetom, vyzvannym vozdeĭstviem streptozototsina [Effect of nicotinamide on the uptake and release of serotonin and GABA by cerebral cortex synaptosomes in rats with diabetes induced by streptozotocin]. Ukr Biokhim Zh (1978). 1995 Jan-Feb;67(1):105-11. Russian. PMID: 8588246. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Thase ME. Treatment issues related to sleep and depression. J Clin Psychiatry. 2000;61 Suppl 11:46-50. PMID: 10926055. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5569,6 +5772,39 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Pringuey D, Bovier P, Chiaroni P, Widmer J, Dufour H, Gaillard JM, Tissot R. Transports membranaires érythrocytaires de la L-tyrosine et du L-tryptophane chez 66 sujets atteints de syndromes dépressifs. Résultats préliminaires [Erythrocyte membrane transport of L-tyrosine and L-tryptophan in 66 patients with depressive syndromes. Preliminary results]. Acta Psychiatr Belg. 1986 Mar-Apr;86(2):131-40. French. PMID: 3728058. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[02] Scarr E, Copolov DL, Dean B. A proposed pathological model in the hippocampus of subjects with schizophrenia. Clin Exp Pharmacol Physiol. 2001 Jan-Feb;28(1-2):70-3. doi: 10.1046/j.1440-1681.2001.03400.x. PMID: 11153541. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Carrasco G, Cruz MA, Dominguez A, Gallardo V, Miguel P, González C. The expression and activity of monoamine oxidase A, but not of the serotonin transporter, is decreased in human placenta from pre-eclamptic pregnancies. Life Sci. 2000 Nov 3;67(24):2961-9. doi: 10.1016/s0024-3205(00)00883-3. PMID: 11133008. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] Schaeffer HJ, Sirotkin AV. Melatonin and serotonin regulate the release of insulin-like growth factor-I, oxytocin and progesterone by cultured human granulosa cells. Exp Clin Endocrinol Diabetes. 1997;105(2):109-12. doi: 10.1055/s-0029-1211736. PMID: 9137942. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[05] Levine ME, Duffy LK. Seasonal variation of the amino acid, L-tryptophan, in interior Alaska. Int J Circumpolar Health. 1998;57 Suppl 1:386-8. PMID: 10093312. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] van der Mast RC, Fekkes D. Serotonin and amino acids: partners in delirium pathophysiology? Semin Clin Neuropsychiatry. 2000 Apr;5(2):125-31. doi: 10.153/SCNP00500125. PMID: 10837101. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Carlini EA, Lindsey CJ. Effect of serotonergic drugs on the aggressiveness induced by delta 9-tetrahydrocannabinol in rem-sleep-deprived rats. Braz J Med Biol Res. 1982 Oct;15(4-5):281-3. PMID: 6303479. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Rúzsás C, Józsa R, Mess B. Inhibitory role of brain stem serotoninergic neuron system on thyroid function in rat. Endocrinol Exp. 1979 Mar;13(1):9-18. PMID: 160313. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] Anisimov VN, Zavarzina NIu, Zabezhinskiĭ MA, Popovich IG, Anikin IV, Zimina OA, Solov'ev MV, Shtylik AV, Arutiunian AV, Oparina TI, Prokopenko VM, Khavinson VKh. Vliianie melatonina na pokazateli biologicheskogo vozrasta, prodolzhitel'nost' zhizni i razvitie spontannykh opukholeĭ u mysheĭ [The effect of melatonin on the indices of biological age, on longevity and on the development of spontaneous tumors in mice]. Vopr Onkol. 2000;46(3):311-9. Russian. PMID: 10976278. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] Danilenko KV, Putilov AA, Russkikh GS, Duffy LK, Ebbesson SO. Diurnal and seasonal variations of melatonin and serotonin in women with seasonal affective disorder. Arctic Med Res. 1994 Jul;53(3):137-45. PMID: 7986318. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] Bozhko GKh, Tsaritsinskiĭ VI, Kostiukovskaia LS, Kulabukhov VM. Vliianie sveta povyshennoĭ intensivnosti na izmenenie soderzhaniia serotonina i melatonina u bol'nykh s depressieĭ [The effect of an increased intensity of light on changes in the serotonin and melatonin content in patients with depression]. Lik Sprava. 1994 Jul-Aug;(7-8):88-90. Russian. PMID: 7900366. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5588,6 +5824,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Ansari A, Collier J, Mohsenifar Z. Isolated reduction in single-breath diffusion capacity in young, healthy, asymptomatic women. Am J Med Sci. 1995 Dec;310(6):226-8. PMID: 7503101. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] di Filippo A, Scardi S, Consalvo M, Ridolfi N, Pellegrini G, Paternostro E, Novelli GP. L'etano espirato come marker non invasivo della evoluzione della multiple organ dysfunction syndrome (MODS) sperimentale [Expired ethane as a non-invasive marker of the course of experimental multiple organ dysfunction syndrome (MODS)]. Minerva Anestesiol. 1994 Jun;60(6):295-303. Italian. PMID: 7984312. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16] Kharitonov SA, Barnes PJ. Nitric oxide in exhaled air is a new marker of airway inflammation. Monaldi Arch Chest Dis. 1996 Dec;51(6):533-7. PMID: 9046169. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] van Bel F. Toediening van glucocorticosteroïden aan de te vroeg geborene: steeds meer aanwijzingen voor ongewenste bijwerkingen [Administration of glucocorticosteroids to premature infants: increasing evidence of adverse effects]. Ned Tijdschr Geneeskd. 2001 Dec 29;145(52):2521-5. Dutch. PMID: 11793826. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5607,9 +5855,60 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[12] Confino E, Friberg J, Vermesh M, Thomas W, Gleicher N. Effects of progesterone on postoperative adhesion formation in hysterectomized rabbits. Int J Fertil. 1988 Mar-Apr;33(2):139-42. PMID: 2898453. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Cragle RG. Dizygotic cattle twins and tissue tolerance. ORO-661. ORO Rep. 1967 Jul 1:50-5. PMID: 4890188. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Garegnani TC, Barcat JA, Pistoia OA, Lanari A. Acción de la progesterona en la organización de adherencias pleurales experimentales [Effect of progesterone on the development of experimental pleural adhesions]. Medicina (B Aires). 1983;43(6 Pt 1):677-81. Spanish. PMID: 6679032. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[31] Kothari MV, Mehta LA. An epitaph for the gene. An obituary for genetics. An adieu for heredity. J Postgrad Med. 1997 Jul-Sep;43(3):57-60. PMID: 10740723. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34] Lewis GC Jr. Progestin therapy for cancer of the uterine corpus. Pa Med. 1971 Apr;74(4):47-51. PMID: 4336781. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[39] Lahita RG. Collagen disease: the enemy within. Int J Fertil Womens Med. 1998 Sep-Oct;43(5):229-34. PMID: 9863615. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[40] Lanari A, de Kremer GH. Fibrosis y cirrosis en el conejo por acción del dietilestilbestrol y su inhibición por la progesterona [Fibrosis and cirrhosis in the rabbit induced by diethylstilbestrol and its inhibition with progesterone]. Medicina (B Aires). 1985;45(2):110-6. Spanish. PMID: 3841921. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[41] Rouayrenc JF, Vignon F, Bringer J, Pujol P. Les effets non-transcriptionnels des oestrogènes refont surface [Non-genomic steroid effects: estrogen action revisited]. Ann Endocrinol (Paris). 2000 Dec;61(6):517-523. French. PMID: 11148326. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[42] Rubin H. Cell damage, aging and transformation: a multilevel analysis of carcinogenesis. Anticancer Res. 1999 Nov-Dec;19(6A):4877-86. PMID: 10697601. </t>
+  </si>
+  <si>
     <t xml:space="preserve">2003-03 Estrogen's Mechanisms in Aging and Cancer</t>
   </si>
   <si>
+    <t xml:space="preserve">[02] Boljevic S, Kogan AH, Gracev SV, Jelisejeva SV, Daniljak IG. Osobina ugljen dioksida da inhibise stvaranje aktivnih oblika kiseonika u ćelijama coveka i zivotinja i znacaj ove pojave u biologiji i medicini [Carbon dioxide inhibits the generation of active forms of oxygen in human and animal cells and the significance of the phenomenon in biology and medicine]. Vojnosanit Pregl. 1996 Jul-Aug;53(4):261-74. Serbian. PMID: 9229940. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] Merlen JF. Microcirculation et contraceptifs oraux [Microcirculation and oral contraceptives]. Phlebologie. 1982 Apr-Jun;35(2):631-7. French. PMID: 7111432. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Reid AC, Teasdale GM, McCulloch J. Hormonal influence on water permeability across the blood-brain barrier. Clin Exp Neurol. 1983;19:50-3. PMID: 6568928. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[08] Lagrue G, Behar A, Morville R. Etude de la fonction ovarienne au cours des oedèmes idiopathiques orthostatiques. Administration orale de progestérone et variations de la perméabilité capillaire [Ovarian function in orthostatic idiopathic edema. Oral administration of progesterone and changes in capillary permeability]. Presse Med. 1983 Dec 10;12(45):2859-62. French. PMID: 6228862. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] Kimoto Y, Tanji Y, Taguchi T, Sugimoto T, Watanabe T, Tsukamoto F, Kim S, Yoneda K, Takamura Y, Izukura M, Shiba E, Takai S. Antitumor effect of medium-chain triglyceride and its influence on the self-defense system of the body. Cancer Detect Prev. 1998;22(3):219-24. doi: 10.1046/j.1525-1500.1998.0oa32.x. PMID: 9618043. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Trams G, Engel B, Lehmann F, Maass H. Specific binding of oestradiol in human uterine tissue. Acta Endocrinol (Copenh). 1973 Feb;72(2):351-60. doi: 10.1530/acta.0.0720351. PMID: 4739184. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Engel LL, Weidenfield J, Merriam GR. Metabolism of diethylstilbestrol by rat liver: a preliminary report. J Toxicol Environ Health Suppl. 1976;1:37-44. PMID: 11352. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Kimoto Y. Gene transcripts of eleven proteins with specific functions are all detected in human normal cells and tumor cell lines: a possible DNA--&gt;RNA basal constant flow. Hum Cell. 1995 Dec;8(4):202-10. PMID: 8721092. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5629,6 +5928,30 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[10] Correa ME, Finol HJ, Marquez A, Sosa L, Diaz NL. Ultrastructure of hepatocyte abnormalities in perimetastatic areas. J Submicrosc Cytol Pathol. 1998 Jul;30(3):371-7. PMID: 9723197. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] Eidemiller LR, Fletcher WS, Dennis DL, Krippaehne WW. Spontaneous remission of proven cancer. Northwest Med. 1971 Aug;70(8):539-43. PMID: 4327746. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16] Figge, F. H. J., and G. S. Weiland. "The affinity of neoplastic, embryonic, and traumatized tissue for porphyrins and metalloporphyrins." Anatomical record. Vol. 100. No. 4. DIV JOHN WILEY &amp; SONS INC, 605 THIRD AVE, NEW YORK, NY 10158-0012: WILEY-LISS, 1948. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[31] Nagy P, Csaba IF. Uber die Wirkungsweise von Ostrogenen auf den In-vitro-Stoffwechsel des aus menschlicher Frühschwangerschaft stammended Trophoblasten [Action of oestrogens on in vitro metabolism of trophoblast from human early pregnancy (author's transl)]. Zentralbl Gynakol. 1982;104(2):111-6. German. PMID: 7080714. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34] Pizer ES, Kurman RJ, Pasternack GR, Kuhajda FP. Expression of fatty acid synthase is closely linked to proliferation and stromal decidualization in cycling endometrium. Int J Gynecol Pathol. 1997 Jan;16(1):45-51. doi: 10.1097/00004347-199701000-00008. PMID: 8986532. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[47] Tian J, Zheng Y, Yang C. [Effect of sex hormones on heme oxygenase expression in rat ventral prostate]. Sheng Li Xue Bao. 2004 Feb 25;56(1):54-9. Chinese. PMID: 14985830. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[50] Yam D, Eliraz A, Berry EM. Diet and disease--the Israeli paradox: possible dangers of a high omega-6 polyunsaturated fatty acid diet. Isr J Med Sci. 1996 Nov;32(11):1134-43. PMID: 8960090. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[51] Zajicek G. Pernicious cachexia: a different view of cancer. Anticancer Res. 1999 Nov-Dec;19(6A):4907-12. PMID: 10697603. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5648,6 +5971,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[14] Terral C, Godard P, Michel FB, Macabies J. Influence des estrogènes sur l'histamino-libération du sang total induite par des allergènes in vitro [Influence of estrogens on histamines liberation by whole blood induced by allergens in vitro]. C R Seances Soc Biol Fil. 1981;175(2):247-52. French. PMID: 6166357. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Torreilles J, Guérin MC. Peut-on parler d'un stress NO? [Does nitric oxide stress exist?]. C R Seances Soc Biol Fil. 1995;189(3):389-400. French. PMID: 8521087. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] Bazarevich GIa, Deviataev AM, Likhtenshteĭn AO, Natsvlishvili BP, Sadeko MKh. Rol' biologicheskoĭ aktivnosti serotonina v formirovanii sindroma "shokovogo" legkogo [Role of the biological activity of serotonin in the production of the "shock lung" syndrome]. Biull Eksp Biol Med. 1976 Oct;82(10):1181-3. Russian. PMID: 1029497. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[40] Fehrenbach E, Northoff H. Free radicals, exercise, apoptosis, and heat shock proteins. Exerc Immunol Rev. 2001;7:66-89. PMID: 11579749. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[51] Coe JE, Ross MJ. Hamster female protein, a sex-limited pentraxin, is a constituent of Syrian hamster amyloid. J Clin Invest. 1985 Jul;76(1):66-74. doi: 10.1172/JCI111978. PMID: 4019787; PMCID: PMC423708. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5667,6 +6005,42 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[10] Genovesi G, Paolini P, Marcellini L, Vernillo E, Salvati G, Polidori G, Ricciardi D, de Nuccio I, Re M. Relationship between autoimmune thyroid disease Rand Alzheimer's disease. Panminerva Med. 1996 Mar;38(1):61-3. PMID: 8766884. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] Graebert KS, Popp GM, Kehle T, Herzog V. Regulated O-glycosylation of the Alzheimer beta-A4 amyloid precursor protein in thyrocytes. Eur J Cell Biol. 1995 Jan;66(1):39-46. PMID: 7750518. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Graebert KS, Lemansky P, Kehle T, Herzog V. Localization and regulated release of Alzheimer amyloid precursor-like protein in thyrocytes. Lab Invest. 1995 May;72(5):513-23. PMID: 7745947. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Ishii K, Hayashi A, Tamaoka A, Mizusawa H, Shoji S. [A case of Hashimoto's encephalopathy with a relapsing course related to menstrual cycle]. Rinsho Shinkeigaku. 1993 Sep;33(9):995-7. Japanese. PMID: 8299282. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] König F, von Hippel C, Petersdorff T, Kaschka W. Schilddrüsenautoantikörper bei depressiven Erkrankungen [Thyroid autoantibodies in depressive disorders]. Acta Med Austriaca. 1999;26(4):126-8. German. PMID: 10526630. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] Konno N, Iizuka N, Kawasaki K, Taguchi H, Miura K, Taguchi S, Murakami S, Hagiwara K, Noda Y, Ukawa S. [Screening for thyroid dysfunction in adults residing in Hokkaido Japan: in relation to urinary iodide concentration and thyroid autoantibodies]. Hokkaido Igaku Zasshi. 1994 May;69(3):614-26. Japanese. PMID: 7927185. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Penhale WJ, Young PR. The influence of the normal microbial flora on the susceptibility of rats to experimental autoimmune thyroiditis. Clin Exp Immunol. 1988 May;72(2):288-92. PMID: 2970354; PMCID: PMC1541533. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] Poverennyĭ AM, Shinkarkina AP, Vinogradova IuE, Beziaeva GP, Podgorodnichenko VK, Tsyb AF. Veroiatnye posledstviia povrezhdeniia radioaktivnym ĭodom shchitovidnoĭ zhelezy v period Chernobyl'skoĭ avarii [The probable sequelae of thyroid damage from radioactive iodine during the Chernobyl accident]. Radiats Biol Radioecol. 1996 Jul-Aug;36(4):632-40. Russian. PMID: 8925035. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[36] Shinkarkina AP, Podgorodnichenko VK, Poverennyĭ AM. Antitela k mikrosomal'nomu antigenu shchitovidnoĭ zhelezy u deteĭ i podrostkov, podvergshikhsia radiatsionnomu vozdeĭstviiu v rezul'tate avarii na Chernobyl'skoĭ AES [Antibodies to the thyroid microsomal antigen in children and adolescents subjected to radiation exposure as a result of the accident at the Chernobyl Atomic Electric Power Station]. Radiats Biol Radioecol. 1994 Jan-Feb;34(1):3-7. Russian. PMID: 8148974. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[37] Schumm-Draeger PM, Länger F, Caspar G, Rippegather K, Herrmann G, Fortmeyer HP, Usadel KH, Hübner K. Spontane Hashimoto-artige Thyreoiditis im Modell der Katze [Spontaneous Hashimoto-like thyroiditis in cats]. Verh Dtsch Ges Pathol. 1996;80:297-301. German. PMID: 9065031. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[38] Sterzl I, Hrdá P, Procházková J, Bártová J, Matucha P. Reakce na kovy u pacientů s chronickou únavou a autoimunitními endokrinopatiemi [Reactions to metals in patients with chronic fatigue and autoimmune endocrinopathy]. Vnitr Lek. 1999 Sep;45(9):527-31. Czech. PMID: 10951876. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[42] Wémeau JL. Hypothyroïdies liées aux surcharges iodées [Hypothyroidism related to excess iodine]. Presse Med. 2002 Oct 26;31(35):1670-5. French. PMID: 12448334. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5686,6 +6060,33 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[05] Ayres S Jr, Mihan R. Is vitamin E involved in the autoimmune mechanism? Cutis. 1978 Mar;21(3):321-5. PMID: 343998. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Bennett M, Uauy R, Grundy SM. Dietary fatty acid effects on T-cell-mediated immunity in mice infected with mycoplasma pulmonis or given carcinogens by injection. Am J Pathol. 1987 Jan;126(1):103-13. PMID: 3812635; PMCID: PMC1899541. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09] Blank M, Mendlovic S, Fricke H, Mozes E, Talal N, Shoenfeld Y. Sex hormone involvement in the induction of experimental systemic lupus erythematosus by a pathogenic anti-DNA idiotype in naive mice. J Rheumatol. 1990 Mar;17(3):311-7. PMID: 2332851. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] Bliznakov EG. Serotonin and its precursors as modulators of the immunological responsiveness in mice. J Med. 1980;11(2-3):81-105. PMID: 6967931. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Ishii K, Hayashi A, Tamaoka A, Mizusawa H, Shoji S. [A case of Hashimoto's encephalopathy with a relapsing course related to menstrual cycle]. Rinsho Shinkeigaku. 1993 Sep;33(9):995-7. Japanese. PMID: 8299282. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[45] Talal N, Dang H, Ahmed SA, Kraig E, Fischbach M. Interleukin 2, T cell receptor and sex hormone studies in autoimmune mice. J Rheumatol Suppl. 1987 Jun;14 Suppl 13:21-5. PMID: 3112377. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[46] Talal N, Ahmed SA. Sex hormones, CD5+ (Lyl+) B-cells, and autoimmune diseases. Isr J Med Sci. 1988 Dec;24(12):725-8. PMID: 3265707. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[48] Talal N. Sex hormones and modulation of immune response in SLE. Clin Rheum Dis. 1982 Apr;8(1):23-8. PMID: 6749398. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[50] Torras H, Ferrando J, Mallolas J. Dermatitis postovulación (dermatitis por progesterona) [Postovulation dermatitis (dermatitis caused by progesterone)]. Med Cutan Ibero Lat Am. 1980;8(1-3):15-21. Spanish. PMID: 7022048. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5705,6 +6106,33 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[28] Genazzani AR, Trentini GP, Petraglia F, De Gaetani CF, Criscuolo M, Ficarra G, De Ramundo BM, Cleva M. Estrogens modulate the circadian rhythm of hypothalamic beta-endorphin contents in female rats. Neuroendocrinology. 1990 Sep;52(3):221-4. doi: 10.1159/000125589. PMID: 2120604. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Genç S, Gürdöl F, Oner-Iyidoğan Y, Süzme R. Acute effects of estradiol and of diethylstilbestrol: pro- or antioxidant potential? Res Commun Mol Pathol Pharmacol. 1999;105(3):253-61. PMID: 10954129. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[43] Lanari A, Garegnani TC, Heinrichs G, Castresana MP. Fibrosis hepática y progesterona [Hepatic fibrosis and progesterone]. Acta Gastroenterol Latinoam. 1988;18(3):161-71. Spanish. PMID: 3270299. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[44] Leathard HL. New possibilities for anti-migraine drugs: prostanoid antagonists and progesterone-mimicking stabilizers of excitable cells. Drug Des Deliv. 1989 Mar;4(2):85-91. PMID: 2569876.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[46] Li EJ, Cook JA, Spicer KM, Wise WC, Rokach J, Halushka PV. Resistance of essential fatty acid-deficient rats to endotoxin-induced increases in vascular permeability. Circ Shock. 1990 Jun;31(2):159-70. PMID: 2188748. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[50] Mölleken K. Leberbiopsiebefunde nach Einnahme oraler Kontrazeptiva [Liver biopsy findings after intake of oral contraceptives (author's transl)]. Zentralbl Allg Pathol. 1979;123(3):195-201. German. PMID: 473954. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[58] Parmar NS. The gastric anti-ulcer activity of naringenin, a specific histidine decarboxylase inhibitor. Int J Tissue React. 1983;5(4):415-20. PMID: 6671888. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[80] Wang CK, Liu JD, Lin SY, Liao LY, Cheng NY, Wang CS, Siauw CP, Chen PH. Drug-induced liver disease--a review of 14 cases. Gaoxiong Yi Xue Ke Xue Za Zhi. 1995 Apr;11(4):213-9. PMID: 7602656. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[82] Wise PM, Kashon ML, Krajnak KM, Rosewell KL, Cai A, Scarbrough K, Harney JP, McShane T, Lloyd JM, Weiland NG. Aging of the female reproductive system: a window into brain aging. Recent Prog Horm Res. 1997;52:279-303; discussion 303-5. PMID: 9238857. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5724,6 +6152,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[14] Belousov LV, Popp FA, Kazakova NI. Sverkhslabye izlucheniia kurinykh iaits i zarodysheĭ: neadditivnoe vzaimodeĭstvie dvukh izluchateleĭ i ustoĭchivaia neravnovesnost' [Ultraweak emissions from chicken eggs and embryos: the nonadditive interaction of 2 emitters and stable nonequilibrium]. Ontogenez. 1997 Sep-Oct;28(5):377-88. Russian. PMID: 9411317. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Nagl W, Popp FA. A physical (electromagnetic) model of differentiation. 1. Basic considerations. Cytobios. 1983;37(145):45-62. PMID: 6851665. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Popp FA. A very significant correlation between carcinogenic activity of polycyclic hydrocarbons and certain properties of their transition states in the range of the lowest triplet states of the DNA. Arch Geschwulstforsch. 1977;47(2):97-105. PMID: 879983. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Ruth B, Popp FA. Experimentelle Untersuchungen zur ultraschwachen Photonenemission biologischer Systeme [Experimental investigations on ultraweak photonemission form biological systems (author's transl)]. Z Naturforsch C Biosci. 1976 Nov-Dec;31(11-12):741-5. German. PMID: 138296. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5743,6 +6183,39 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[06] Birkle DL. Reciprocal regulation of fatty acid release in the brain by GABA and glutamate. Adv Exp Med Biol. 1992;318:57-71. doi: 10.1007/978-1-4615-3426-6_6. PMID: 1353287.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] Cheng CM, Hicks K, Wang J, Eagles DA, Bondy CA. Caloric restriction augments brain glutamic acid decarboxylase-65 and -67 expression. J Neurosci Res. 2004 Jul 15;77(2):270-6. doi: 10.1002/jnr.20144. PMID: 15211593. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Chuang DM. Neuroprotective and neurotrophic actions of the mood stabilizer lithium: can it be used to treat neurodegenerative diseases? Crit Rev Neurobiol. 2004;16(1-2):83-90. doi: 10.1615/critrevneurobiol.v16.i12.90. PMID: 15581403. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[36] Novikov VE, Iasnetsov VV, Evseev AV, Merkulova LI. Farmakologicheskaia korrektsiia aktivnosti protsessov perekisnogo okisleniia lipidov v dinamike cherepno-mozgovoĭ travmy [The pharmacological correction of the activity of lipid peroxidation processes in the dynamics of craniocerebral trauma]. Eksp Klin Farmakol. 1995 Jan-Feb;58(1):46-8. Russian. PMID: 7787698.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[37] Toksikol, Farmakol. "Nov-Dec; 54 (6): 44-6.[The effect of GABA-ergic agents on oxidative phosphorylation in the brain mitochondria in traumatic edema][Article in Russian]." Novikov VE, Sharov A (1991). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[42] Reddy DS, Apanites LA. Anesthetic effects of progesterone are undiminished in progesterone receptor knockout mice. Brain Res. 2005 Feb 1;1033(1):96-101. doi: 10.1016/j.brainres.2004.11.026. PMID: 15680344. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[46] Rho JM, Anderson GD, Donevan SD, White HS. Acetoacetate, acetone, and dibenzylamine (a contaminant in l-(+)-beta-hydroxybutyrate) exhibit direct anticonvulsant actions in vivo. Epilepsia. 2002 Apr;43(4):358-61. doi: 10.1046/j.1528-1157.2002.47901.x. PMID: 11952765. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[48] Riou JP, Beylot M, Perrot L, Klioua R, Odeon M, Mornex R. Influence de l'état thyroïdien sur la cétogénèse [Effect of thyroid function on ketogenesis (author's transl)]. Ann Endocrinol (Paris). 1980 Nov-Dec;41(6):562-7. French. PMID: 7247339. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[56] Silverman BS. Use of magnesium sulfate to control status epilepticus. Mod Vet Pract. 1982 May;63(5):384. PMID: 7187925. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[57] Simon RP, Niro M, Gwinn R. Brain acidosis induced by hypercarbic ventilation attenuates focal ischemic injury. J Pharmacol Exp Ther. 1993 Dec;267(3):1428-31. PMID: 8263804. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[70] Yeh GC, Wang SM, Wang IF. Interaction of arachidonic acid with ligand binding sites of the N-methyl-D-aspartate receptor in rat hippocampal membranes. Chin J Physiol. 1995;38(2):117-23. Erratum in: Chin J Physiol 1995;38(3):200. PMID: 8697896. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5762,6 +6235,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[29] Guimarães AR, Costa Rosa LF, Safi DA, Curi R. Metabolic and functional changes in macrophages of rats fed polyunsaturated or saturated fatty acid rich-diets during ageing. Biochem Int. 1992 Jun;27(1):9-16. PMID: 1627181. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] Guimarães AR, Costa Rosa LF, Sitnik RH, Curi R. Effect of polyunsaturated (PUFA n-6) and saturated fatty acids-rich diets on macrophage metabolism and function. Biochem Int. 1991 Feb;23(3):533-43. PMID: 1877991. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[44] Krause A, Liepke C, Meyer M, Adermann K, Forssmann WG, Maronde E. Human natriuretic peptides exhibit antimicrobial activity. Eur J Med Res. 2001 May 29;6(5):215-8. PMID: 11410403. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[68] Sukhikh GT, Meerson FZ, Mikhaleva II. Stressornoe snizhenie rezistentnosti organizma k opukholevomu rostu i preduprezhdenie étogo iavleniia tsentral'nymi tormoznymi metabolitami [Stress-induced decrease in body resistance to tumor growth and the prevention of this phenomenon by central inhibitory metabolites]. Dokl Akad Nauk SSSR. 1984 Sep-Oct;278(1):253-6. Russian. PMID: 6548436. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[74] Vesely DL. Cardiac and renal hormones: anticancer effects in vitro and in vivo. J Investig Med. 2009 Jan;57(1):22-8. doi: 10.2310/JIM.0b013e3181948b25. PMID: 19092678. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[82] Zhao YL, Wang JH, Cheng CP. [Effect of ANP on estradiol and progesterone production by rat ovarian cells]. Sheng Li Xue Bao. 1991 Dec;43(6):580-3. Chinese. PMID: 1839085. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5784,6 +6275,31 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">[15] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.sciencedaily.com/releases/2009/06/090624152811.htm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[28] Horner KC. The effect of sex hormones on bone metabolism of the otic capsule--an overview. Hear Res. 2009 Jun;252(1-2):56-60. doi: 10.1016/j.heares.2008.12.004. Epub 2008 Dec 24. PMID: 19121641. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[58] Tian XM, Ma XD, Yan F. [Resveratrol promotes Ca2+-induced Ca2+ release from rat liver cell mitochondria mediated by Ca2+]. Nan Fang Yi Ke Da Xue Xue Bao. 2006 Jul;26(7):910-3. Chinese. PMID: 16864075. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -5800,6 +6316,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[21] Sótonyi PT, Dobozy O, Csaba G. Changes of free histones in chick testicular and ovarian cells after embryonic and/or neonatal treatment with diethylstilbestrol (DES) or allyloestrenol (AE). Acta Morphol Hung. 1986;34(1-2):23-9. PMID: 3105256. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Voeĭkov VL, Malenkov AG. Issledovanie élektroprovodnosti suspenziĭ normal'nykh i opukholevykh kletok [Electric conductivity of suspensions of normal and neoplastic cells]. Biofizika. 1971 Jul-Aug;16(4):657-62. Russian. PMID: 4328357. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Voeĭkov VL. Bio-fiziko-khimicheskie aspekty stareniia i dolgoletiia [Bio-physico-chemical aspects of aging and longevity]. Adv Gerontol. 2002;9:54-66. Russian. PMID: 12096439. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Voeikov VL, Asfaramov R, Bouravleva EV, Novikov CN, Vilenskaya ND. Biophoton research in blood reveals its holistic properties. Indian J Exp Biol. 2003 May;41(5):473-82. PMID: 15244269. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5819,6 +6347,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[09] Carlini EA, Lindsey CJ. Effect of serotonergic drugs on the aggressiveness induced by delta 9-tetrahydrocannabinol in rem-sleep-deprived rats. Braz J Med Biol Res. 1982 Oct;15(4-5):281-3. PMID: 6303479. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] Kazura JW. Eosinophilia-myalgia syndrome. Cleve Clin J Med. 1991 May-Jun;58(3):267-70. doi: 10.3949/ccjm.58.3.267. PMID: 1893558. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5838,6 +6372,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[17] Zajicek G, Arber N, Schwartz-Arad D, Ariel I. Streaming pancreas: islet cell kinetics. Diabetes Res. 1990 Mar;13(3):121-5. PMID: 2091879. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5857,6 +6394,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[09] Cherkasskaia MD, Matulis AA, Iasaĭtis AA. Vliianie prostaglandina E2 na énergeticheskie parametry izolirovannykh mitokhondriĭ pecheni krysy [Effect of prostaglandin E2 on energy metabolism in isolated rat liver mitochondria]. Vopr Med Khim. 1982 May-Jun;28(3):110-4. Russian. PMID: 6285614. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] Wang XY, Li XJ, Li DL, Wang CR, Guo XP. [Progesterone exerts neuroprotective effect on hypoxic-ischemic encephalopathy-induced brain damage via inhibition expression of inducible nitric oxide synthase and nitric oxide production]. Zhongguo Ying Yong Sheng Li Xue Za Zhi. 2012 May;28(3):253-4, 262. Chinese. PMID: 22860428. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5876,6 +6419,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[06] Awwad HM, Geisel J, Obeid R. The role of choline in prostate cancer. Clin Biochem. 2012 Dec;45(18):1548-53. doi: 10.1016/j.clinbiochem.2012.08.012. Epub 2012 Aug 19. PMID: 22921309. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5895,6 +6441,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[03] Ando S, Toyoda Y, Nagai Y, Ikuta F. Alterations in brain gangliosides and other lipids of patients with Creutzfeldt-Jakob disease and subacute sclerosing panencephalitis (SSPE). Jpn J Exp Med. 1984 Dec;54(6):229-34. PMID: 6399079. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Beyer TP, Chen Y, Porter RK, Lu D, Schmidt RJ, Mantlo NB, Konrad RJ, Cao G. Peroxisome proliferator-activated receptor alpha agonists regulate cholesterol ester transfer protein. Lipids. 2008 Jul;43(7):611-8. doi: 10.1007/s11745-008-3187-0. Epub 2008 May 15. PMID: 18481130. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Ledesma MD, Dotti CG. The conflicting role of brain cholesterol in Alzheimer's disease: lessons from the brain plasminogen system. Biochem Soc Symp. 2005;(72):129-38. doi: 10.1042/bss0720129. PMID: 15649137. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[50] Wang XY, Li XJ, Li DL, Wang CR, Guo XP. [Progesterone exerts neuroprotective effect on hypoxic-ischemic encephalopathy-induced brain damage via inhibition expression of inducible nitric oxide synthase and nitric oxide production]. Zhongguo Ying Yong Sheng Li Xue Za Zhi. 2012 May;28(3):253-4, 262. Chinese. PMID: 22860428. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5914,6 +6472,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[08] Halushka PV, Wise WC, Cook JA. Protective effects of aspirin in endotoxic shock. J Pharmacol Exp Ther. 1981 Aug;218(2):464-9. PMID: 6894770. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] Menguy R, Masters YF. Influence of hyperglycemia on survival after hemorrhagic shock. Adv Shock Res. 1978;1:43-54. PMID: 262089. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Okazaki K, Okutsu Y, Fukunaga A. [Effects of carbon dioxide (hypocapnia and hypercapnia) on tissue blood flow and oxygenation of liver, kidney and skeletal muscle in the dog]. Masui. 1989 Apr;38(4):457-64. Japanese. PMID: 2498552. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5933,6 +6500,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[19] Sarroca A, Lin S, Bonanno JA. The effects of low pH and CO2 on bovine corneal lactate production. CLAO J. 1997 Oct;23(4):282-5. PMID: 9348454. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5952,6 +6522,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[03] Borle AB, Barsic M. Chemical hypoxia increases cytosolic Ca2+ and oxygen free radical formation. Cell Calcium. 1995 Apr;17(4):307-15. doi: 10.1016/0143-4160(95)90077-2. PMID: 7664318. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Romanovich EA, Basieva FI. Obmen askorbinovoĭ kisloty, ketokislot i oksikislot v iadrakh kletok nekotorykh opukholeĭ [Ascorbic, keto and hydroxy acid metabolism in the cell nuclei of certain tumors]. Vopr Onkol. 1975;21(10):34-6. Russian. PMID: 1189349. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Sauer LA, Nagel WO, Dauchy RT, Miceli LA, Austin JE. Stimulation of tumor growth in adult rats in vivo during an acute fast. Cancer Res. 1986 Jul;46(7):3469-75. PMID: 3708579. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Sauer LA, Dauchy RT. Blood nutrient concentrations and tumor growth in vivo in rats: relationships during the onset of an acute fast. Cancer Res. 1987 Feb 15;47(4):1065-8. PMID: 3802090. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Skoumalová A, Herget J, Wilhelm J. Hypercapnia protects erythrocytes against free radical damage induced by hypoxia in exposed rats. Cell Biochem Funct. 2008 Oct;26(7):801-7. doi: 10.1002/cbf.1509. PMID: 18683905. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5971,6 +6556,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[09] Emanuele E. Can trehalose prevent neurodegeneration? Insights from experimental studies. Curr Drug Targets. 2014 May;15(5):551-7. doi: 10.2174/1389450115666140225104705. PMID: 24568549. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Li X, Wu Q, Xie Y, Ding Y, Du WW, Sdiri M, Yang BB. Ergosterol purified from medicinal mushroom Amauroderma rude inhibits cancer growth in vitro and in vivo by up-regulating multiple tumor suppressors. Oncotarget. 2015 Jul 10;6(19):17832-46. doi: 10.18632/oncotarget.4026. PMID: 26098777; PMCID: PMC4627349. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[39] Vakulenko NN. Patogistologicheskie i biokhimicheskie izmeneniia golovnogo mozga pri ateroskleroze i ateroskleroticheskom slaboumii [Pathohistologic and biochemical changes in the brain in atherosclerosis and atherosclerotic dementia]. Zh Nevropatol Psikhiatr Im S S Korsakova. 1980;80(7):997-1002. Russian. PMID: 7415733. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -5990,6 +6584,30 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[03] Barron J, Sandman CA. Relationship of sedative-hypnotic response to self-injurious behavior and stereotypy by mentally retarded clients. Am J Ment Defic. 1983 Sep;88(2):177-86. PMID: 6638079. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Konturek SJ. Opiates and the gastrointestinal tract. Am J Gastroenterol. 1980 Sep;74(3):285-91. PMID: 6258423. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Krivosheev OG, Stoliarov GK, Bakalkin GIa, Chazov EI. Vozniknovenie pozitsionnoĭ asimmetrii pri bolevom, immobilizatsionnom i kholodovom stresse [Development of positional asymmetry during pain, immobilization, and cold stress]. Dokl Akad Nauk SSSR. 1980;253(4):1015-8. Russian. PMID: 6253248. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Kream RM, Stefano GB. Endogenous morphine and nitric oxide coupled regulation of mitochondrial processes. Med Sci Monit. 2009 Dec;15(12):RA263-8. PMID: 19946245. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32] Powell-Jones K, Saunders WS, St Onge RD, Thornill JA. Skeletal muscle thermogenesis: its role in the hyperthermia of conscious rats given morphine or beta-endorphin. J Pharmacol Exp Ther. 1987 Oct;243(1):322-32. PMID: 2959769. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34] Rhoads DL, Wei LX, Lin ET, Rezvani A, Way EL. Opioids and rat erythrocyte deformability. NIDA Res Monogr. 1986;75:121-4. PMID: 3123933. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[35] Richardson JS, Zaleski WA. Naloxone and self-mutilation. Biol Psychiatry. 1983 Jan;18(1):99-101. doi: 10.1016/0378-1097(83)90142-8. PMID: 6299409. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[37] Sandman CA, Barron JL, Chicz-DeMet A, DeMet EM. Plasma B-endorphin levels in patients with self-injurious behavior and stereotypy. Am J Ment Retard. 1990 Jul;95(1):84-92. PMID: 2167106. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6009,6 +6627,27 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[13] Krichevskaia AA, Lukash AI, Kesel'man NA. Izmenenie perekisnogo okisleniia i soderzhaniia fosfolipidov v mozge pri giperoksii i zashchitnoe deĭstvie mocheviny [Change in peroxidation and in the phospholipid content in the brain in hyperoxia and the protective action of urea]. Ukr Biokhim Zh. 1976 Mar-Apr;48(2):190-4. Russian. PMID: 941311. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Lukash AI, Kartashev IP, Antipina TV. Uchastie ionov zheleza v antioksidantnom deĭstvii mocheviny [Participation of iron ions in antioxidant action of urea]. Ukr Biokhim Zh (1978). 1980 Jul-Aug;52(4):462-5. Russian. PMID: 7210209. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] Mairose UB. Osmolalitätsprobleme [Osmolality problems]. Infusionsther Klin Ernahr. 1976 Apr;3(2):117-9. German. PMID: 965081. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Soupart A, Penninckx R, Stenuit A, Decaux G. Azotemia (48 h) decreases the risk of brain damage in rats after correction of chronic hyponatremia. Brain Res. 2000 Jan 3;852(1):167-72. doi: 10.1016/s0006-8993(99)02259-3. PMID: 10661508. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Tsai SF, Shu KH. Mannitol-induced acute renal failure. Clin Nephrol. 2010 Jul;74(1):70-3. doi: 10.5414/cnp74070. PMID: 20557870. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Veksler IaI, Atabegova NG. Vliianie mocheviny na énergeticheskiĭ obmen mozga v norme i v usloviiakh gipotermii [Effect of urea on brain energy metabolism in normal conditions and in hypothermia]. Vopr Med Khim. 1972;18(2):202-7. Russian. PMID: 4679573. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Watanabe H, Lau DC, Guyn HL, Wong NL. Effect of progesterone therapy on arginine vasopressin and atrial natriuretic factor in premenstrual syndrome. Clin Invest Med. 1997 Aug;20(4):211-23. PMID: 9258576. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6028,6 +6667,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[05] Carney SL, Dirks JH. Effect of parathyroid and antidiuretic hormone on water and calcium permeability in the rat collecting duct. Miner Electrolyte Metab. 1988;14(2-3):142-5. PMID: 3380069. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] https://www.ncbi.nlm.nih.gov/books/NBK279163/</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6047,6 +6692,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[04] Bonartsev AP, Slavutskaia Av, Postnikov AB, Medvedeva NA. Vliianie khronicheskogo vvedeniia aminoguanidina na reaktivnost' legochnykh sosudov u krys s monokrotalinovoĭ model'iu legochnoĭ gipertenzii [Effect of chronic administration of aminoguanidine on the reactivity of pulmonary vessels in rats with monocrotaline-induced pulmonary hypertension]. Ross Fiziol Zh Im I M Sechenova. 2004 Jul;90(7):908-15. Russian. PMID: 15462215. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Chaves MC, Ribeiro RA, Rao VS. Possible involvement of nitric oxide in estrogen-induced uterine edema in the immature rat. Braz J Med Biol Res. 1993 Aug;26(8):853-7. PMID: 7507764. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6066,6 +6717,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[04] Chase A. Traumatic brain injury: Structural changes can progress for months after brain injury. Nat Rev Neurol. 2015 Jun;11(6):309. doi: 10.1038/nrneurol.2015.83. Epub 2015 May 26. PMID: 26009001. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Sherwin BB. Progestogens used in menopause. Side effects, mood and quality of life. J Reprod Med. 1999 Feb;44(2 Suppl):227-32. PMID: 11392037. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6085,6 +6742,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[10] D'Annunzio V, Donato M, Fellet A, Buchholz B, Antico Arciuch VG, Carreras MC, Valdez LB, Zaobornyj T, Morales C, Boveris A, Poderoso JJ, Balaszczuk AM, Gelpi RJ. Diastolic function during hemorrhagic shock in rabbits. Mol Cell Biochem. 2012 Jan;359(1-2):169-76. doi: 10.1007/s11010-011-1011-2. Epub 2011 Aug 13. PMID: 21842376. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Lloret A, Fuchsberger T, Giraldo E, Vina J. Reductive Stress: A New Concept in Alzheimer's Disease. Curr Alzheimer Res. 2016;13(2):206-11. doi: 10.2174/1567205012666150921101430. PMID: 26391042. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Maletic SD, Dragicevic-Djokovic LM, Zikic RV, Stajn AS, Milenkovic P, Kostic MM. Effects of nitric oxide donors on energy metabolism of rat erythrocytes. J Environ Pathol Toxicol Oncol. 2000;19(4):383-90. PMID: 11213021. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[35] Njeze GE, Dilibe U, Ilo C. Nitrate and drinking water from private wells: will there be an epidemic of cancers of the digestive tract, urinary bladder and thyroid? Niger J Clin Pract. 2014 Mar-Apr;17(2):178-82. doi: 10.4103/1119-3077.127543. PMID: 24553028. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6104,6 +6773,27 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Ashdown ML, Robinson AP, Yatomi-Clarke SL, Ashdown ML, Allison A, Abbott D, Markovic SN, Coventry BJ. Chemotherapy for Late-Stage Cancer Patients: Meta-Analysis of Complete Response Rates. F1000Res. 2015 Jul 13;4:232. doi: 10.12688/f1000research.6760.1. PMID: 26834979; PMCID: PMC4706056. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Cohen P, Wax Y, Modan B. Seasonality in the occurrence of breast cancer. Cancer Res. 1983 Feb;43(2):892-6. PMID: 6848200. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] Ferriss JS, Rice LW. The role of in vitro directed chemotherapy in epithelial ovarian cancer. Rev Obstet Gynecol. 2010 Spring;3(2):49-54. PMID: 20842282; PMCID: PMC2938901. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] JONES HB. Demographic consideration of the cancer problem. Trans N Y Acad Sci. 1956 Feb;18(4):298-333. doi: 10.1111/j.2164-0947.1956.tb00453.x. PMID: 13312067. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Kuraishi Y. [A memoir of my research on pain and analgesia for 39 years]. Yakugaku Zasshi. 2014;134(11):1125-42. Japanese. doi: 10.1248/yakushi.14-00194. PMID: 25366910. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] PARK WW, LEES JC. The absolute curability of cancer of the breast. Surg Gynecol Obstet. 1951 Aug;93(2):129-52. PMID: 14855258. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Sklar LS, Anisman H. Stress and coping factors influence tumor growth. Science. 1979 Aug 3;205(4405):513-5. doi: 10.1126/science.109924. PMID: 109924. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6123,6 +6813,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Sam Apple, NYT May 15,2016, on page MM64 of the Sunday Magazine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Baev VI, Drukina MA, Valeeva GA, Volkova ZA. Tsiki krebsa v takniakh krys, podvergnutykh sochetannomy vozdeĭstviiu giperkapnii, gipoksii i okhlazhdeniia [Krebs cycle in tissue of rats subjected to combined effect of hypercapnia, hypoxia and cooling]. Ukr Biokhim Zh. 1975 May-Jun;47(3):352-7. Russian. PMID: 1216351.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] Shapot VS, Davydova IG, Karetnikov IuP, Seregin GI. Gipoglikemicheskoe davlenie opukholi i bioélektricheskaia aktivnost' golovnogo mozga u onkologicheskikh bol'nykh [Tumor-induced hypoglycemia and bioelectric activity of the brain in cancer patients]. Vopr Onkol. 1983;29(12):12-7. Russian. PMID: 6666093. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] Tagi-zade SB, Shapot VS. Vozmozhnost' osushchestvleniia Pasterovskogo éffekta astsitnymi rakovymi kletkami in vivo [Possibility of achieving the Pasteur effect by ascites carcinoma cells in vivo]. Vopr Med Khim. 1971 Jul-Aug;17(4):407-11. Russian. PMID: 5317626. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6142,23 +6844,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2016-11 Arthritis, Autoimmunity, &amp; Aging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[22] Harman D. Lipofuscin and ceroid formation: the cellular recycling system. Adv Exp Med Biol. 1989;266:3-15. doi: 10.1007/978-1-4899-5339-1_1. PMID: 2486157. </t>
   </si>
   <si>
     <r>
@@ -6180,6 +6866,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Artus M. Etude, chez le jeune rat en croissance, des effets de l'administration d'un régime a base d'amidon ou de saccharose sur certains paramètres du métabolisme calcique [Effects of administering diets with starch or sucrose basis on certain parameters of calcium metabolism in the young, growing rat]. Ann Nutr Aliment. 1975;29(4):305-12. French. PMID: 1221903. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Competitive Enterprise Institute https://cei.org/blog/annual-biofuel-subsidies-will hit-60-billion-2022-earth-track. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Pirie, N. W. "The direct use of leaf protein in human nutrition." Chemistry &amp; Industry 61 (1942): 45-48. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Radjaipour M, Kindtner E, Rösler H, Eggstein M. Circadiane Rhythmik der Konzentrationen von Parathyrin und Calcitonin im Serum [Circadian rhythm of parathyrin and calcitonin concentrations in the serum]. J Clin Chem Clin Biochem. 1986 Mar;24(3):175-8. German. PMID: 3711800. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28] Tang Y, Luo B, Deng Z, Wang B, Liu F, Li J, Shi W, Xie H, Hu X, Li J. Mitochondrial aerobic respiration is activated during hair follicle stem cell differentiation, and its dysfunction retards hair regeneration. PeerJ. 2016 May 3;4:e1821. doi: 10.7717/peerj.1821. PMID: 27168957; PMCID: PMC4860312. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32] Zamenhof S, Ahmad G. The effects of exogenous nutrients on growth of chick embryo brain. Growth. 1979 Sep;43(3):160-6. PMID: 510956. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6199,6 +6903,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[27] Sharma HS, Westman J. Depletion of endogenous serotonin synthesis with p-CPA attenuates upregulation of constitutive isoform of heme oxygenase-2 expression, edema formation and cell injury following a focal trauma to the rat spinal cord. Acta Neurochir Suppl. 2003;86:389-94. doi: 10.1007/978-3-7091-0651-8_82. PMID: 14753474. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6218,6 +6925,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[25] Pronin AV, Gogoleva IV, Torshin IY, Gromovа OA. [Neurotrophic effects of lithium stimulate the reduction of ischemic and neurodegenerative brain damage]. Zh Nevrol Psikhiatr Im S S Korsakova. 2016;116(2):99-108. Russian. doi: 10.17116/jnevro20161162199-108. PMID: 27166488. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6237,6 +6947,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[07] ECKMAN PL, KING WM, BRUNSON JG. Studies on the blood brain barrier. I. Effects produced by a single injection of gramnegative endotoxin on the permeability of the cerebral vessels. Am J Pathol. 1958 Jul-Aug;34(4):631-43. PMID: 13559397; PMCID: PMC1934783. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] Huang CY, Pai YC, Yu LC. Glucose-mediated cytoprotection in the gut epithelium under ischemic and hypoxic stress. Histol Histopathol. 2017 Jun;32(6):543-550. doi: 10.14670/HH-11-839. Epub 2016 Nov 8. PMID: 27824216. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] Jiménez-Jiménez FJ, Alonso-Navarro H, Herrero MT, García-Martín E, Agúndez JA. An Update on the Role of Nitric Oxide in the Neurodegenerative Processes of Parkinson's Disease. Curr Med Chem. 2016;23(24):2666-2679. doi: 10.2174/0929867323666160812151356. PMID: 27776473. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6256,6 +6975,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[04] Braden, Thomas W. "I’m Glad the CIA Is ‘Immoral,’." Saturday Evening Post May 20, pg. 10-14 (1967). </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6275,6 +6997,30 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[05] Kogure K. [Ischemic edema formation and energy failure of the brain]. Tanpakushitsu Kakusan Koso. 1984 Dec;29(14):1695-709. Japanese. PMID: 6099896. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09] Dreiling DA, Janowitz HD, Halpern M. The effect of a carbonic anhydrase inhibitor, Diamox, on human pancreatic secretion. Implications on the mechanism of pancreatic secretion. Gastroenterology. 1968 Apr;54(4):Suppl:765-7. PMID: 5659822. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Garg LC. Induction of hepatic carbonic anhydrase by estrogen. J Pharmacol Exp Ther. 1975 Feb;192(2):297-302. PMID: 804034. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Lloret A, Fuchsberger T, Giraldo E, Vina J. Reductive Stress: A New Concept in Alzheimer's Disease. Curr Alzheimer Res. 2016;13(2):206-11. doi: 10.2174/1567205012666150921101430. PMID: 26391042. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Mrsulja BB, Stanimirović D, Mićić DV, Spatz M. Excitatory amino acid receptors, oxido-reductive processes and brain oedema following transient ischaemia in gerbils. Acta Neurochir Suppl (Wien). 1990;51:180-2. doi: 10.1007/978-3-7091-9115-6_61. PMID: 1982477. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28] Puscas I, Coltau M, Baican M, Pasca R, Domuta G, Hecht A. Vasoconstrictive drugs increase carbonic anhydrase I in vascular smooth muscle while vasodilating drugs reduce the activity of this isozyme by a direct mechanism of action. Drugs Exp Clin Res. 2001;27(2):53-60. PMID: 11392054. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] Schwartz L, Supuran CT, Alfarouk KO. The Warburg Effect and the Hallmarks of Cancer. Anticancer Agents Med Chem. 2017;17(2):164-170. doi: 10.2174/1871520616666161031143301. PMID: 27804847. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[31] Severinghaus JW. Endotoxin hyperventilation mechanisms. Crit Care Med. 1998 Sep;26(9):1481-2. doi: 10.1097/00003246-199809000-00009. PMID: 9751579. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6294,6 +7040,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[09] Mallouk RS. Letter: Longevity in vertebrates is proportional to relative brain weight. Fed Proc. 1975 Nov;34(12):2102-3. PMID: 1183610. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16] Li DL, Han H. [Effect of progesterone on the expression of GLUT in the brain following hypoxic-ischemia in newborn rats]. Zhongguo Ying Yong Sheng Li Xue Za Zhi. 2008 Aug;24(3):353-5. Chinese. PMID: 21141602. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6313,6 +7065,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[06] Luo H, Guo H, Xiao J, Xue Z. [Circadian variations of plasma SOD and MDA in health subjects]. Hua Xi Yi Ke Da Xue Xue Bao. 1997 Dec;28(4):401-3. Chinese. PMID: 10683957. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6332,23 +7087,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2018-07 Critical Issues</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[08] https://www.kennedykrieger.org/overview/news/  study‐finds‐fever‐may‐lead‐improved‐behavior‐ch  ildren‐autism‐spectrum‐disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09] Jung CR, Lin YT, Hwang BF. Air pollution and newly diagnostic autism spectrum disorders: a population-based cohort study in Taiwan. PLoS One. 2013 Sep 25;8(9):e75510. doi: 10.1371/journal.pone.0075510. Erratum in: PLoS One. 2018 Aug 22;13(8):e0202996. doi: 10.1371/journal.pone.0202996. PMID: 24086549; PMCID: PMC3783370. </t>
   </si>
   <si>
     <r>
@@ -6370,6 +7112,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Ayee MA, Levitan I. Paradoxical impact of cholesterol on lipid packing and cell stiffness. Front Biosci (Landmark Ed). 2016 Jun 1;21(6):1245-59. doi: 10.2741/4454. PMID: 27100504. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Landé, K. E., and W. M. Sperry. "Human atherosclerosis in relation to the cholesterol content of the blood serum." (1936): 301-312. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] Sodero AO, Vriens J, Ghosh D, Stegner D, Brachet A, Pallotto M, Sassoè-Pognetto M, Brouwers JF, Helms JB, Nieswandt B, Voets T, Dotti CG. Cholesterol loss during glutamate-mediated excitotoxicity. EMBO J. 2012 Apr 4;31(7):1764-73. doi: 10.1038/emboj.2012.31. Epub 2012 Feb 17. PMID: 22343944; PMCID: PMC3321209. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6389,6 +7140,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[02] Anchisi L, Dessì S, Pani A, Mandas A. Cholesterol homeostasis: a key to prevent or slow down neurodegeneration. Front Physiol. 2013 Jan 4;3:486. doi: 10.3389/fphys.2012.00486. PMID: 23316166; PMCID: PMC3539713. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Shi X, Li W, Liu H, Yin D, Zhao J. β-Cyclodextrin induces the differentiation of resident cardiac stem cells to cardiomyocytes through autophagy. Biochim Biophys Acta Mol Cell Res. 2017 Aug;1864(8):1425-1434. doi: 10.1016/j.bbamcr.2017.05.012. Epub 2017 May 15. PMID: 28522298. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Smith EB. The relationship between plasma and tissue lipids in human atherosclerosis. Adv Lipid Res. 1974;12(0):1-49. doi: 10.1016/b978-0-12-024912-1.50008-9. PMID: 4371518. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] Smith RD, Babiychuk EB, Noble K, Draeger A, Wray S. Increased cholesterol decreases uterine activity: functional effects of cholesterol alteration in pregnant rat myometrium. Am J Physiol Cell Physiol. 2005 May;288(5):C982-8. doi: 10.1152/ajpcell.00120.2004. Epub 2004 Dec 21. PMID: 15613497. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28] SoRelle R. Death rate higher in elderly with low cholesterol. Circulation. 2001 Aug 14;104(7):E9011-3. PMID: 11505958. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32] Struchkov VA, Strazhevskaia NV. Izmenenie sostava DNK-sviazannykh lipidov sarkomy 37, indutsirovannoe sarkolizinom in vivo [Changes induced by sarcolysine in vivo in the composition of DNA-bound lipids in sarcoma 37]. Biull Eksp Biol Med. 1989 Sep;108(9):327-30. Russian. PMID: 2611393. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6408,6 +7177,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[23] Senie RT, Kinne DW. Menstrual timing of treatment for breast cancer. J Natl Cancer Inst Monogr. 1994;(16):85-90. PMID: 7999475. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6427,6 +7199,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[12] Feaster WW, Kwok LW, Epstein CJ. Dosage effects for superoxide dismutase-1 in nucleated cells aneuploid for chromosome 21. Am J Hum Genet. 1977 Nov;29(6):563-70. PMID: 145179; PMCID: PMC1685525. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Montilla P, Montilla J, Pinilla J, Muñoz MC. Serotonina cerebral en la respuesta del eje hipotálamohipófiso-adrenal a la hipoglucemia insulínica [Brain serotonin in response to the hypothalamo-hypophyseal-adrenal system to insulin hypoglycemia]. Rev Esp Fisiol. 1988 Mar;44(1):93-7. Spanish. PMID: 2845530. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Nabarra B, Casanova M, Paris D, Nicole A, Toyama K, Sinet PM, Ceballos I, London J. Transgenic mice overexpressing the human Cu/Zn-SOD gene: ultrastructural studies of a premature thymic involution model of Down's syndrome (trisomy 21). Lab Invest. 1996 Mar;74(3):617-26. PMID: 8600312. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] Popova NK, Voĭtenko NN, Maslova LN. Vliianie émotsional'nogo stressa i kortikosterona na aktivnost' monoaminoksidaz mozga krys [The effect of emotional stress and corticosterone on the activity of monoaminoxidase in the rat brain]. Vopr Med Khim. 1989 Jul-Aug;35(4):114-9. Russian. PMID: 2815668. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34] Tamarkina AD, Annenkov GA, Filippov IK, Lamchingiĭn T. Effekt dozy gena tsitoplazmaticheskoĭ superoksidismutazy (SOD-1) v éritrotsitakh bol'nykh s sindromon Dauna [Dosage effect of the cytoplasmic superoxide dismutase (SOD-1) gene in the erythrocytes of Down's syndrome patients]. Genetika. 1977;13(5):929-32. Russian. PMID: 147797. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6446,6 +7233,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Popular Science, May 1904, page 96. A talk by Paul Ehrlich at Johns Hopkins University, "Physical chemistry versus biology in the doctrines of immunity.” </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6465,6 +7255,33 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[05] Contemporary Problems in Science and Education Number 5, (2009) p.15-20. Influence of soybean gene EPSPS CP4 on the physiological state and reproductive functions of rats in the first two generations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Huaux F. Une nouvelle voie pathologique menant a la fibrose pulmonaire induite par la silice: implication des réponses immunitaires suppressives [A new pathologic pathway for pulmonary fibrosis induced by silica: involvement of immunosuppressive responses]. Bull Mem Acad R Med Belg. 2009;164(5-6):240-6. French. PMID: 20666153. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Soy diet suppresses reproductive function of rodents. Modern problems of science and education ¹ 6. (2008) (Annex “Biological sciences”). C. 26. Maligin AG, Ermakova IV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Machado EA, Lair SV. Giant multinucleate macrophages in methyl cellulose-stimulated athymic nude mice. J Reticuloendothel Soc. 1978 May;23(5):383-7. PMID: 671424. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] O'Neill C, Jordan P, Bhatt T, Newman R. Silica and oesophageal cancer. Ciba Found Symp. 1986;121:214-30. doi: 10.1002/9780470513323.ch13. PMID: 3017646. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32] What’s killing America’s teens? Inside CDC’s new mortality report. News June 01, 2018. By Fiza Pirani, The Atlanta Journal-Constitution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[33] Radić I, Vucak I, Milosević J, Marusić A, Vukicević S, Marusić M. Immunosuppression induced by talc granulomatosis in the rat. Clin Exp Immunol. 1988 Aug;73(2):316-21. PMID: 3052948; PMCID: PMC1541619. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[44] AV Surov, NY Feoktistov, MV Ushakov, AV Gureeva (2010) Changing the physiological parameters of mammals feeding genetically modified ingredients of vegetable origin. Insti tution of the Russian Academy of Sciences Insti tute of Ecology and Evolution behalf of A. N. Severtsov RAS (IEE RAS) http://oagb.ru/ lib.php?txt_id=12292. Commissioned by the National Association for Genetic Safety </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[46] Udina M, Castellví P, Moreno-España J, Navinés R, Valdés M, Forns X, Langohr K, Solà R, Vieta E, Martín-Santos R. Interferon-induced depression in chronic hepatitis C: a systematic review and meta-analysis. J Clin Psychiatry. 2012 Aug;73(8):1128-38. doi: 10.4088/JCP.12r07694. PMID: 22967776. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6484,6 +7301,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[05] Craig MC. Postnatal depression: drug treatments. BMJ Clin Evid. 2016 Jan 13;2016:1407. PMCID: PMC4711886. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Datta S, Hurley RJ, Naulty JS, Stern P, Lambert DH, Concepcion M, Tulchinsky D, Weiss JB, Ostheimer GW. Plasma and cerebrospinal fluid progesterone concentrations in pregnant and nonpregnant women. Anesth Analg. 1986 Sep;65(9):950-4. PMID: 3740493. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] Hahn-Holbrook J, Fox M, Glynn LM. Letter to the Editor: Demonstration of Elevated Cerebrospinal Fluid CRH Levels During Pregnancy Provides Support for (Not Against) the Link Between CRH and Postpartum Depression. J Clin Endocrinol Metab. 2016 Feb;101(2):L5-6. doi: 10.1210/jc.2015-3798. PMID: 26840119; PMCID: PMC5393588. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Lupu D, Sjödin MOD, Varshney M, Lindberg J, Loghin F, Rüegg J. Fluoxetine modulates sex steroid levels in vitro. Clujul Med. 2017;90(4):420-424. doi: 10.15386/cjmed-868. Epub 2017 Oct 20. PMID: 29151792; PMCID: PMC5683833. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6503,6 +7332,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[04] Arora P, Sagar R, Mehta M, Pallavi P, Sharma S, Mukhopadhyay AK. Serum S100B levels in patients with depression. Indian J Psychiatry. 2019 Jan-Feb;61(1):70-76. doi: 10.4103/psychiatry.IndianJPsychiatry_391_16. PMID: 30745657; PMCID: PMC6341924. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[05] Balitskii KP, Vinnitskii VB. Vplyv serotoninu na enerhetychni protsesy u pukhlyni i kistkovomu mozku [Effect of serotonin on energy processes in tumors and bone marrow]. Ukr Biokhim Zh. 1972;44(3):303-6. Ukrainian. PMID: 4145553. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Rudzit EA, Mal'tseva LD, Brazhnikova ID. Vliianie serotonina na dykhanie i glikoliz opukholevoĭ tkani [The effect of serotonin on respiration and glycolysis in tumor tissues]. Vopr Onkol. 1968;14(7):46-50. Russian. PMID: 5725419. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6522,6 +7360,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[11] Pennington AJ, Pentreath VW. Transmitter-induced glycogenolysis and gluconeogenesis in leech segmental ganglia. J Physiol (Paris). 1987;82(4):218-28. PMID: 2903239. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6541,6 +7382,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[16] Kovaleva IuO, Artem'eva MM, Ilatovskaia ME, Medvedev OS, Medvedeva NA. [Role of estradiol in hypoxia-induced pulmonary hypertension in female rats]. Eksp Klin Farmakol. 2012;75(12):19-21. Russian. PMID: 23700662. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6560,6 +7404,36 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[06] Geffen, Dennis H. "The Incidence of Paralysis occurring in London Children within Four Weeks after Immunisation." (1950): 137-40. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13] Kovalchuk A, Mychasiuk R, Muhammad A, Hossain S, Ilnytskyy S, Ghose A, Kirkby C, Ghasroddashti E, Kovalchuk O, Kolb B. Liver irradiation causes distal bystander effects in the rat brain and affects animal behaviour. Oncotarget. 2016 Jan 26;7(4):4385-98. doi: 10.18632/oncotarget.6596. PMID: 26678032; PMCID: PMC4826213. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[18] Petrovsky N. Comparative Safety of Vaccine Adjuvants: A Summary of Current Evidence and Future Needs. Drug Saf. 2015 Nov;38(11):1059-74. doi: 10.1007/s40264-015-0350-4. PMID: 26446142; PMCID: PMC4615573. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[19] Pumphrey RS, Roberts IS. Postmortem findings after fatal anaphylactic reactions. J Clin Pathol. 2000 Apr;53(4):273-6. doi: 10.1136/jcp.53.4.273. PMID: 10823122; PMCID: PMC1731177. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] Tritto E, Mosca F, De Gregorio E. Mechanism of action of licensed vaccine adjuvants. Vaccine. 2009 May 26;27(25-26):3331-4. doi: 10.1016/j.vaccine.2009.01.084. Epub 2009 Feb 5. PMID: 19200813. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] The Orkneys and Shetland: Their Past and Present State; SHETLAND UNDER SCOTTISH AND BRITISH RULE, pages 173-174. By John R. Tudor, 1883. https://archive.org/stream/orkneysshetlandt00tudo/ork neysshetlandt00tudo_djvu.txt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Wyatt HV. Provocation poliomyelitis: neglected clinical observations from 1914 to 1950. Bull Hist Med. 1981 Winter;55(4):543-57. PMID: 7039740. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Wyatt HV. Provocation of poliomyelitis by multiple injections. Trans R Soc Trop Med Hyg. 1985;79(3):355-8. doi: 10.1016/0035-9203(85)90379-7. PMID: 4035736. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Wyatt HV, Mahadevan S, Srinivasan S. Unnecessary injections and paralytic poliomyelitis in India. Trans R Soc Trop Med Hyg. 1992 Sep-Oct;86(5):546-9. doi: 10.1016/0035-9203(92)90104-k. PMID: 1475830. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Wyatt HV, Issues Med Ethics, 4(1) (1996): 14-15. A View From The West: Health Warning: Injections Can Endanger Health</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6579,6 +7453,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[12] Ling GN, Murphy RC. Studies on the physical state of water in living cells and model systems. II. NMR relaxation times of water protons in aqueous solutions of gelatin and oxygen-containing polymers which reduce the solvency of water for NA+, sugars, and free amino acids. Physiol Chem Phys Med NMR. 1983;15(2):137-54. PMID: 6665043. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] Parui R, Gambhir KK, Mehrotra PP. Changes in carbonic anhydrase may be the initial step of altered metabolism in hypertension. Biochem Int. 1991 Mar;23(4):779-89. PMID: 1908243. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6598,23 +7478,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2020-11 Body Temperature, Inflammation, and Aging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[01] Centre Canadien d’Études Allemandes et Européennes (CCEAE) Université de Montréal, 25 octobre 2012. Éducation et Néo-Libéralisme: L’Économie de l’Ignorance. Martin Beddeleem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[02] Children’s Health Defense Fund, July 21, 2020, Gates and Gov. Cuomo Take Advan tage of COVID-19 and Re-Imagine the NY Education System, Curtis Cost. https://childrenshealthdefense.org/news/gates-and gov-cuomo-take-advantage-of-covid-19-and-re-im agine-the-ny-education-system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] Ivan Illich, Deschooling Society, 1970 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Children’s Health Defense Fund, July 30, 2020, New Censorship Czars: Tech Titans Aim to Restrict Access to Information in the Vaccine Debate. Robert F. Kennedy, Jr. https://childrenshealthdefense.org/news/the-new-c ensorship-czars-tech-titans-aim-to-call-the-shots-o n-what-the-public-is-exposed-to-in-the-vaccine-de bate/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[08] The Intercept, May 9, 2020, Screen New Deal, Naomi Klein. Https://theintercept.com/2020/05/08/andrew cuomo-eric-schmidt-coronavirus-tech-shock-d octrine/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[09] Harvard Educational Review, 1954, 24, 86–97. The science of learning and the art of teaching. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10] Harvard Educational Review, 1961, Vol. 31, pp. 377–398. Why We Need Teaching Machines, Skinner, B. F. </t>
   </si>
   <si>
     <r>
@@ -6636,6 +7518,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Ahmad G, Zamenhof S. The effect of progesterone on brain and body growth of chick embryos. Growth. 1979 Mar;43(1):58-61. PMID: 456930. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6655,23 +7540,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2021-05 Intention, Learning, and Health</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[03] Caplin I. Diabetes mellitus and insulin in an aspirin sensitive asthmatic. Ann Allergy. 1976 Mar;36(3):193-202. PMID: 1259204. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[04] Clementi N, Scagnolari C, D'Amore A, Palombi F, Criscuolo E, Frasca F, Pierangeli A, Mancini N, Antonelli G, Clementi M, Carpaneto A, Filippini A. Naringenin is a powerful inhibitor of SARS-CoV-2 infection in vitro. Pharmacol Res. 2021 Jan;163:105255. doi: 10.1016/j.phrs.2020.105255. Epub 2020 Oct 20. PMID: 33096221; PMCID: PMC7574776. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15] JASMIN G. Etude de l'inflammation anaphylactoide [Study of anaphylactoid inflammation]. Rev Can Biol. 1956 Oct;15(2):107-85. French. PMID: 13371060. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16] JASMIN G, RICHER L. Acquisitions recentes sur l'inflammation anaphylactoïde. II [Recent acquisitions on anaphylactoid inflammation. II]. Rev Can Biol. 1955 Sep;14(2):118-22. French. PMID: 13267233. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Park SH, Kim KW, Lee YS, Baek JH, Kim MS, Lee YM, Lee MS, Kim YJ. Hypoglycemia-induced VEGF expression is mediated by intracellular Ca2+ and protein kinase C signaling pathway in HepG2 human hepatoblastoma cells. Int J Mol Med. 2001 Jan;7(1):91-6. PMID: 11115615. </t>
   </si>
   <si>
     <r>
@@ -6693,6 +7574,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[04] Campione E, Lanna C, Cosio T, Rosa L, Conte MP, Iacovelli F, Romeo A, Falconi M, Del Vecchio C, Franchin E, Lia MS, Minieri M, Chiaramonte C, Ciotti M, Nuccetelli M, Terrinoni A, Iannuzzi I, Coppeda L, Magrini A, Bernardini S, Sabatini S, Rosapepe F, Bartoletti PL, Moricca N, Di Lorenzo A, Andreoni M, Sarmati L, Miani A, Piscitelli P, Valenti P, Bianchi L. Lactoferrin Against SARS-CoV-2: In Vitro and In Silico Evidences. Front Pharmacol. 2021 Jun 17;12:666600. doi: 10.3389/fphar.2021.666600. PMID: 34220505; PMCID: PMC8242182. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[25] Solerte SB, Fioravanti M, Magri F, Spinillo A, Guaschino S, Ferrari E. Influence des hormones sexuelles sur l'hémorhéologie et les protéines plasmatiques au cours du cycle menstruel [Influence of sex hormones on hemorrheology and plasma proteins during the menstrual cycle]. Rev Fr Gynecol Obstet. 1991 Feb 25;86(2 Pt 2):139-42. French. PMID: 1767163. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6712,23 +7599,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2021-11 Gender, Aging &amp; Disease Susceptibility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[05] Jerne NK. Towards a network theory of the immune system. Ann Immunol (Paris). 1974 Jan;125C(1-2):373-89. PMID: 4142565. </t>
   </si>
   <si>
     <r>
@@ -6750,6 +7621,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[19] Verma N, Tiku AB. Role of mTOR pathway in modulation of radiation induced bystander effects. Int J Radiat Biol. 2022;98(2):173-182. doi: 10.1080/09553002.2022.2013567. Epub 2021 Dec 16. PMID: 34855567. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Zhang C, Xie C, Lu Y. Local Anesthetic Lidocaine and Cancer: Insight Into Tumor Progression and Recurrence. Front Oncol. 2021 Jun 24;11:669746. doi: 10.3389/fonc.2021.669746. PMID: 34249706; PMCID: PMC8264592. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Zhao Y, Huang H, Jia CH, Fan K, Xie T, Zhu ZY, Xie ML. Apigenin increases radiosensitivity of glioma stem cells by attenuating HIF-1α-mediated glycolysis. Med Oncol. 2021 Sep 23;38(11):131. doi: 10.1007/s12032-021-01586-8. PMID: 34554338. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] Zughaibi TA, Suhail M, Tarique M, Tabrez S. Targeting PI3K/Akt/mTOR Pathway by Different Flavonoids: A Cancer Chemopreventive Approach. Int J Mol Sci. 2021 Nov 18;22(22):12455. doi: 10.3390/ijms222212455. PMID: 34830339; PMCID: PMC8621356. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6769,6 +7652,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[20] Segall P. Long-term tryptophan restriction and aging in the rat. Aktuelle Gerontol. 1977 Oct;7(10):535-8. PMID: 22255. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Peterson CM, Johannsen DL, Ravussin E. Skeletal muscle mitochondria and aging: a review. J Aging Res. 2012;2012:194821. doi: 10.1155/2012/194821. Epub 2012 Jul 19. PMID: 22888430; PMCID: PMC3408651.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Sanchez-Roman I, Barja G. Regulation of longevity and oxidative stress by nutritional interventions: role of methionine restriction. Exp Gerontol. 2013 Oct;48(10):1030-42. doi: 10.1016/j.exger.2013.02.021. Epub 2013 Feb 27. PMID: 23454735. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Solon-Biet SM, Mitchell SJ, de Cabo R, Raubenheimer D, Le Couteur DG, Simpson SJ. Macronutrients and caloric intake in health and longevity. J Endocrinol. 2015 Jul;226(1):R17-28. doi: 10.1530/JOE-15-0173. Epub 2015 May 28. PMID: 26021555; PMCID: PMC4490104. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Yoshida S, Yamahara K, Kume S, Koya D, Yasuda-Yamahara M, Takeda N, Osawa N, Chin-Kanasaki M, Adachi Y, Nagao K, Maegawa H, Araki SI. Role of dietary amino acid balance in diet restriction-mediated lifespan extension, renoprotection, and muscle weakness in aged mice. Aging Cell. 2018 Aug;17(4):e12796. doi: 10.1111/acel.12796. Epub 2018 Jun 25. PMID: 29943496; PMCID: PMC6052467. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6788,6 +7686,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[03-A] Li, Min Hsin, and W. U. Gardner. "Experimental studies on the pathogenesis and histogenesis of ovarian tumors in mice." Cancer Research 7.9 (1947): 549-566. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03-B] GARDNER WU. Hormonal imbalances in tumorigenesis. Cancer Res. 1948 Sep;8(9):397-411. PMID: 18107381. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[05] KAPLAN HS. Influence of ovarian function on incidence of radiation-induced ovarian tumors in mice. J Natl Cancer Inst. 1950 Aug;11(1):125-32. PMID: 14784847. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13-B] T.E. Rohan, et al. Breast, Cancer Research 50, 3176-81, 1990. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6807,23 +7717,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Darkness, Water, Osteoporosis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[02] Epstein SS. Environmental and occupational pollutants are avoidable causes of breast cancer. Int J Health Serv. 1994;24(1):145-50. doi: 10.2190/5GM4-HW92-QE9K-RK37. PMID: 8150563. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[03] Han X, Liehr JG. 8-Hydroxylation of guanine bases in kidney and liver DNA of hamsters treated with estradiol: role of free radicals in estrogen-induced carcinogenesis. Cancer Res. 1994 Nov 1;54(21):5515-7. PMID: 7923187. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[05] Figge, FRANK HJ. "The relationship of pyrrol compounds to carcinogenesis." In AAAS Research Conference on Cancer. 1945. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[07] Dodge JT, Cohen G, Kayden HJ, Phillips GB. Peroxidative hemolysis of red blood cells from patients with abetalipoproteinemia (acanthocytosis). J Clin Invest. 1967 Mar;46(3):357-68. doi: 10.1172/JCI105537. PMID: 6023771; PMCID: PMC297056. </t>
   </si>
   <si>
     <r>
@@ -6845,23 +7748,31 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Moles, DHEA, Etc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">[02] Bazarevich GIa, Deviataev AM, Likhtenshteĭn AO, Natsvlishvili BP, Sadeko MKh. Rol' biologicheskoĭ aktivnosti serotonina v formirovanii sindroma "shokovogo" legkogo [Role of the biological activity of serotonin in the production of the "shock lung" syndrome]. Biull Eksp Biol Med. 1976 Oct;82(10):1181-3. Russian. PMID: 1029497. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Carlini EA, Lindsey CJ. Effect of serotonergic drugs on the aggressiveness induced by delta 9-tetrahydrocannabinol in rem-sleep-deprived rats. Braz J Med Biol Res. 1982 Oct;15(4-5):281-3. PMID: 6303479. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Klingberg F, Mager P, Mager R. The mesencephalic reticular formation as a link in the cortical control of exploratory and goal-directed behaviour. Acta Physiol Hung. 1989;74(2):121-34. PMID: 2603729. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[22] Medvedev AE. Reguliatsiia biogennymi aminami énergeticheskikh funktsiĭ mitokhondriĭ [Regulation by biogenic amines of energy functions of mitochondria]. Vopr Med Khim. 1990 Sep-Oct;36(5):18-21. Russian. PMID: 2174585. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Medvedev AE, Gorkin VZ. Rol' monoaminoksidaz v reguliatsii énergeticheskikh funktsiĭ mitokhondriĭ [The role of monoamine oxidase in the regulation of mitochondrial energy functions]. Vopr Med Khim. 1991 Sep-Oct;37(5):2-6. Russian. PMID: 1759390. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28] Rastogi RB, Singhal RL. Influence of neonatal and adult hyperthyroidism on behavior and biosynthetic capacity for norepinephrine, dopamine and 5-hydroxytryptamine in rat brain. J Pharmacol Exp Ther. 1976 Sep;198(3):609-18. PMID: 978462. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32] Semenov VL. Vliianie mediatorov vospaleniia na dykhanie mitokhondriĭ pecheni krys [Effect of inflammatory mediators on respiration in rat liver mitochondria]. Ukr Biokhim Zh (1978). 1990 Nov-Dec;62(6):93-7. Russian. PMID: 2087796. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[38] Arch Ital Biol. 2001 Feb;139(1-2):37-51. Active neocortical processes during quiescent sleep. Steriade M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[42] van der Mast RC, Fekkes D. Serotonin and amino acids: partners in delirium pathophysiology? Semin Clin Neuropsychiatry. 2000 Apr;5(2):125-31. doi: 10.153/SCNP00500125. PMID: 10837101. </t>
   </si>
   <si>
     <r>
@@ -6883,6 +7794,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[01] Badawy SZA, Marshall L. Luteal phase inadequacy and infertility. Fam pract news 1981; 6:17A-24A</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6900,6 +7814,12 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[01] Renard E, Bringer J, Jaffiol C. Stéroïdes sexuels. Effets sur le métabolisme hydrocarboné avant et après la ménopause [Sex steroids. Effects on the carbohydrate metabolism before and after menopause]. Presse Med. 1993 Mar 13;22(9):431-5. French. PMID: 8502647. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[06] Diamond MP, Lavy G, Polan ML. Progesterone production from granulosa cells of individual human follicles derived from diabetic and nondiabetic subjects. Int J Fertil. 1989 May-Jun;34(3):204-8. PMID: 2567716. </t>
   </si>
 </sst>
 </file>
@@ -7003,7 +7923,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7024,20 +7944,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -7163,10 +8079,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH98"/>
+  <dimension ref="A1:BH97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P53" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7216,7 +8132,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="63" style="2" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7364,7 +8280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -7426,7 +8342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -7518,7 +8434,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="45.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>98</v>
       </c>
@@ -7559,7 +8475,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="45.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
@@ -7567,7 +8483,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>113</v>
       </c>
@@ -7578,7 +8494,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -7592,14 +8508,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -7611,1023 +8527,1024 @@
       <c r="F9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="2" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O12" s="4" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="244.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="291.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="K17" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="4" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H20" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="4" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="I22" s="4" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I25" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="K25" s="4" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF28" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK28" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL28" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN28" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO28" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP28" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ28" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR28" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS28" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>341</v>
+        <v>375</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>346</v>
+        <v>379</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z29" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB29" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD29" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG29" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH29" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI29" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="AJ29" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="AK29" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL29" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM29" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="AN29" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AO29" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="AP29" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ29" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR29" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="AS29" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="AT29" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B30" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="K30" s="2" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E32" s="4" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G35" s="4" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I36" s="4" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>445</v>
       </c>
@@ -8652,1027 +9569,1027 @@
       <c r="H38" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="I38" s="4" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="34.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="H39" s="4" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="45.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="D41" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D40" s="4" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L44" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>501</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="H46" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="I46" s="4" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="K46" s="4" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D47" s="4" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C49" s="4" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+    <row r="51" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="G51" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L51" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>569</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="O54" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="P54" s="4" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="Q54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="R54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="S54" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="T54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C55" s="4" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="E56" s="4" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="145.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L57" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="L58" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="M58" s="4" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="O58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="Q58" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="R58" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+    <row r="60" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L60" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="156.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>644</v>
+        <v>652</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>664</v>
+        <v>672</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>673</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="S62" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="T62" s="4" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="E63" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="F63" s="4" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="I64" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C64" s="4" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="G65" s="4" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="C66" s="4" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="B67" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="G67" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="L67" s="4" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>717</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="F68" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="G68" s="4" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="156.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="G69" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="J69" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L69" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>735</v>
+        <v>742</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q70" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="R70" s="4" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="S70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="E71" s="4" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="G72" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="K72" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>766</v>
       </c>
@@ -9682,7 +10599,7 @@
       <c r="C73" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="4" t="s">
         <v>769</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -9697,55 +10614,55 @@
       <c r="H73" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I73" s="2" t="s">
         <v>774</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" s="4" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L73" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="I74" s="2" t="s">
         <v>785</v>
       </c>
+      <c r="I74" s="4" t="s">
+        <v>786</v>
+      </c>
       <c r="J74" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="L74" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
         <v>789</v>
       </c>
@@ -9755,128 +10672,128 @@
       <c r="C75" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="D75" s="4" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="I75" s="4" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="G77" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="K77" s="4" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L77" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="I78" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="J78" s="4" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="I79" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>829</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -9897,7 +10814,7 @@
       <c r="H80" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="4" t="s">
         <v>836</v>
       </c>
       <c r="J80" s="4" t="s">
@@ -9906,473 +10823,439 @@
       <c r="K80" s="4" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L80" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="M81" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="N81" s="4" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="O81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="P81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+      <c r="D82" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="D82" s="4" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+      <c r="F83" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="J84" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="K84" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="L84" s="4" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M84" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="145.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="E85" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="F85" s="4" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="N85" s="4" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="D87" s="4" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="F88" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="J88" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="K88" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="L88" s="4" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M88" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="Y88" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="Z88" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="AA88" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="AC88" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="AD88" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="AE88" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="AF88" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="AG88" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="AH88" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="AI88" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="AJ88" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="AK88" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="AL88" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="AM88" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="AN88" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="AO88" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="AP88" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="AQ88" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="AR88" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="AS88" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="AT88" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="AU88" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="AV88" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="AW88" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="AX88" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="AY88" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="AZ88" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="BA88" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="BB88" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="BC88" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="BD88" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="BE88" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="BF88" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="BG88" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="BH88" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>909</v>
+        <v>957</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="P89" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="R89" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="S89" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="T89" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="U89" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="V89" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="W89" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="X89" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="Y89" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="Z89" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="AA89" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="AB89" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="AC89" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="AD89" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="AE89" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="AF89" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="AG89" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="AH89" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="AI89" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="AJ89" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="AK89" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="AL89" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="AM89" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="AN89" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="AO89" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="AP89" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="AQ89" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="AR89" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="AS89" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="AT89" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="AU89" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="AV89" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="AW89" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="AX89" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AY89" s="4" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AZ89" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="BA89" s="2" t="s">
+      <c r="C90" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="BB89" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="BC89" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="BD89" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="BE89" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="BF89" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="BG89" s="4" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="BH89" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+    <row r="92" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="D92" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>985</v>
-      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
@@ -10384,14 +11267,11 @@
       <c r="A96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1"/>
+      <c r="B97" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A97:B97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="1971 Cold-Inactivated Enzymes as Metabolic Controls"/>
@@ -10401,92 +11281,91 @@
     <hyperlink ref="A6" r:id="rId5" display="1984 Response to Recent Pop-Medicine Articles on Progesterone Therapy"/>
     <hyperlink ref="A7" r:id="rId6" display="1986-01 Hormone Balancing"/>
     <hyperlink ref="A8" r:id="rId7" display="1987 The Progesterone Deception"/>
-    <hyperlink ref="A9" r:id="rId8" display="1988-09 Natural Immunity And Viral Infections"/>
-    <hyperlink ref="A10" r:id="rId9" display="1997 Estriol, DES, DDT, etc"/>
-    <hyperlink ref="A11" r:id="rId10" display="1997 Iron-Cumulative Danger"/>
-    <hyperlink ref="A12" r:id="rId11" display="2006 Aging Eyes, Infant Eyes, and Excitable Tissues"/>
-    <hyperlink ref="A13" r:id="rId12" display="2006 Aging, estrogen, and progesterone"/>
-    <hyperlink ref="A14" r:id="rId13" display="2006 Altitude and Mortality"/>
-    <hyperlink ref="A15" r:id="rId14" display="2006 Aspirin, brain, and cancer"/>
-    <hyperlink ref="A16" r:id="rId15" display="2006 Autonomic systems"/>
-    <hyperlink ref="A17" r:id="rId16" display="2006 Bleeding, clotting, cancer"/>
-    <hyperlink ref="A18" r:id="rId17" display="2006 Bone Density First Do No Harm"/>
-    <hyperlink ref="A19" r:id="rId18" display="2006 Breast Cancer"/>
-    <hyperlink ref="A20" r:id="rId19" display="2006 Caffeine A vitamin-like nutrient, or adaptogen"/>
-    <hyperlink ref="A21" r:id="rId20" display="2006 Diabetes, scleroderma, oils and hormones"/>
-    <hyperlink ref="A22" r:id="rId21" display="2006 Epilepsy and Progesterone"/>
-    <hyperlink ref="A23" r:id="rId22" display="2006 Estrogen and Osteoporosis"/>
-    <hyperlink ref="A24" r:id="rId23" display="2006 Immunodeficiency, dioxins, stress, and the hormones"/>
-    <hyperlink ref="A25" r:id="rId24" display="2006 Iron's Dangers"/>
-    <hyperlink ref="A26" r:id="rId25" display="2006 Menopause and its causes"/>
-    <hyperlink ref="A27" r:id="rId26" display="2006 Oils in Context"/>
-    <hyperlink ref="A28" r:id="rId27" display="2006 Osteoporosis, harmful calcification, and nervemusc"/>
-    <hyperlink ref="A29" r:id="rId28" display="2006 The problem of Alzheimer's disease as a clue to immortality"/>
-    <hyperlink ref="A30" r:id="rId29" display="2006 The transparency of life Cataracts as a model of age"/>
-    <hyperlink ref="A31" r:id="rId30" display="2006 Thyroid Therapies, Confusion, and Fraud"/>
-    <hyperlink ref="A32" r:id="rId31" display="2006 Tryptophan, serotonin, and aging"/>
-    <hyperlink ref="A33" r:id="rId32" display="2006 Unsaturated Vegetable Oils Toxic"/>
-    <hyperlink ref="A34" r:id="rId33" display="2006 Vegetables, etc. — Who Defines Food"/>
-    <hyperlink ref="A35" r:id="rId34" display="2006 Vitamin E Estrogen antagonist, energy promoter, a"/>
-    <hyperlink ref="A36" r:id="rId35" display="2007 BSE — mad cow — scrapie, etc. Stimulated amyloi"/>
-    <hyperlink ref="A37" r:id="rId36" display="2007 Cholesterol, longevity, intelligence, and health"/>
-    <hyperlink ref="A38" r:id="rId37" display="2007 Eclampsia in the Real Organism A Paradigm of General Distress Applicable in Infants, Adults, Etc"/>
-    <hyperlink ref="A39" r:id="rId38" display="2007 Estrogen, progesterone, and cancer Conflicts of int"/>
-    <hyperlink ref="A40" r:id="rId39" display="2007 How do you know Students, patients, and discovery"/>
-    <hyperlink ref="A41" r:id="rId40" display="2007 Preventing and treating cancer with progesterone"/>
-    <hyperlink ref="A42" r:id="rId41" display="2007 Progesterone Deceptions"/>
-    <hyperlink ref="A43" r:id="rId42" display="2007 Progesterone, not estrogen, is the coronary protec"/>
-    <hyperlink ref="A44" r:id="rId43" display="2007 RU486, Cancer, Estrogen, and Progesterone"/>
-    <hyperlink ref="A45" r:id="rId44" display="2007 Salt, energy, metabolic rate, and longevity"/>
-    <hyperlink ref="A46" r:id="rId45" display="2007 Stem cells, cell culture, and culture Issues in regener"/>
-    <hyperlink ref="A47" r:id="rId46" display="2007 Suitable Fats, Unsuitable Fats - Issues in Nutrition"/>
-    <hyperlink ref="A48" r:id="rId47" display="2007 TSH, temperature, pulse rate, and other indicators in hypothyroidism"/>
-    <hyperlink ref="A49" r:id="rId48" display="2007 The Great Fish Oil Experiment"/>
-    <hyperlink ref="A50" r:id="rId49" display="2008 Adaptive substance, creative regeneration"/>
-    <hyperlink ref="A51" r:id="rId50" display="2008 Natural Estrogens"/>
-    <hyperlink ref="A52" r:id="rId51" display="2009 Calcium and Disease Hypertension, organ calcificat"/>
-    <hyperlink ref="A53" r:id="rId52" display="2009 Estrogen, memory and heredity Imprinting and"/>
-    <hyperlink ref="A54" r:id="rId53" display="2009 Fats and degeneration"/>
-    <hyperlink ref="A55" r:id="rId54" display="2009 Gelatin, stress, longevity"/>
-    <hyperlink ref="A56" r:id="rId55" display="2009 Glycemia, starch, and sugar in context"/>
-    <hyperlink ref="A57" r:id="rId56" display="2009 Intelligence and metabolism"/>
-    <hyperlink ref="A58" r:id="rId57" display="2009 Intuitive knowledge and its development"/>
-    <hyperlink ref="A59" r:id="rId58" display="2009 Lactate vs. CO2 in wounds, sickness, and aging;"/>
-    <hyperlink ref="A60" r:id="rId59" display="2009 Membranes, plasma membranes, and surfaces"/>
-    <hyperlink ref="A61" r:id="rId60" display="2009 Multiple sclerosis, protein, fats, and progesterone"/>
-    <hyperlink ref="A62" r:id="rId61" display="2009 Thyroid, insomnia, and the insanities Commonalities in disease"/>
-    <hyperlink ref="A63" r:id="rId62" display="2009 Water swelling, tension, pain, fatigue, aging"/>
-    <hyperlink ref="A64" r:id="rId63" display="2011 Milk in context allergies, ecology, and some myths"/>
-    <hyperlink ref="A65" r:id="rId64" display="2012 Cascara, energy, cancer and the FDA's laxative abu"/>
-    <hyperlink ref="A66" r:id="rId65" display="2012 Genes, Carbon Dioxide and Adaptation"/>
-    <hyperlink ref="A67" r:id="rId66" display="2012 Glucose and sucrose for diabetes"/>
-    <hyperlink ref="A68" r:id="rId67" display="2012 Osteoporosis, aging, tissue renewal, and product science"/>
-    <hyperlink ref="A69" r:id="rId68" display="2012 Pathological Science &amp; General Electric - Threatenin"/>
-    <hyperlink ref="A70" r:id="rId69" display="2012 Protective CO2 and aging"/>
-    <hyperlink ref="A71" r:id="rId70" display="2012 Regeneration and degeneration Types of inflammati"/>
-    <hyperlink ref="A72" r:id="rId71" display="2012 Serotonin, depression, and aggression The problem of brain energy"/>
-    <hyperlink ref="A73" r:id="rId72" display="2012 Sugar issues"/>
-    <hyperlink ref="A74" r:id="rId73" display="2013 Fatigue, aging, and recuperation"/>
-    <hyperlink ref="A75" r:id="rId74" display="2013 Fats, functions &amp; malfunctions"/>
-    <hyperlink ref="A76" r:id="rId75" display="2013 Growth hormone Hormone of Stress, Aging, &amp; Death"/>
-    <hyperlink ref="A77" r:id="rId76" display="2013 Hot flashes, energy, and aging"/>
-    <hyperlink ref="A78" r:id="rId77" display="2013 Multiple sclerosis and other hormone-related brain s"/>
-    <hyperlink ref="A79" r:id="rId78" display="2013 Phosphate, activation, and aging"/>
-    <hyperlink ref="A80" r:id="rId79" display="2013 Prostate Cancer"/>
-    <hyperlink ref="A81" r:id="rId80" display="2013 Rosacea, inflammation, and aging, The inefficiency"/>
-    <hyperlink ref="A82" r:id="rId81" display="2013 When energy fails Edema, heart failure, hypertens"/>
-    <hyperlink ref="A83" r:id="rId82" display="2014 Cancer Disorder and Energy"/>
-    <hyperlink ref="A84" r:id="rId83" display="2014 Cataracts water, energy, light, and aging"/>
-    <hyperlink ref="A85" r:id="rId84" display="2014 Meat physiology, stress, and degenerative physiolo"/>
-    <hyperlink ref="K85" r:id="rId85" display="https://web.archive.org/web/20160221022832/https://www.fsis.usda.gov/wps/portal/fsis/topics/food-safety-education/get-answers/food-safety-fact-sheets/meat-preparation/water-in-meat-and-poultry/CT_Index"/>
-    <hyperlink ref="A86" r:id="rId86" display="2015 Heart and hormones"/>
-    <hyperlink ref="A87" r:id="rId87" display="2015 Serotonin Effects in disease, aging and inflammation"/>
-    <hyperlink ref="A88" r:id="rId88" display="2016 Mitochondria and mortality"/>
-    <hyperlink ref="A89" r:id="rId89" display="2016 The dark side of stress (Learned helplessness)"/>
-    <hyperlink ref="A90" r:id="rId90" display="2021 Some Effects of Progesterone in Men"/>
-    <hyperlink ref="A91" r:id="rId91" display="Energy and Structure in Biological Water"/>
-    <hyperlink ref="A92" r:id="rId92" display="Energy, structure and carbon dioxide A realistic view o"/>
-    <hyperlink ref="A93" r:id="rId93" display="Stress and Water"/>
+    <hyperlink ref="A9" r:id="rId8" display="1997 Estriol, DES, DDT, etc"/>
+    <hyperlink ref="A10" r:id="rId9" display="1997 Iron-Cumulative Danger"/>
+    <hyperlink ref="A11" r:id="rId10" display="2006 Aging Eyes, Infant Eyes, and Excitable Tissues"/>
+    <hyperlink ref="A12" r:id="rId11" display="2006 Aging, estrogen, and progesterone"/>
+    <hyperlink ref="A13" r:id="rId12" display="2006 Altitude and Mortality"/>
+    <hyperlink ref="A14" r:id="rId13" display="2006 Aspirin, brain, and cancer"/>
+    <hyperlink ref="A15" r:id="rId14" display="2006 Autonomic systems"/>
+    <hyperlink ref="A16" r:id="rId15" display="2006 Bleeding, clotting, cancer"/>
+    <hyperlink ref="A17" r:id="rId16" display="2006 Bone Density First Do No Harm"/>
+    <hyperlink ref="A18" r:id="rId17" display="2006 Breast Cancer"/>
+    <hyperlink ref="A19" r:id="rId18" display="2006 Caffeine A vitamin-like nutrient, or adaptogen"/>
+    <hyperlink ref="A20" r:id="rId19" display="2006 Diabetes, scleroderma, oils and hormones"/>
+    <hyperlink ref="A21" r:id="rId20" display="2006 Epilepsy and Progesterone"/>
+    <hyperlink ref="A22" r:id="rId21" display="2006 Estrogen and Osteoporosis"/>
+    <hyperlink ref="A23" r:id="rId22" display="2006 Immunodeficiency, dioxins, stress, and the hormones"/>
+    <hyperlink ref="A24" r:id="rId23" display="2006 Iron's Dangers"/>
+    <hyperlink ref="A25" r:id="rId24" display="2006 Menopause and its causes"/>
+    <hyperlink ref="A26" r:id="rId25" display="2006 Oils in Context"/>
+    <hyperlink ref="A27" r:id="rId26" display="2006 Osteoporosis, harmful calcification, and nervemusc"/>
+    <hyperlink ref="A28" r:id="rId27" display="2006 The problem of Alzheimer's disease as a clue to immortality"/>
+    <hyperlink ref="A29" r:id="rId28" display="2006 The transparency of life Cataracts as a model of age"/>
+    <hyperlink ref="A30" r:id="rId29" display="2006 Thyroid Therapies, Confusion, and Fraud"/>
+    <hyperlink ref="A31" r:id="rId30" display="2006 Tryptophan, serotonin, and aging"/>
+    <hyperlink ref="A32" r:id="rId31" display="2006 Unsaturated Vegetable Oils Toxic"/>
+    <hyperlink ref="A33" r:id="rId32" display="2006 Vegetables, etc. — Who Defines Food"/>
+    <hyperlink ref="A34" r:id="rId33" display="2006 Vitamin E Estrogen antagonist, energy promoter, a"/>
+    <hyperlink ref="A35" r:id="rId34" display="2007 BSE — mad cow — scrapie, etc. Stimulated amyloi"/>
+    <hyperlink ref="A36" r:id="rId35" display="2007 Cholesterol, longevity, intelligence, and health"/>
+    <hyperlink ref="A37" r:id="rId36" display="2007 Eclampsia in the Real Organism A Paradigm of General Distress Applicable in Infants, Adults, Etc"/>
+    <hyperlink ref="A38" r:id="rId37" display="2007 Estrogen, progesterone, and cancer Conflicts of int"/>
+    <hyperlink ref="A39" r:id="rId38" display="2007 How do you know Students, patients, and discovery"/>
+    <hyperlink ref="A40" r:id="rId39" display="2007 Preventing and treating cancer with progesterone"/>
+    <hyperlink ref="A41" r:id="rId40" display="2007 Progesterone Deceptions"/>
+    <hyperlink ref="A42" r:id="rId41" display="2007 Progesterone, not estrogen, is the coronary protec"/>
+    <hyperlink ref="A43" r:id="rId42" display="2007 RU486, Cancer, Estrogen, and Progesterone"/>
+    <hyperlink ref="A44" r:id="rId43" display="2007 Salt, energy, metabolic rate, and longevity"/>
+    <hyperlink ref="A45" r:id="rId44" display="2007 Stem cells, cell culture, and culture Issues in regener"/>
+    <hyperlink ref="A46" r:id="rId45" display="2007 Suitable Fats, Unsuitable Fats - Issues in Nutrition"/>
+    <hyperlink ref="A47" r:id="rId46" display="2007 TSH, temperature, pulse rate, and other indicators in hypothyroidism"/>
+    <hyperlink ref="A48" r:id="rId47" display="2007 The Great Fish Oil Experiment"/>
+    <hyperlink ref="A49" r:id="rId48" display="2008 Adaptive substance, creative regeneration"/>
+    <hyperlink ref="A50" r:id="rId49" display="2008 Natural Estrogens"/>
+    <hyperlink ref="A51" r:id="rId50" display="2009 Calcium and Disease Hypertension, organ calcificat"/>
+    <hyperlink ref="A52" r:id="rId51" display="2009 Estrogen, memory and heredity Imprinting and"/>
+    <hyperlink ref="A53" r:id="rId52" display="2009 Fats and degeneration"/>
+    <hyperlink ref="A54" r:id="rId53" display="2009 Gelatin, stress, longevity"/>
+    <hyperlink ref="A55" r:id="rId54" display="2009 Glycemia, starch, and sugar in context"/>
+    <hyperlink ref="A56" r:id="rId55" display="2009 Intelligence and metabolism"/>
+    <hyperlink ref="A57" r:id="rId56" display="2009 Intuitive knowledge and its development"/>
+    <hyperlink ref="A58" r:id="rId57" display="2009 Lactate vs. CO2 in wounds, sickness, and aging;"/>
+    <hyperlink ref="A59" r:id="rId58" display="2009 Membranes, plasma membranes, and surfaces"/>
+    <hyperlink ref="A60" r:id="rId59" display="2009 Multiple sclerosis, protein, fats, and progesterone"/>
+    <hyperlink ref="A61" r:id="rId60" display="2009 Thyroid, insomnia, and the insanities Commonalities in disease"/>
+    <hyperlink ref="A62" r:id="rId61" display="2009 Water swelling, tension, pain, fatigue, aging"/>
+    <hyperlink ref="A63" r:id="rId62" display="2011 Milk in context allergies, ecology, and some myths"/>
+    <hyperlink ref="A64" r:id="rId63" display="2012 Cascara, energy, cancer and the FDA's laxative abu"/>
+    <hyperlink ref="A65" r:id="rId64" display="2012 Genes, Carbon Dioxide and Adaptation"/>
+    <hyperlink ref="A66" r:id="rId65" display="2012 Glucose and sucrose for diabetes"/>
+    <hyperlink ref="A67" r:id="rId66" display="2012 Osteoporosis, aging, tissue renewal, and product science"/>
+    <hyperlink ref="A68" r:id="rId67" display="2012 Pathological Science &amp; General Electric - Threatenin"/>
+    <hyperlink ref="A69" r:id="rId68" display="2012 Protective CO2 and aging"/>
+    <hyperlink ref="A70" r:id="rId69" display="2012 Regeneration and degeneration Types of inflammati"/>
+    <hyperlink ref="A71" r:id="rId70" display="2012 Serotonin, depression, and aggression The problem of brain energy"/>
+    <hyperlink ref="A72" r:id="rId71" display="2012 Sugar issues"/>
+    <hyperlink ref="A73" r:id="rId72" display="2013 Fatigue, aging, and recuperation"/>
+    <hyperlink ref="A74" r:id="rId73" display="2013 Fats, functions &amp; malfunctions"/>
+    <hyperlink ref="A75" r:id="rId74" display="2013 Growth hormone Hormone of Stress, Aging, &amp; Death"/>
+    <hyperlink ref="A76" r:id="rId75" display="2013 Hot flashes, energy, and aging"/>
+    <hyperlink ref="A77" r:id="rId76" display="2013 Multiple sclerosis and other hormone-related brain s"/>
+    <hyperlink ref="A78" r:id="rId77" display="2013 Phosphate, activation, and aging"/>
+    <hyperlink ref="A79" r:id="rId78" display="2013 Prostate Cancer"/>
+    <hyperlink ref="A80" r:id="rId79" display="2013 Rosacea, inflammation, and aging, The inefficiency"/>
+    <hyperlink ref="A81" r:id="rId80" display="2013 When energy fails Edema, heart failure, hypertens"/>
+    <hyperlink ref="A82" r:id="rId81" display="2014 Cancer Disorder and Energy"/>
+    <hyperlink ref="A83" r:id="rId82" display="2014 Cataracts water, energy, light, and aging"/>
+    <hyperlink ref="A84" r:id="rId83" display="2014 Meat physiology, stress, and degenerative physiolo"/>
+    <hyperlink ref="K84" r:id="rId84" display="https://web.archive.org/web/20160221022832/https://www.fsis.usda.gov/wps/portal/fsis/topics/food-safety-education/get-answers/food-safety-fact-sheets/meat-preparation/water-in-meat-and-poultry/CT_Index"/>
+    <hyperlink ref="A85" r:id="rId85" display="2015 Heart and hormones"/>
+    <hyperlink ref="A86" r:id="rId86" display="2015 Serotonin Effects in disease, aging and inflammation"/>
+    <hyperlink ref="A87" r:id="rId87" display="2016 Mitochondria and mortality"/>
+    <hyperlink ref="A88" r:id="rId88" display="2016 The dark side of stress (Learned helplessness)"/>
+    <hyperlink ref="A89" r:id="rId89" display="2021 Some Effects of Progesterone in Men"/>
+    <hyperlink ref="A90" r:id="rId90" display="Energy and Structure in Biological Water"/>
+    <hyperlink ref="A91" r:id="rId91" display="Energy, structure and carbon dioxide A realistic view o"/>
+    <hyperlink ref="A92" r:id="rId92" display="Stress and Water"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -10503,765 +11382,1966 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U114"/>
+  <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="29.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="0" width="23.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="5" width="29.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="6" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>994</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>997</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>999</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1005</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1028</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1036</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1042</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1051</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1059</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1063</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1080</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1102</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1116</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="184.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1119</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1131</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1138</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1141</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1143</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1154</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="196.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1160</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1172</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1177</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1187</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1196</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1205</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1211</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1224</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1234</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1244</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1249</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1261</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1268</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1272</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1277</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1280</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1282</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1285</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1287</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1292</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1296</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1298</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1304</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1308</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1317</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1325</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="184.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1328</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1331</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1339</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1347</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1352</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1354</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1361</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1363</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1369</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1371</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1380</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1383</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1385</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1388</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1392</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1399</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1401</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1407</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1409</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1419</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1424</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1428</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1430</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1432</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1443</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1446</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1454</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1456</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="242.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1462</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1465</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1467</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1472</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1478</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1483</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1488</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1498</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="s">
-        <v>1099</v>
+        <v>1500</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>1502</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="1986 Hormone Balancing Natural Cure for Arthritis"/>
-    <hyperlink ref="A3" r:id="rId2" display="1988 Natural Immunity and Viral Infections"/>
-    <hyperlink ref="A4" r:id="rId3" display="1988-01 Abnormal Cells in the Uterine Cervix"/>
-    <hyperlink ref="A5" r:id="rId4" display="1988-06 AIDS, Syphilis Treatments, and Ideas"/>
-    <hyperlink ref="A6" r:id="rId5" display="1989-01 A New Approach to Detoxifying"/>
-    <hyperlink ref="A7" r:id="rId6" display="1989-05 The Edema of Stress"/>
-    <hyperlink ref="A8" r:id="rId7" display="1989-11 Repairing Immunodeficiencies"/>
-    <hyperlink ref="A9" r:id="rId8" display="1990-12 Education Against Knowledge"/>
-    <hyperlink ref="A10" r:id="rId9" display="1991 The Generality of Adaptogens"/>
-    <hyperlink ref="A11" r:id="rId10" display="1991-01 Solving Some of the Problems of Aging"/>
-    <hyperlink ref="A12" r:id="rId11" display="1991-04 Estrogen in 1990"/>
-    <hyperlink ref="A13" r:id="rId12" display="1992-03 Taxol, Yew &amp; Cancer"/>
-    <hyperlink ref="A14" r:id="rId13" display="1992-06 Resistance of the Heart"/>
-    <hyperlink ref="A15" r:id="rId14" display="1992-09 Brain Aging"/>
-    <hyperlink ref="A16" r:id="rId15" display="1992-11 Origins of Progesterone Therapy"/>
-    <hyperlink ref="A17" r:id="rId16" display="1992-12 Failures of Immunity"/>
-    <hyperlink ref="A18" r:id="rId17" display="1993 The Bean Syndrome"/>
-    <hyperlink ref="A19" r:id="rId18" display="1993-11 Thyroid Misconceptions"/>
-    <hyperlink ref="A20" r:id="rId19" display="1994-06 Mortality Again"/>
-    <hyperlink ref="A21" r:id="rId20" display="1994-07 Chronic Fatigue"/>
-    <hyperlink ref="A22" r:id="rId21" display="1995 Food-junk and some mystery ailments"/>
-    <hyperlink ref="A23" r:id="rId22" display="1995-09 Aging Ovaries, Not the Eggs"/>
-    <hyperlink ref="A24" r:id="rId23" display="1995-09 Regeneration and the Anti-adaptogens"/>
-    <hyperlink ref="A25" r:id="rId24" display="1996 Using Sunlight To Sustain Life"/>
-    <hyperlink ref="A26" r:id="rId25" display="1996-04 Osteoporosis and the Skin"/>
-    <hyperlink ref="A27" r:id="rId26" display="1997 Optimizing Respiration"/>
-    <hyperlink ref="A28" r:id="rId27" display="1998 Bioelectric Fields, Regeneration, and the Lactic"/>
-    <hyperlink ref="A29" r:id="rId28" display="1998 Hayflickers, Dolly, And Dandruff"/>
-    <hyperlink ref="A30" r:id="rId29" display="1998 Recharging the System"/>
-    <hyperlink ref="A31" r:id="rId30" display="1998 Tissue Firmness and Elasticity, and Rothen's"/>
-    <hyperlink ref="A32" r:id="rId31" display="1999 Carbon Monoxide, Stress, and Cancer"/>
-    <hyperlink ref="A33" r:id="rId32" display="1999-03 Estrogen Receptors—what do they explain"/>
-    <hyperlink ref="A34" r:id="rId33" display="1999-12 Homeostasis And Aging"/>
-    <hyperlink ref="A35" r:id="rId34" display="2000-01 Edema, estrogen, and aging"/>
-    <hyperlink ref="A36" r:id="rId35" display="2000-03 Progesterone and ideas of balance in hormo"/>
-    <hyperlink ref="A37" r:id="rId36" display="2000-10 Estrogen, Aging, Radiation, Migraine &amp;"/>
-    <hyperlink ref="A38" r:id="rId37" display="2001 Fibrosis, Estrogen, stiffness, excitotoxicity, aging"/>
-    <hyperlink ref="A39" r:id="rId38" display="2001 Mary Shomon Interview"/>
-    <hyperlink ref="A40" r:id="rId39" display="2001-02 Estrogen, calcium, heavy metals, and nerve "/>
-    <hyperlink ref="A41" r:id="rId40" display="2001-05 Cocaine babies, criminal responsibility, and"/>
-    <hyperlink ref="A42" r:id="rId41" display="2001-10 Thought and energy, mood and metabolism"/>
-    <hyperlink ref="A43" r:id="rId42" display="2001-11 Postpartum, Premenstrual, and Seasonal S"/>
-    <hyperlink ref="A44" r:id="rId43" display="2002-09 Lungs Shock Inflammation And Aging"/>
-    <hyperlink ref="A45" r:id="rId44" display="2002-11 Progesterone, thyroid, cancer"/>
-    <hyperlink ref="A46" r:id="rId45" display="2003-03 Estrogen's Mechanisms in Aging and Cancer"/>
-    <hyperlink ref="A47" r:id="rId46" display="2005 Carbon monoxide, Estrogen, and the Medical"/>
-    <hyperlink ref="A48" r:id="rId47" display="2005 Contexts for Asthma"/>
-    <hyperlink ref="A49" r:id="rId48" display="2005-11 Thyroiditis, Some confusions and causes"/>
-    <hyperlink ref="A50" r:id="rId49" display="2006 Autoimmunity"/>
-    <hyperlink ref="A51" r:id="rId50" display="2006 Inflammation, endotoxin, estrogen, and other"/>
-    <hyperlink ref="A52" r:id="rId51" display="2006-01 X-rays, estrogen, and the brain"/>
-    <hyperlink ref="A53" r:id="rId52" display="2007 The GABA system, defenses, and tissue renewal"/>
-    <hyperlink ref="A54" r:id="rId53" display="2009 Peptides, coherent adaption, and some terminal diseases"/>
-    <hyperlink ref="A55" r:id="rId54" display="2009 Resveratrol, rate of living, CO2, and aging"/>
-    <hyperlink ref="A56" r:id="rId55" display="2011 Radiation and Growth, Incoherent imprinting"/>
-    <hyperlink ref="A57" r:id="rId56" display="2011-05 Endotoxin, Stress, Depression"/>
-    <hyperlink ref="A58" r:id="rId57" display="2012-05 Implications of inflammation"/>
-    <hyperlink ref="A59" r:id="rId58" display="2013-01 Demystifying dementia, Protective progest"/>
-    <hyperlink ref="A60" r:id="rId59" display="2014-01 Epigenetics, sickness-aging, and changing"/>
-    <hyperlink ref="A61" r:id="rId60" display="2014-03 Protecting and restoring nerves"/>
-    <hyperlink ref="A62" r:id="rId61" display="2014-05 Shock, inflammation, resistance, epigenetics"/>
-    <hyperlink ref="A63" r:id="rId62" display="2014-07 Approaches to renewal"/>
-    <hyperlink ref="A64" r:id="rId63" display="2014-09 Antioxidants and formative fields Disruptor"/>
-    <hyperlink ref="A65" r:id="rId64" display="2015 Mushrooms—observations and interpretations"/>
-    <hyperlink ref="A66" r:id="rId65" display="2015 Stress, inertia, aging"/>
-    <hyperlink ref="A67" r:id="rId66" display="2015-05 Urea, coherent life and forgotten or unreali"/>
-    <hyperlink ref="A68" r:id="rId67" display="2015-07 Imprinting and Aging"/>
-    <hyperlink ref="A69" r:id="rId68" display="2015-09 Nitric oxide, degenerative processes, and"/>
-    <hyperlink ref="A70" r:id="rId69" display="2016 Progesterone, brain protection, and the scienc"/>
-    <hyperlink ref="A71" r:id="rId70" display="2016-01 Nitric oxide, aging, and adaption"/>
-    <hyperlink ref="A72" r:id="rId71" display="2016-05 Comments on cancer therapy"/>
-    <hyperlink ref="A73" r:id="rId72" display="2016-07 100 Years of Cancer Metabolism"/>
-    <hyperlink ref="A74" r:id="rId73" display="2016-09 Dangers of sadistic science Determinism"/>
-    <hyperlink ref="A75" r:id="rId74" display="2016-11 Arthritis, Autoimmunity, &amp; Aging"/>
-    <hyperlink ref="A76" r:id="rId75" display="2017 Adaptogenic Milk"/>
-    <hyperlink ref="A77" r:id="rId76" display="2017 From heroic medicine to hormesis"/>
-    <hyperlink ref="A78" r:id="rId77" display="2017-01 Sugar, stress and the degenerative diseases"/>
-    <hyperlink ref="A79" r:id="rId78" display="2017-03 Parkinson's disease Some contexts for "/>
-    <hyperlink ref="A80" r:id="rId79" display="2017-05 Language and Criticism of Science"/>
-    <hyperlink ref="A81" r:id="rId80" display="2017-07 Problems of Metabolic Energy and Efficiency"/>
-    <hyperlink ref="A82" r:id="rId81" display="2018-01 Consciousness, Nootropics, And Progester"/>
-    <hyperlink ref="A83" r:id="rId82" display="2018-03 Sleep and Aging"/>
-    <hyperlink ref="A84" r:id="rId83" display="2018-05 Autism And Causality"/>
-    <hyperlink ref="A85" r:id="rId84" display="2018-07 Critical Issues"/>
-    <hyperlink ref="A86" r:id="rId85" display="2018-09 Cholesterol in Context - Part 1"/>
-    <hyperlink ref="A87" r:id="rId86" display="2018-11 Cholesterol in Context Part 2"/>
-    <hyperlink ref="A88" r:id="rId87" display="2019 Money, progesterone &amp; life"/>
-    <hyperlink ref="A89" r:id="rId88" display="2019 Serotonin Energy, Degeneration, and Aging"/>
-    <hyperlink ref="A90" r:id="rId89" display="2019-01 Receptors, or Sensitive Substance"/>
-    <hyperlink ref="A91" r:id="rId90" display="2019-03 Particles in Context"/>
-    <hyperlink ref="A92" r:id="rId91" display="2019-05 Postpartum Depression, Brain Aging,"/>
-    <hyperlink ref="A93" r:id="rId92" display="2019-09 Serotonin, coherence and aging"/>
-    <hyperlink ref="A94" r:id="rId93" display="2020 Lactate, Metabolism Regression, and Political"/>
-    <hyperlink ref="A95" r:id="rId94" display="2020 This Novel Flu Season"/>
-    <hyperlink ref="A96" r:id="rId95" display="2020-01 Contexts for Vaccinations"/>
-    <hyperlink ref="A97" r:id="rId96" display="2020-03 Natural Order and Gilbert Ling"/>
-    <hyperlink ref="A98" r:id="rId97" display="2020-07 Education, a developmental process"/>
-    <hyperlink ref="A99" r:id="rId98" display="2020-11 Body Temperature, Inflammation, and Aging"/>
-    <hyperlink ref="A100" r:id="rId99" display="2021-01 Cumulative damage, degeneration, &amp; aging"/>
-    <hyperlink ref="A101" r:id="rId100" display="2021-03 Inflammation, adaptation, and aging"/>
-    <hyperlink ref="A102" r:id="rId101" display="2021-05 Intention, Learning, and Health"/>
-    <hyperlink ref="A103" r:id="rId102" display="2021-07 Estrogen, iron, degenerative aging"/>
-    <hyperlink ref="A104" r:id="rId103" display="2021-09 Immunology, Ideology, Power"/>
-    <hyperlink ref="A105" r:id="rId104" display="2021-11 Gender, Aging &amp; Disease Susceptibility"/>
-    <hyperlink ref="A106" r:id="rId105" display="2022 Q1 Carcinogenic Metabolism"/>
-    <hyperlink ref="A107" r:id="rId106" display="2022 Q2 Aging, Energy, Progesterone"/>
-    <hyperlink ref="A108" r:id="rId107" display="A Physiological Approach to Ovarian Cancer"/>
-    <hyperlink ref="A109" r:id="rId108" display="Carbon Monoxide Cancer Hormone"/>
-    <hyperlink ref="A110" r:id="rId109" display="Darkness, Water, Osteoporosis"/>
-    <hyperlink ref="A111" r:id="rId110" display="Estrogen, serotonin, mood, and aging"/>
-    <hyperlink ref="A112" r:id="rId111" display="Moles, DHEA, Etc"/>
-    <hyperlink ref="A113" r:id="rId112" display="Oral Absorption of Progesterone"/>
-    <hyperlink ref="A114" r:id="rId113" display="Steroids, Thyroid"/>
+    <hyperlink ref="A3" r:id="rId2" display="1988-06 AIDS, Syphilis Treatments, and Ideas"/>
+    <hyperlink ref="A4" r:id="rId3" display="1988-09 Natural Immunity And Viral Infections"/>
+    <hyperlink ref="A5" r:id="rId4" display="1989-01 A New Approach to Detoxifying"/>
+    <hyperlink ref="A6" r:id="rId5" display="1989-05 The Edema of Stress"/>
+    <hyperlink ref="A7" r:id="rId6" display="1989-11 Repairing Immunodeficiencies"/>
+    <hyperlink ref="A8" r:id="rId7" display="1991 The Generality of Adaptogens"/>
+    <hyperlink ref="A9" r:id="rId8" display="1991-04 Estrogen in 1990"/>
+    <hyperlink ref="A10" r:id="rId9" display="1994-06 Mortality Again"/>
+    <hyperlink ref="A11" r:id="rId10" display="1994-07 Chronic Fatigue"/>
+    <hyperlink ref="A12" r:id="rId11" display="1995 Food-junk and some mystery ailments"/>
+    <hyperlink ref="A13" r:id="rId12" display="1995-09 Aging Ovaries, Not the Eggs"/>
+    <hyperlink ref="A14" r:id="rId13" display="1996 Using Sunlight To Sustain Life"/>
+    <hyperlink ref="A15" r:id="rId14" display="1996-04 Osteoporosis and the Skin"/>
+    <hyperlink ref="A16" r:id="rId15" display="1997 Optimizing Respiration"/>
+    <hyperlink ref="A17" r:id="rId16" display="1998 Bioelectric Fields, Regeneration, and the Lactic"/>
+    <hyperlink ref="A18" r:id="rId17" display="1998 Hayflickers, Dolly, And Dandruff"/>
+    <hyperlink ref="A19" r:id="rId18" display="1998 Recharging the System"/>
+    <hyperlink ref="A20" r:id="rId19" display="1998 Tissue Firmness and Elasticity, and Rothen's"/>
+    <hyperlink ref="A21" r:id="rId20" display="1999 Carbon Monoxide, Stress, and Cancer"/>
+    <hyperlink ref="A22" r:id="rId21" display="1999-03 Estrogen Receptors—what do they explain"/>
+    <hyperlink ref="A23" r:id="rId22" display="1999-12 Homeostasis And Aging"/>
+    <hyperlink ref="A24" r:id="rId23" display="2000-01 Edema, estrogen, and aging"/>
+    <hyperlink ref="A25" r:id="rId24" display="2000-03 Progesterone and ideas of balance in hormo"/>
+    <hyperlink ref="A26" r:id="rId25" display="2000-10 Estrogen, Aging, Radiation, Migraine &amp;"/>
+    <hyperlink ref="A27" r:id="rId26" display="2001 Fibrosis, Estrogen, stiffness, excitotoxicity, aging"/>
+    <hyperlink ref="A28" r:id="rId27" display="2001 Mary Shomon Interview"/>
+    <hyperlink ref="A29" r:id="rId28" display="2001-02 Estrogen, calcium, heavy metals, and nerve "/>
+    <hyperlink ref="A30" r:id="rId29" display="2001-05 Cocaine babies, criminal responsibility, and"/>
+    <hyperlink ref="A31" r:id="rId30" display="2001-10 Thought and energy, mood and metabolism"/>
+    <hyperlink ref="A32" r:id="rId31" display="2001-11 Postpartum, Premenstrual, and Seasonal S"/>
+    <hyperlink ref="A33" r:id="rId32" display="2002-09 Lungs Shock Inflammation And Aging"/>
+    <hyperlink ref="A34" r:id="rId33" display="2002-11 Progesterone, thyroid, cancer"/>
+    <hyperlink ref="A35" r:id="rId34" display="2003-03 Estrogen's Mechanisms in Aging and Cancer"/>
+    <hyperlink ref="A36" r:id="rId35" display="2005 Carbon monoxide, Estrogen, and the Medical"/>
+    <hyperlink ref="A37" r:id="rId36" display="2005 Contexts for Asthma"/>
+    <hyperlink ref="A38" r:id="rId37" display="2005-11 Thyroiditis, Some confusions and causes"/>
+    <hyperlink ref="A39" r:id="rId38" display="2006 Autoimmunity"/>
+    <hyperlink ref="A40" r:id="rId39" display="2006 Inflammation, endotoxin, estrogen, and other"/>
+    <hyperlink ref="A41" r:id="rId40" display="2006-01 X-rays, estrogen, and the brain"/>
+    <hyperlink ref="A42" r:id="rId41" display="2007 The GABA system, defenses, and tissue renewal"/>
+    <hyperlink ref="A43" r:id="rId42" display="2009 Peptides, coherent adaption, and some terminal diseases"/>
+    <hyperlink ref="A44" r:id="rId43" display="2009 Resveratrol, rate of living, CO2, and aging"/>
+    <hyperlink ref="B44" r:id="rId44" display="https://www.sciencedaily.com/releases/2009/06/090624152811.htm"/>
+    <hyperlink ref="A45" r:id="rId45" display="2011 Radiation and Growth, Incoherent imprinting"/>
+    <hyperlink ref="A46" r:id="rId46" display="2011-05 Endotoxin, Stress, Depression"/>
+    <hyperlink ref="A47" r:id="rId47" display="2012-05 Implications of inflammation"/>
+    <hyperlink ref="A48" r:id="rId48" display="2013-01 Demystifying dementia, Protective progest"/>
+    <hyperlink ref="A49" r:id="rId49" display="2014-01 Epigenetics, sickness-aging, and changing"/>
+    <hyperlink ref="A50" r:id="rId50" display="2014-03 Protecting and restoring nerves"/>
+    <hyperlink ref="A51" r:id="rId51" display="2014-05 Shock, inflammation, resistance, epigenetics"/>
+    <hyperlink ref="A52" r:id="rId52" display="2014-07 Approaches to renewal"/>
+    <hyperlink ref="A53" r:id="rId53" display="2014-09 Antioxidants and formative fields Disruptor"/>
+    <hyperlink ref="A54" r:id="rId54" display="2015 Mushrooms—observations and interpretations"/>
+    <hyperlink ref="A55" r:id="rId55" display="2015 Stress, inertia, aging"/>
+    <hyperlink ref="A56" r:id="rId56" display="2015-05 Urea, coherent life and forgotten or unreali"/>
+    <hyperlink ref="A57" r:id="rId57" display="2015-07 Imprinting and Aging"/>
+    <hyperlink ref="A58" r:id="rId58" display="2015-09 Nitric oxide, degenerative processes, and"/>
+    <hyperlink ref="A59" r:id="rId59" display="2016 Progesterone, brain protection, and the scienc"/>
+    <hyperlink ref="A60" r:id="rId60" display="2016-01 Nitric oxide, aging, and adaption"/>
+    <hyperlink ref="A61" r:id="rId61" display="2016-05 Comments on cancer therapy"/>
+    <hyperlink ref="A62" r:id="rId62" display="2016-07 100 Years of Cancer Metabolism"/>
+    <hyperlink ref="A63" r:id="rId63" display="2016-09 Dangers of sadistic science Determinism"/>
+    <hyperlink ref="A64" r:id="rId64" display="2017 Adaptogenic Milk"/>
+    <hyperlink ref="A65" r:id="rId65" display="2017 From heroic medicine to hormesis"/>
+    <hyperlink ref="A66" r:id="rId66" display="2017-01 Sugar, stress and the degenerative diseases"/>
+    <hyperlink ref="A67" r:id="rId67" display="2017-03 Parkinson's disease Some contexts for "/>
+    <hyperlink ref="A68" r:id="rId68" display="2017-05 Language and Criticism of Science"/>
+    <hyperlink ref="A69" r:id="rId69" display="2017-07 Problems of Metabolic Energy and Efficiency"/>
+    <hyperlink ref="A70" r:id="rId70" display="2018-01 Consciousness, Nootropics, And Progester"/>
+    <hyperlink ref="A71" r:id="rId71" display="2018-03 Sleep and Aging"/>
+    <hyperlink ref="A72" r:id="rId72" display="2018-05 Autism And Causality"/>
+    <hyperlink ref="A73" r:id="rId73" display="2018-09 Cholesterol in Context - Part 1"/>
+    <hyperlink ref="A74" r:id="rId74" display="2018-11 Cholesterol in Context Part 2"/>
+    <hyperlink ref="A75" r:id="rId75" display="2019 Money, progesterone &amp; life"/>
+    <hyperlink ref="A76" r:id="rId76" display="2019 Serotonin Energy, Degeneration, and Aging"/>
+    <hyperlink ref="A77" r:id="rId77" display="2019-01 Receptors, or Sensitive Substance"/>
+    <hyperlink ref="A78" r:id="rId78" display="2019-03 Particles in Context"/>
+    <hyperlink ref="A79" r:id="rId79" display="2019-05 Postpartum Depression, Brain Aging,"/>
+    <hyperlink ref="A80" r:id="rId80" display="2019-09 Serotonin, coherence and aging"/>
+    <hyperlink ref="A81" r:id="rId81" display="2020 Lactate, Metabolism Regression, and Political"/>
+    <hyperlink ref="A82" r:id="rId82" display="2020 This Novel Flu Season"/>
+    <hyperlink ref="A83" r:id="rId83" display="2020-01 Contexts for Vaccinations"/>
+    <hyperlink ref="A84" r:id="rId84" display="2020-03 Natural Order and Gilbert Ling"/>
+    <hyperlink ref="A85" r:id="rId85" display="2020-07 Education, a developmental process"/>
+    <hyperlink ref="A86" r:id="rId86" display="2021-01 Cumulative damage, degeneration, &amp; aging"/>
+    <hyperlink ref="A87" r:id="rId87" display="2021-03 Inflammation, adaptation, and aging"/>
+    <hyperlink ref="A88" r:id="rId88" display="2021-07 Estrogen, iron, degenerative aging"/>
+    <hyperlink ref="A89" r:id="rId89" display="2021-09 Immunology, Ideology, Power"/>
+    <hyperlink ref="A90" r:id="rId90" display="2022 Q1 Carcinogenic Metabolism"/>
+    <hyperlink ref="A91" r:id="rId91" display="2022 Q2 Aging, Energy, Progesterone"/>
+    <hyperlink ref="A92" r:id="rId92" display="A Physiological Approach to Ovarian Cancer"/>
+    <hyperlink ref="A93" r:id="rId93" display="Carbon Monoxide Cancer Hormone"/>
+    <hyperlink ref="A94" r:id="rId94" display="Estrogen, serotonin, mood, and aging"/>
+    <hyperlink ref="A95" r:id="rId95" display="Oral Absorption of Progesterone"/>
+    <hyperlink ref="A96" r:id="rId96" display="Steroids, Thyroid"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/MissingReferences.xlsx
+++ b/MissingReferences.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1410">
   <si>
     <t xml:space="preserve">Articles</t>
   </si>
@@ -213,55 +213,16 @@
     <t xml:space="preserve">[04] Derjaguin, B. V. "Recent research into the properties of water in thin films and in microcapillaries." Symposia of the Society for Experimental Biology. Vol. 19. 1965.</t>
   </si>
   <si>
-    <t xml:space="preserve">[06] Hazlewood, C. F., et al. "John Hopkins Med." J 128 (1971): 117. </t>
+    <t xml:space="preserve">[06] Hazlewood CF, Nichols BL, Chang DC, Brown B. On the state of water in developing muscle: a study of the major phase of ordered water in skeletal muscle and its relationship to sodium concentration. Johns Hopkins Med J. 1971 Mar;128(3):117-31. PMID: 5553118. </t>
   </si>
   <si>
     <t xml:space="preserve">[10] I. M. Klotz, Fed. Proc., 24, Suppl. 15, 5 (1965). </t>
   </si>
   <si>
-    <t xml:space="preserve">[14] Turner, C. D. "General Endocrinology s pp 194-237." (1966). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[17] A. B. Schultz, Proc. Soc. Exp. Biol. Med., 125, 379 (1965). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[18] Atkinson, W. B., H. Kaunitz, and C. A. Slanetz. "Effects of ovarian hormones upon uterine pigmentation in vitamin E-deficient rats." (1949): 68-71. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[22] Dowben, Robert M. "General physiology: a molecular approach." p304 (1969). </t>
-  </si>
-  <si>
     <t xml:space="preserve">[25] Takeuchi, Tadao, Masando Hayashi, and William H. Fishman. "Mucinogenesis and enzymorphology of rat vagina; Phosphorylase, β-glucuronidase, DPNH-diaphorase and phosphatases." European Journal of Endocrinology 39.3 (1962): 395-406. </t>
   </si>
   <si>
-    <t xml:space="preserve">[26] Florey, Ernst. "An introduction to general and comparative animal physiology." (No Title) (1966). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[28] Goodland, R. L. "JG REYNOLDS, AB MCCOORD, AND W. T. POMMERENKE." Respiratory and electrolyte effects induced by estrogen and progesterone. Fertil. Steril 4 (1953): 300-316. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[34] A. W. Jones, paper presented at the New York Academy of Science International Conference on Physico-Chemical State of Ions and Water in Living Tissue and Model Systems, January 11, 1972. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[37] Mueller, G. C. "A. M. HERRANEN en KF JERVELL (1958). Studies on the me-chanism of action of estrogens." Recent Progr. Hormone Res 14: 95. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[46] O. Warburg, A. W. Geissler and S. Lorenz, in Aspects of Yeast Metabolism, A. K. Mills, Ed., Blackwell, Oxford, 1967, p. 327. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[49] Lee, Olive Pearl, and Shiro Tashiro. "STUDIES ON ALKALIGENESIS IN TISSUES: II. Ammonia Production in Muscle during Contraction." American Journal of Physiology-Legacy Content 61.2 (1922): 244-253. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[54] Spanner, D. C. "The active transport of water under temperature gradients." Symposia of the Society for Experimental Biology. Vol. 8. UNIV CAMBRIDGE DEPT ZOOLOGY, DOWNING ST, CAMBRIDGE CB2 3EJ, CAMBS, ENGLAND: COMPANY BIOLOGISTS LTD, 1954. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[60] L. Robert and J. Polonovski, Discs. Faraday Soc., 20, 54 (1955). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[61] Ibid. No 21, p. 317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[62] A. B. Schultz, Proc. Soc. Exp. Biol. Med., 116, 653 (1964). </t>
   </si>
   <si>
     <r>
@@ -710,9 +671,6 @@
     <t xml:space="preserve">[36] Sullivan, J. (1981). Iron and the sex difference in heart disease risk. The Lancet, 317(8233), 1293-1294. </t>
   </si>
   <si>
-    <t xml:space="preserve">[37] Salonen JT, Nyyssönen K, Korpela H, Tuomilehto J, Seppänen R, Salonen R. High stored iron levels are associated with excess risk of myocardial infarction in eastern Finnish men. Circulation. 1992 Sep;86(3):803-11. doi: 10.1161/01.cir.86.3.803. PMID: 1516192. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[38] Ascherio, Alberto, et al. "Dietary iron intake and risk of coronary disease among men." Circulation 89.3 (1994): 969-974. </t>
   </si>
   <si>
@@ -784,14 +742,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[48] Piergiacomi VA, Palacios A, Catalá A. Comparative studies on lipid peroxidation of microsomes and mitochondria obtained from different rat tissues: effect of retinyl palmitate. Prostaglandins Leukot Essent Fatty Acids. 2001 Feb;64(2):75-80. doi: 10.1054/plef.2001.0244. PMID: 11237473. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[52] Bunatian AF, Levin IaI, Meshcheriakova SA, Gitel' EP, Bol'shakova TD. Osobennosti funktsionirovaniia gipofizarno-gonadnoĭ sistemy cheloveka v usloviiakh odnokratnoĭ deprivatsii sna [Characteristics of the functioning of the human hypophyseal-gonadal system during 1-time sleep deprivation]. Probl Endokrinol (Mosk). 1986 Sep-Oct;32(5):45-8. Russian. PMID: 3786303. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[56] Sirotkin AV. Direct influence of melatonin on steroid, nonapeptide hormones, and cyclic nucleotide secretion by granulosa cells isolated from porcine ovaries. J Pineal Res. 1994 Oct;17(3):112-7. doi: 10.1111/j.1600-079x.1994.tb00121.x. PMID: 7897582.
-</t>
   </si>
   <si>
     <t xml:space="preserve">[58] Srinivasan BD, Kulkarni PS. Inhibitors of the arachidonic acid cascade in the management of ocular inflammation. Prog Clin Biol Res. 1989;312:229-49. PMID: 2508126.
@@ -828,9 +779,6 @@
     <t xml:space="preserve">[03] Carrizo PH, Dubin M, Stoppani AO. Efectos fisiopatológicos del óxido nítrico y su relación con el estrés oxidativo [Physiopathologic effects of nitric oxide and their relationship with oxidative stress]. Medicina (B Aires). 1998;58(4):367-73. Spanish. PMID: 9816698.</t>
   </si>
   <si>
-    <t xml:space="preserve">[05] Deyl Z, Juricová M, Stuchlíková E. The effect of nutritional regimes upon collagen concentration and survival of rats. Adv Exp Med Biol. 1975;53:359-69. doi: 10.1007/978-1-4757-0731-1_31. PMID: 1119345.</t>
-  </si>
-  <si>
     <t xml:space="preserve">[06] Dickey RP, Hower JF. Relationship of estradiol and progesterone levels to uterine blood flow during early pregnancy. Early Pregnancy. 1996 Jun;2(2):113-20. PMID: 9363208.
 </t>
   </si>
@@ -897,9 +845,6 @@
     <t xml:space="preserve">[24] Chen CH, Chen AC, Liu HJ. Involvement of nitric oxide and N-methyl-D-aspartate in acute hypoxic altitude convulsion in mice. Aviat Space Environ Med. 1997 Apr;68(4):296-9. PMID: 9096824. </t>
   </si>
   <si>
-    <t xml:space="preserve">[26] Bhardwaj A, Northington FJ, Koehler RC, Stiefel T, Hanley DF, Traystman RJ. Adenosine modulates N-methyl-D-aspartate-stimulated hippocampal nitric oxide production in vivo. Stroke. 1995 Sep;26(9):1627-33. doi: 10.1161/01.str.26.9.1627. PMID: 7544925. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[30] Franken NA, Hollaar L, Bosker FJ, van Ravels FJ, van der Laarse A, Wondergem J. Effects of in vivo heart irradiation on myocardial energy metabolism in rats. Radiat Res. 1993 Apr;134(1):79-85. PMID: 8475257. </t>
   </si>
   <si>
@@ -944,10 +889,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[09] Casper D, Lekhraj R, Yaparpalvi US, Pidel A, Jaggernauth WA, Werner P, Tribius S, Rowe JD, LaSala PA. Acetaminophen selectively reduces glioma cell growth and increases radiosensitivity in culture. J Neurooncol. 2000;46(3):215-29. doi: 10.1023/a:1006492423666. PMID: 10902853.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[12] Cotlier E. Senile cataracts: evidence for acceleration by diabetes and deceleration by salicylate. Can J Ophthalmol. 1981 Jul;16(3):113-8. PMID: 7296356. </t>
   </si>
   <si>
@@ -1090,9 +1031,6 @@
     <t xml:space="preserve">[28] Rickles FR, Hair GA, Zeff RA, Lee E, Bona RD. Tissue factor expression in human leukocytes and tumor cells. Thromb Haemost. 1995 Jul;74(1):391-5. PMID: 8578492. </t>
   </si>
   <si>
-    <t xml:space="preserve">[29] Selye H. A syndrome produced by diverse nocuous agents. 1936. J Neuropsychiatry Clin Neurosci. 1998 Spring;10(2):230-1. doi: 10.1176/jnp.10.2.230a. PMID: 9722327. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[32] Tersenov OA, Mikhaleva IV, Usol'tseva VA, Byshevskiĭ ASh. O svertyvaiushcheĭ aktivnosti okoloplodnykh vod [Coagulative activity of the amniotic fluid]. Akush Ginekol (Mosk). 1989 Jan;(1):43-6. Russian. PMID: 2712221.</t>
   </si>
   <si>
@@ -1294,9 +1232,6 @@
     <t xml:space="preserve">[35-A] Balabolkin MI, Karlov VA, Vlasov PN. Rol' zhenskikh polovykh gormonov v patogeneze katamenial'nykh épilepticheskikh pripadkov [The role of the female sex hormones in the pathogenesis of catamenial epileptic seizures]. Ter Arkh. 1994;66(4):68-71. Russian. PMID: 8016736. </t>
   </si>
   <si>
-    <t xml:space="preserve">[35-B] Guerreiro CA. Período ovulatório e crises epilépticas [Ovulatory period and epileptic crisis]. Arq Neuropsiquiatr. 1991 Jun;49(2):198-203. Portuguese. doi: 10.1590/s0004-282x1991000200014. PMID: 1810239. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[44] Iron-binding capacity, total, serum decrease. F. Mora, et al.</t>
   </si>
   <si>
@@ -1333,9 +1268,6 @@
     <t xml:space="preserve">[09] Murrillo-Uribe A, Delezé-Hinojosa M, Aguirre E, Villa A, Calva J, Cons F, Briseño A, González G, Morales J, Peña H, Guerrero G, Orozco J, Morales G, Elizondo J. Osteoporosis en la mujer postmenopáusica mexicana. Magnitud del problema. Estudio multicéntrico [Osteoporosis in Mexican postmenopausal women. Magnitude of the problem. Multicenter study]. Ginecol Obstet Mex. 1999 May;67:227-33. Spanish. PMID: 10363426. </t>
   </si>
   <si>
-    <t xml:space="preserve">[12] Robert R, Spitzer JA. Effects of female hormones (17beta-estradiol and progesterone) on nitric oxide production by alveolar macrophages in rats. Nitric Oxide. 1997;1(6):453-62. doi: 10.1006/niox.1997.0157. PMID: 9466950. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[20] Kassem M, Okazaki R, De León D, Harris SA, Robinson JA, Spelsberg TC, Conover CA, Riggs BL. Potential mechanism of estrogen-mediated decrease in bone formation: estrogen increases production of inhibitory insulin-like growth factor-binding protein-4. Proc Assoc Am Physicians. 1996 Mar;108(2):155-64. PMID: 8705735. </t>
   </si>
   <si>
@@ -1411,18 +1343,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[02] Ozsoylu S. Lipid peroxidation in iron deficiency anemia. Acta Haematol. 1994;91(3):170. doi: 10.1159/000204327. PMID: 8091940. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[06] Chiao JJ, Kirschner RE, Fantini GA. Iron delocalization occurs during ischemia and persists on reoxygenation of skeletal muscle. J Lab Clin Med. 1994 Sep;124(3):432-8. PMID: 8083587.</t>
   </si>
   <si>
     <t xml:space="preserve">[07] Choi JH, Kim DW, Yu B. Modulation of age-related alterations of iron, ferritin, and lipid peroxidation in rat brain synaptosomes. J Nutr Health Aging. 1998;2(3):133-7. PMID: 10995054. </t>
   </si>
   <si>
-    <t xml:space="preserve">[21] Savoiardo M, Girotti F, Strada L, Ciceri E. Magnetic resonance imaging in progressive supranuclear palsy and other parkinsonian disorders. J Neural Transm Suppl. 1994;42:93-110. doi: 10.1007/978-3-7091-6641-3_8. PMID: 7964700. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[22] Strain JJ. Putative role of dietary trace elements in coronary heart disease and cancer. Br J Biomed Sci. 1994 Sep;51(3):241-51. PMID: 7881323. </t>
   </si>
   <si>
@@ -1438,9 +1364,6 @@
     <t xml:space="preserve">[28] Sullivan, J. (1981). Iron and the sex difference in heart disease risk. The Lancet, 317(8233), 1293-1294. </t>
   </si>
   <si>
-    <t xml:space="preserve">[29] Salonen JT, Nyyssönen K, Korpela H, Tuomilehto J, Seppänen R, Salonen R. High stored iron levels are associated with excess risk of myocardial infarction in eastern Finnish men. Circulation. 1992 Sep;86(3):803-11. doi: 10.1161/01.cir.86.3.803. PMID: 1516192. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[30] Stevens, Richard G., et al. "Body iron stores and the risk of cancer." New England Journal of Medicine 319.16 (1988): 1047-1052. </t>
   </si>
   <si>
@@ -1468,9 +1391,6 @@
     <t xml:space="preserve">[01] L. C. Strong, Biological Aspects of Cancer and Aging, Pergamon Press, 1968. </t>
   </si>
   <si>
-    <t xml:space="preserve">[03] Wilson PW, Garrison RJ, Castelli WP. Postmenopausal estrogen use, cigarette smoking, and cardiovascular morbidity in women over 50. The Framingham Study. N Engl J Med. 1985 Oct 24;313(17):1038-43. doi: 10.1056/NEJM198510243131702. PMID: 2995808. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[04] P. M. Wise, "Influence of estrogen on aging of the central nervous system: Its role in declining female reproductive function," in Menopause: Evaluation, Treatment, and Health Concerns, pages 53-70, 1989. </t>
   </si>
   <si>
@@ -1517,9 +1437,6 @@
   </si>
   <si>
     <t xml:space="preserve">[47] Lankin, V. Z., and E. A. Neifakh, Izv. Akad. Nauk SSR, Ser. Biol. 2, 263. : Izv Akad Nauk SSSR Biol 1968 Mar-Apr;2:263-8 [Higher fatty acids in the process of malignant growth].[Article in Russian] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[48] Slater TF. Lipid peroxidation. Biochem Soc Trans. 1982 Apr;10(2):70-1. doi: 10.1042/bst0100070. PMID: 6802689. </t>
   </si>
   <si>
     <t xml:space="preserve">[49-B] , "Le fonction immunologique et le cancer," Ann. Biol. XVI95-6), 271-6, 1977 </t>
@@ -1601,9 +1518,6 @@
     <t xml:space="preserve">[30-A] J. P. Bonjour and R. Rizzoli, "Inadequate protein intake and osteoporosis: Possible involvement of the IGF system,:" Nutritional Aspects of Osteoporosis '84, Challenges of Mod. Med. 7, 399-406, 1995. </t>
   </si>
   <si>
-    <t xml:space="preserve">[33-A] Sauer GR, Genge BR, Wu LN, Donachy JE. A facilitative role for carbonic anhydrase activity in matrix vesicle mineralization. Bone Miner. 1994 Jul;26(1):69-79. doi: 10.1016/s0169-6009(08)80163-8. PMID: 7950506. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[33-B] Reichart E, Claudon F, Sablière S. Le stockage carbonique dans divers organes au cours de l'hypercapnie chronique expérimentale [CO2 storage in various organs during chronic experimental hypercapnia (author's transl)]. Bull Eur Physiopathol Respir. 1976 Jan-Feb;12(1):19-32. French. PMID: 1016773. </t>
   </si>
   <si>
@@ -1613,9 +1527,6 @@
     <t xml:space="preserve">[35] Schaefer KE, Carey CR, Dougherty JH Jr, Morgan C, Messier AA. Effect of intermittent exposure to 3% CO2 on respiration, acid-base balance, and calcium-phosphorus metabolism. Undersea Biomed Res. 1979;6 Suppl:S115-34. PMID: 505620. </t>
   </si>
   <si>
-    <t xml:space="preserve">[37] Rasmussen UF, Rasmussen HN, Andersen AJ, Fogd Jørgensen P, Quistorff B. Characterization of mitochondria from pig muscle: higher activity of exo-NADH oxidase in animals suffering from malignant hyperthermia. Biochem J. 1996 Apr 15;315 ( Pt 2)(Pt 2):659-63. doi: 10.1042/bj3150659. PMID: 8615844; PMCID: PMC1217247. </t>
-  </si>
-  <si>
     <t xml:space="preserve">2006 The problem of Alzheimer's disease as a clue to immortality</t>
   </si>
   <si>
@@ -1640,59 +1551,22 @@
     <t xml:space="preserve">[12] Ye. Sadovskiy, "For the prolongation of human life," Sovetskaya Belorussiya 23, page 4, Dec. 1970. "...the accumulation of </t>
   </si>
   <si>
-    <t xml:space="preserve">[29-B] Nogues R, Sitges-Serra A, Sancho JJ, Sanz F, Monne J, Girvent M, Gubern JM. Influence of nutrition, thyroid hormones, and rectal temperature on in-hospital mortality of elderly patients with acute illness. Am J Clin Nutr. 1995 Mar;61(3):597-602. doi: 10.1093/ajcn/61.3.597. Erratum in: Am J Clin Nutr 1995 Sep;62(3):649. PMID: 7872226. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[30] Vannucci RC, Towfighi J, Heitjan DF, Brucklacher RM. Carbon dioxide protects the perinatal brain from hypoxic-ischemic damage: an experimental study in the immature rat. Pediatrics. 1995 Jun;95(6):868-74. PMID: 7761212. </t>
   </si>
   <si>
-    <t xml:space="preserve">[34-B] Frye CA, Sturgis JD. Neurosteroids affect spatial/reference, working, and long-term memory of female rats. Neurobiol Learn Mem. 1995 Jul;64(1):83-96. doi: 10.1006/nlme.1995.1046. PMID: 7582815. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[41-B] Sirotkin AV. Direct influence of melatonin on steroid, nonapeptide hormones, and cyclic nucleotide secretion by granulosa cells isolated from porcine ovaries. J Pineal Res. 1994 Oct;17(3):112-7. doi: 10.1111/j.1600-079x.1994.tb00121.x. PMID: 7897582. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[41-C] Sapolsky RM. Glucocorticoid toxicity in the hippocampus: reversal by supplementation with brain fuels. J Neurosci. 1986 Aug;6(8):2240-4. doi: 10.1523/JNEUROSCI.06-08-02240.1986. PMID: 3746406; PMCID: PMC6568753. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[41-D] Sapolsky RM. Glucocorticoids, hippocampal damage and the glutamatergic synapse. Prog Brain Res. 1990;86:13-23. doi: 10.1016/s0079-6123(08)63163-5. PMID: 1982366. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[41-E] Schwartz, Michal, et al. "GROWTH-ASSOCIATED TRIGGERING FACTORS AND CENTRAL-NERVOUS-SYSTEM REGENERATION." Trophic Factors And The Nervous System 3 (1990): 47-56. </t>
   </si>
   <si>
-    <t xml:space="preserve">[41-F] Ordway RW, Singer JJ, Walsh JV Jr. Direct regulation of ion channels by fatty acids. Trends Neurosci. 1991 Mar;14(3):96-100. doi: 10.1016/0166-2236(91)90069-7. PMID: 1709540. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[43-A] Autore G, Cicala C, Cirino G, Maiello FM, Mascolo N, Capasso F. Essential fatty acid-deficient diet modifies PAF levels in stomach and duodenum of endotoxin-treated rats. J Lipid Mediat Cell Signal. 1994 Mar;9(2):145-53. PMID: 8012761. </t>
   </si>
   <si>
-    <t xml:space="preserve">[43-B] Rafael J, Patzelt J, Schäfer H, Elmadfa I. The effect of essential fatty acid deficiency on basal respiration and function of liver mitochondria in rats. J Nutr. 1984 Feb;114(2):255-62. doi: 10.1093/jn/114.2.255. PMID: 6693988. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[44-B] Nagy, Imre Zs. "Semiconduction of proteins as an attribute of the living state: the ideas of Albert Szent-Györgyi revisited in light of the recent knowledge regarding oxygen free radicals." Experimental gerontology 30.3-4 (1995): 327-335. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[57] ASCHHEIM, PIERRE. "Aging in the hypothalamichypophyseal ovarian axis in the rat." Hypothalamus, pituitary and aging (1976): 376-418. </t>
   </si>
   <si>
-    <t xml:space="preserve">[62] Williams DL, Wong JS, Wissig SL, Hamilton RL. Cell surface "blanket" of apolipoprotein E on rat adrenocortical cells. J Lipid Res. 1995 Apr;36(4):745-58. PMID: 7616121. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[64] Robel P, Young J, Corpéchot C, Mayo W, Perché F, Haug M, Simon H, Baulieu EE. Biosynthesis and assay of neurosteroids in rats and mice: functional correlates. J Steroid Biochem Mol Biol. 1995 Jun;53(1-6):355-60. doi: 10.1016/0960-0760(95)00074-a. PMID: 7626480. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[65] Pasqualini JR, Maloche C, Maroni M, Chetrite G. Effect of the progestagen Promegestone (R-5020) on mRNA of the oestrone sulphatase in the MCF-7 human mammary cancer cells. Anticancer Res. 1994 Jul-Aug;14(4A):1589-93. PMID: 7979190. </t>
   </si>
   <si>
     <t xml:space="preserve">[66] Trooster, W. J., et al. "Treatment of acute experimental allergic encephalomyelitis in the lewis rat with the sex-hormone progesterone." International journal of immunopathology and pharmacology 7.3 (1994): 183-192. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[83] Pasquini JM, Adamo AM. Thyroid hormones and the central nervous system. Dev Neurosci. 1994;16(1-2):1-8. doi: 10.1159/000112080. PMID: 7867512.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[84] Martínez M, Hernanz A, Ferrándiz ML, De Juan E, Sevila I, Martínez N, Miquel J. Glucose deprivation increases aspartic acid release from synaptosomes of aged mice. Brain Res. 1995 Feb 27;673(1):149-52. doi: 10.1016/0006-8993(94)01423-f. PMID: 7757468. </t>
   </si>
   <si>
     <t xml:space="preserve">[93] Norris LA, Bonnar J. Effect of oestrogen dose on whole blood platelet activation in women taking new low dose oral contraceptives. Thromb Haemost. 1994 Dec;72(6):926-30. PMID: 7740465.
@@ -1705,50 +1579,10 @@
     <t xml:space="preserve">[97] . K. Clinton, et al., "The combined effects of dietary fat and estrogen on survival, 7,12-dimethyl- benz(a)-anthracene induced breast cancer and prolactin metabolism in rats," J. Nutr. 125(5), 1192-1204, 1995. </t>
   </si>
   <si>
-    <t xml:space="preserve">[104] Chan PH, Fishman RA. Brain edema: induction in cortical slices by polyunsaturated fatty acids. Science. 1978 Jul 28;201(4353):358-60. doi: 10.1126/science.663662. PMID: 663662. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[116] Court, Jennifer A., and Elaine K. Perry. "CNS Nicotinic Receptors: Possible Therapeutic Targets in Neurodegenerative Disorders." CNS Drugs 2.3 (1994): 216-233.</t>
   </si>
   <si>
     <t xml:space="preserve">[126] Loeb, Leo, V. Suntzeff, and E. L. Burns. "Changes in the nature of the stroma in vagina, cervix and uterus of the mouse produced by long-continued injections of estrogen and by advancing age." The American Journal of Cancer 35.2 (1939): 159-174. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[127] Loeb L, Suntzeff V, Burns EL. THE EFFECTS OF AGE AND ESTROGEN ON THE STROMA OF VAGINA, CERVIX AND UTERUS IN THE MOUSE. Science. 1938 Nov 4;88(2288):432-3. doi: 10.1126/science.88.2288.432. PMID: 17752344.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[128] Rossmanith WG. Gonadotropin secretion during aging in women: review article. Exp Gerontol. 1995 May-Aug;30(3-4):369-81. doi: 10.1016/0531-5565(94)00030-7. PMID: 7556515. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[129] Brawer JR, Schipper H, Naftolin F. Ovary-dependent degeneration in the hypothalamic arcuate nucleus. Endocrinology. 1980 Jul;107(1):274-9. doi: 10.1210/endo-107-1-274. PMID: 7189710. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[130] Desjardins GC, Beaudet A, Meaney MJ, Brawer JR. Estrogen-induced hypothalamic beta-endorphin neuron loss: a possible model of hypothalamic aging. Exp Gerontol. 1995 May-Aug;30(3-4):253-67. doi: 10.1016/0531-5565(94)00040-a. PMID: 7556506. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[131] Melis GB, Paoletti AM, Gambacciani M, Mais V, Fioretti P. Evidence that estrogens inhibit LH secretion through opioids in postmenopausal women using naloxone. Neuroendocrinology. 1984 Jul;39(1):60-3. doi: 10.1159/000123956. PMID: 6087184. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[132] Sipe HJ Jr, Jordan SJ, Hanna PM, Mason RP. The metabolism of 17 beta-estradiol by lactoperoxidase: a possible source of oxidative stress in breast cancer. Carcinogenesis. 1994 Nov;15(11):2637-43. doi: 10.1093/carcin/15.11.2637. PMID: 7955118. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[133] Santagati S, Melcangi RC, Celotti F, Martini L, Maggi A. Estrogen receptor is expressed in different types of glial cells in culture. J Neurochem. 1994 Dec;63(6):2058-64. doi: 10.1046/j.1471-4159.1994.63062058.x. PMID: 7964723. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[134] Liu D, Li L. Prostaglandin F2 alpha rises in response to hydroxyl radical generated in vivo. Free Radic Biol Med. 1995 Mar;18(3):571-6. doi: 10.1016/0891-5849(94)00154-c. PMID: 9101249. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[135] Owens J Jr, Schwartzkroin PA. Suppression of evoked IPSPs by arachidonic acid and prostaglandin F2 alpha. Brain Res. 1995 Sep 11;691(1-2):223-8. doi: 10.1016/0006-8993(95)00405-f. PMID: 8590057. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[136] Quail EA, Yeoh GC. The effect of iron status on glyceraldehyde 3-phosphate dehydrogenase expression in rat liver. FEBS Lett. 1995 Feb 13;359(2-3):126-8. doi: 10.1016/0014-5793(95)00023-3. PMID: 7867783. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[137] Liehr JG, Ricci MJ, Jefcoate CR, Hannigan EV, Hokanson JA, Zhu BT. 4-Hydroxylation of estradiol by human uterine myometrium and myoma microsomes: implications for the mechanism of uterine tumorigenesis. Proc Natl Acad Sci U S A. 1995 Sep 26;92(20):9220-4. doi: 10.1073/pnas.92.20.9220. PMID: 7568105; PMCID: PMC40956. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[138] Liehr JG, Roy D. Free radical generation by redox cycling of estrogens. Free Radic Biol Med. 1990;8(4):415-23. doi: 10.1016/0891-5849(90)90108-u. PMID: 2199344. </t>
   </si>
   <si>
     <t xml:space="preserve">[139] Fourrier, Francois, et al. "Sex steroid hormones in circulatory shock, sepsis syndrome, and septic shock." Circulatory shock 43.4 (1994): 171-178. </t>
@@ -1807,10 +1641,6 @@
     <t xml:space="preserve">[29] Tsubota K, Laing RA, Kenyon KR. Noninvasive measurements of pyridine nucleotide and flavoprotein in the lens. Invest Ophthalmol Vis Sci. 1987 May;28(5):785-9. PMID: 3570689. </t>
   </si>
   <si>
-    <t xml:space="preserve">[30] Laursen AB. Concentrations of some ribonucleotides, L-lactate, and pyruvate in human senile cataractous lenses with special reference to anterior capsular/subcapsular opacity. Acta Ophthalmol (Copenh). 1976 Dec;54(6):677-92. doi: 10.1111/j.1755-3768.1976.tb01787.x. PMID: 990018.
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -1856,9 +1686,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[11] Chaouloff F. Effects of acute physical exercise on central serotonergic systems. Med Sci Sports Exerc. 1997 Jan;29(1):58-62. doi: 10.1097/00005768-199701000-00009. PMID: 9000156. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[15] File SE, Fluck E, Fernandes C. Beneficial effects of glycine (bioglycin) on memory and attention in young and middle-aged adults. J Clin Psychopharmacol. 1999 Dec;19(6):506-12. doi: 10.1097/00004714-199912000-00004. PMID: 10587285. </t>
   </si>
   <si>
@@ -1974,9 +1801,6 @@
   </si>
   <si>
     <t xml:space="preserve">[11] JL, Lepe Zúñiga. "Jaundice caused by microangiopathic hemolysis associated to septicemia in the newborn." Boletín Médico del Hospital Infantil de México 37.3 (1980): 457-467. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[14] Hughes PE, Tove SB. Occurrence of alpha-tocopherolquinone and alpha-tocopherolquinol in microorganisms. J Bacteriol. 1982 Sep;151(3):1397-402. doi: 10.1128/jb.151.3.1397-1402.1982. PMID: 6809730; PMCID: PMC220420. </t>
   </si>
   <si>
     <t xml:space="preserve">[26] Parkhomets, V. P., S. B. Silonov, and H. V. Donchenko. "Effect of alpha-tocopherol, tocopheryl quinone and other complexes with tocopherol-binding proteins on the activity of enzymes metabolizing arachidonic acid." Ukrains' kyi Biokhimichnyi Zhurnal (1999) 73.1 (2001): 43-47. </t>
@@ -2124,9 +1948,6 @@
     <t xml:space="preserve">[15] "Plasma volume 'a clue' to hypertension risks," Obstet. Gynecol. Observer, August/September, 1975. </t>
   </si>
   <si>
-    <t xml:space="preserve">[18] Müller C, Obhof W, Druschky KF, Ulmer HU. Reversible bilaterale Veränderungen im zerebralen Kernspintomogramm bei Eklampsie [Reversible bilateral changes in cerebral proton-spin tomography in eclampsia]. Dtsch Med Wochenschr. 1996 Sep 27;121(39):1184-8. German. doi: 10.1055/s-2008-1043124. PMID: 8925743. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[19] Uzan S, Merviel P, Beaufils M, Bréart G, Salat-Baroux J. Aspirine pendant la grossesse indications et modalités de prescription après la publication des derniers essais [Aspirin during pregnancy. Indications and modalities of prescription after the publication of the later trials]. Presse Med. 1996 Jan 6-13;25(1):31-6. French. PMID: 8728890. </t>
   </si>
   <si>
@@ -2230,9 +2051,6 @@
   </si>
   <si>
     <t xml:space="preserve">[32] Laborit H, Lamothe C, Thuret F. Action inhibitrice sur la respiration des coupes de tissus du rat (cerveau, foie) d'atmosphères oxygénées sans CO2. Implications physico-pathologiques [The inhibiting effect of atmospheres oxygenated without CO2 on the respiration of rat tissue slices (brain, liver). Physiopathological implications]. Agressologie. 1971;12(2):105-12. French. PMID: 5166324. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[41] Leo JC, Wang SM, Guo CH, Aw SE, Zhao Y, Li JM, Hui KM, Lin VC. Gene regulation profile reveals consistent anticancer properties of progesterone in hormone-independent breast cancer cells transfected with progesterone receptor. Int J Cancer. 2005 Nov 20;117(4):561-8. doi: 10.1002/ijc.21186. PMID: 15945099. </t>
   </si>
   <si>
     <t xml:space="preserve">[68] Sturtevant FM. Breast cancer and oral contraceptives: critique of the proposition that high potency progestogen products confer excess risk. Biomed Pharmacother. 1984;38(8):371-9. PMID: 6525434. </t>
@@ -2311,15 +2129,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[14] El Etreby MF, Liang Y, Lewis RW. Induction of apoptosis by mifepristone and tamoxifen in human LNCaP prostate cancer cells in culture. Prostate. 2000 Apr 1;43(1):31-42. doi: 10.1002/(sici)1097-0045(20000401)43:1&lt;31::aid-pros5&gt;3.0.co;2-#. PMID: 10725863. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[16] Formby B, Wiley TS. Progesterone inhibits growth and induces apoptosis in breast cancer cells: inverse effects on Bcl-2 and p53. Ann Clin Lab Sci. 1998 Nov-Dec;28(6):360-9. PMID: 9846203. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[27] JOLLES B. Progesterone in the treatment of advanced malignant tumours of breast, ovary and uterus. Br J Cancer. 1962 Jun;16(2):209-21. doi: 10.1038/bjc.1962.24. PMID: 14452177; PMCID: PMC2070932. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[28] Kalinina EV, Novichkova MD, Shcherbak NP, Saprin AN. Ingibiruiushchee deĭstvie progesterona na glutation-s-transferazy P1-1 i ego antiproliferativnyĭ èffekt na kletki linii K562 èritroleĭkemii cheloveka [Inhibitory effect of progesterone P1-1 on glutathione-s-transferase and its antiproliferative effect on human erythroleukemia K562 cells]. Vopr Onkol. 2000;46(1):68-73. Russian. PMID: 10789228. </t>
   </si>
   <si>
@@ -2356,18 +2165,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[08] Asano Y. Increased cell membrane permeability to Na+ and K+ induced by thyroid hormone in rat skeletal muscle. Experientia Suppl. 1978;32:199-203. doi: 10.1007/978-3-0348-5559-4_22. PMID: 148368. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[13] Bryant KR, Rothwell NJ, Stock MJ. Influence of sodium intake on thermogenesis and brown adipose tissue in the rat. Int J Obes. 1984;8(3):221-31. PMID: 6086543. </t>
   </si>
   <si>
     <t xml:space="preserve">[14] Cara DC, Malucelli BE. Effect of hyperosmotic sodium chloride solution on vascular permeability and inflammatory edema in rats. Braz J Med Biol Res. 1988;21(2):281-3. PMID: 3144402. </t>
   </si>
   <si>
-    <t xml:space="preserve">[15] Chinet A, Friedli C, Seydoux J, Girardier L. Does cytoplasmic alkalinization trigger mitochondrial energy dissipation in the brown adipocyte? Experientia Suppl. 1978;32:25-32. doi: 10.1007/978-3-0348-5559-4_2. PMID: 25782. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[27] Girardier L, Seydoux J. Tissu adipeux brun, pompe à sodium et thermogénèse [Brown fat, sodium pump and thermogenesis]. J Physiol (Paris). 1972 Oct;65:Suppl:234A. French. PMID: 4649916. </t>
   </si>
   <si>
@@ -2383,7 +2186,7 @@
     <t xml:space="preserve">[49] Luypaert P, Vincent JL, Domb M, Van der Linden P, Blecic S, Azimi G, Bernard A. Fluid resuscitation with hypertonic saline in endotoxic shock. Circ Shock. 1986;20(4):311-20. PMID: 3791579. </t>
   </si>
   <si>
-    <t xml:space="preserve">[54] Matsuoka T, Wisner DH. Resuscitation of uncontrolled liver hemorrhage: effects on bleeding, oxygen delivery, and oxygen consumption. J Trauma. 1996 Sep;41(3):439-45. doi: 10.1097/00005373-199609000-00009. PMID: 8810960. </t>
+    <t xml:space="preserve">[54] Matsuoka T, Wisner DH. Resuscitation of uncontrolled liver hemorrhage: effects on bleeding, oxygen delivery, and oxygen consumption. J Trauma. 1996 Sep;41(3):439-45. Doi: 10.1097/00005373-199609000-00009. PMID: 8810960. </t>
   </si>
   <si>
     <t xml:space="preserve">[68] Podvigina TT. Vliianie kortikosteroidnykh gormonov na potrevlenie kisloroda mitokhondriiami i gomogenatami kory i gippokampa krys [Corticosteroid hormone effect on oxygen consumption of rat brain and hippocampus mitochondria and homogenates]. Ukr Biokhim Zh (1978). 1980 Jan-Feb;52(1):36-9. Russian. PMID: 7376273. </t>
@@ -2476,58 +2279,13 @@
     <t xml:space="preserve">[10] Bursten SL, Federighi DA, Parsons P, Harris WE, Abraham E, Moore EE Jr, Moore FA, Bianco JA, Singer JW, Repine JE. An increase in serum C18 unsaturated free fatty acids as a predictor of the development of acute respiratory distress syndrome. Crit Care Med. 1996 Jul;24(7):1129-36. doi: 10.1097/00003246-199607000-00011. PMID: 8674324. </t>
   </si>
   <si>
-    <t xml:space="preserve">[17] Higazi AA, Aziza R, Samara AA, Mayer M. Regulation of fibrinolysis by non-esterified fatty acids. Biochem J. 1994 May 15;300 ( Pt 1)(Pt 1):251-5. doi: 10.1042/bj3000251. PMID: 8198542; PMCID: PMC1138149. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[29] Mascolo N, Izzo AA, Autore G, Maiello FM, Di Carlo G, Capasso F. Acetic acid-induced colitis in normal and essential fatty acid deficient rats. J Pharmacol Exp Ther. 1995 Jan;272(1):469-75. PMID: 7815363. </t>
   </si>
   <si>
     <t xml:space="preserve">[41] Steerenberg PA, Beekhof PK, Feskens EJ, Lips CJ, Höppener JW, Beems RB. Long-term effect of fish oil diet on basal and stimulated plasma glucose and insulin levels in ob/ob mice. Diabetes Nutr Metab. 2002 Aug;15(4):205-14. PMID: 12416657. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2007 TSH, temperature, pulse rate, and other indicators in hypothyroidism</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[31] Klein A, Bruser B, Robinson JB, Pinkerton PH, Malkin A. Effect of a non-viral fraction of acquired immunodeficiency syndrome plasma on the vulnerability of lymphocytes to cortisol. J Endocrinol. 1987 Feb;112(2):259-64. doi: 10.1677/joe.0.1120259. PMID: 3493318. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2007 The Great Fish Oil Experiment</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">2007 TSH, Temperature, pulse rate, and other indicators</t>
   </si>
   <si>
     <t xml:space="preserve">[02] Boeskor A, Gabbiani G. Der Einfluss der Hypophysektomie und der Hormone der Hypophyse auf das Dextranödem der Ratte [Influence of hypophysectomy and pituitary hormones on dextran edema in rats]. Endokrinologie. 1968;53(3):217-21. German. PMID: 4305991. </t>
@@ -2539,9 +2297,6 @@
     <t xml:space="preserve">[13] Latinville D, Bernardi O, Cougoule JP, Bioulac B, Henry P, Loiseau P, Mauriac L. Thyroïdite d'Hashimoto et encéphalopathie myoclonique. Hypothèses pathogéniques [Hashimoto's thyroiditis and myoclonic encephalopathy. Pathogenic hypothesis]. Rev Neurol (Paris). 1985;141(1):55-8. French. PMID: 3920744. </t>
   </si>
   <si>
-    <t xml:space="preserve">[15] McCann SM, Rettori V, Milenkovic L, Jurcovicová J, González MC. Role of monokines in control of anterior pituitary hormone release. Adv Exp Med Biol. 1990;274:315-29. doi: 10.1007/978-1-4684-5799-5_20. PMID: 2239430. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[19] Mizia-Stec K, Zych F, Widala E. Mastopatia a wole obojetne--wzajemne powiazania [Mastopathy and simple goiter--mutual relationships]. Przegl Lek. 1998;55(5):250-8. Polish. PMID: 9741192. </t>
   </si>
   <si>
@@ -2572,9 +2327,6 @@
     <t xml:space="preserve">[08] Cone CD Jr. Autosynchrony and self-induced mitosis in sarcoma cell networks. Acta Cytol. 1969 Oct;13(10):576-82. PMID: 5260008. </t>
   </si>
   <si>
-    <t xml:space="preserve">[16] Cutolo M, Masi AT. Circadian rhythms and arthritis. Rheum Dis Clin North Am. 2005 Feb;31(1):115-29, ix-x. doi: 10.1016/j.rdc.2004.09.005. PMID: 15639059. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[16] Kryukov V.I. An attention model based on the principle of dominanta // Proceedings in Nonlinear Science. Neurocomputers and Attention. I: Neurobiology, Synchronization, and Chaos. 1989. Ed. by A.Y. Holden and V.I. Kryukov, pp. 319-351 </t>
   </si>
   <si>
@@ -3178,9 +2930,6 @@
     <t xml:space="preserve">[02] Semenov VL. Vliianie mediatorov vospaleniia na dykhanie mitokhondriĭ pecheni krys [Effect of inflammatory mediators on respiration in rat liver mitochondria]. Ukr Biokhim Zh (1978). 1990 Nov-Dec;62(6):93-7. Russian. PMID: 2087796. </t>
   </si>
   <si>
-    <t xml:space="preserve">[03] Medvedev AE. Reguliatsiia biogennymi aminami énergeticheskikh funktsiĭ mitokhondriĭ [Regulation by biogenic amines of energy functions of mitochondria]. Vopr Med Khim. 1990 Sep-Oct;36(5):18-21. Russian. PMID: 2174585. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[04] Medvedev AE, Gorkin VZ. Rol' monoaminoksidaz v reguliatsii énergeticheskikh funktsiĭ mitokhondriĭ [The role of monoamine oxidase in the regulation of mitochondrial energy functions]. Vopr Med Khim. 1991 Sep-Oct;37(5):2-6. Russian. PMID: 1759390. </t>
   </si>
   <si>
@@ -3560,9 +3309,6 @@
   </si>
   <si>
     <t xml:space="preserve">[18] Kogan AKh, Grachev SV, Eliseeva SV, Bolevich S. Uglekislyĭ gaz--universal'nyĭ ingibitor generatsii aktivnykh form kisloroda kletkami (k rasshifrovke odnoĭ zagadki évoliutsii) [Carbon dioxide--a universal inhibitor of the generation of active oxygen forms by cells (deciphering one enigma of evolution)]. Izv Akad Nauk Ser Biol. 1997 Mar-Apr;(2):204-17. Russian. PMID: 9190222. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[19] Kogan AKh, Grachev SV, Eliseeva SV, Bolevich S. Svoĭstvo uglekislogo gaza ingibirovat' generatsiiu superoksidnogo anion-radikala kletkami i ego biomeditsinskoe znachenie [Ability of carbon dioxide to inhibit generation of superoxide anion radical in cells and its biomedical role]. Vopr Med Khim. 1996 Jul-Sep;42(3):193-202. Russian. PMID: 9139450. </t>
   </si>
   <si>
     <t xml:space="preserve">[20] Dokl Akad Nauk. 1996 May;348(3):413-6. [New evidence for the inhibitory action of CO2 on generation of superoxide anion radicals by phagocytes in various tissues. (Mechanism of bio- and eco-effects of CO2)] Kogan AKh, Grachev SV, Bolevich S, Eliseeva S </t>
@@ -4363,9 +4109,6 @@
     <t xml:space="preserve">[46] Medvedev AE, Gorkin VZ. Rol' monoaminoksidaz v reguliatsii énergeticheskikh funktsiĭ mitokhondriĭ [The role of monoamine oxidase in the regulation of mitochondrial energy functions]. Vopr Med Khim. 1991 Sep-Oct;37(5):2-6. Russian. PMID: 1759390. </t>
   </si>
   <si>
-    <t xml:space="preserve">[47] Medvedev AE. Reguliatsiia biogennymi aminami énergeticheskikh funktsiĭ mitokhondriĭ [Regulation by biogenic amines of energy functions of mitochondria]. Vopr Med Khim. 1990 Sep-Oct;36(5):18-21. Russian. PMID: 2174585. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[54] Schwark WS, Keesey RR. Thyroid hormone control of serotonin in developing rat brain. Res Commun Chem Pathol Pharmacol. 1975 Jan;10(1):37-50. PMID: 1124320. </t>
   </si>
   <si>
@@ -4429,63 +4172,27 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[21] Jeyarasasingam G, Yeluashvili M, Quik M. Nitric oxide is involved in acetylcholinesterase inhibitor-induced myopathy in rats. J Pharmacol Exp Ther. 2000 Oct;295(1):314-20. PMID: 10991996. </t>
+    <t xml:space="preserve">[21] [51] Jeyarasasingam G, Yeluashvili M, Quik M. Nitric oxide is involved in acetylcholinesterase inhibitor-induced myopathy in rats. J Pharmacol Exp Ther. 2000 Oct;295(1):314-20. PMID: 10991996. </t>
   </si>
   <si>
     <t xml:space="preserve">[27] Lyeth BG, Hayes RL. Cholinergic and opioid mediation of traumatic brain injury. J Neurotrauma. 1992 May;9 Suppl 2:S463-74. PMID: 1351951. </t>
   </si>
   <si>
-    <t xml:space="preserve">[51] Jeyarasasingam G, Yeluashvili M, Quik M. Nitric oxide is involved in acetylcholinesterase inhibitor-induced myopathy in rats. J Pharmacol Exp Ther. 2000 Oct;295(1):314-20. PMID: 10991996. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">azi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[53] Coste J, Vial JC, Faury G, Deronzier A, Usson Y, Robert-Nicoud M, Verdetti J. NO synthesis, unlike respiration, influences intracellular oxygen tension. Biochem Biophys Res Commun. 2002 Jan 11;290(1):97-104. doi: 10.1006/bbrc.2001.6221. PMID: 11779139. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[54] Delfs JR, Zhu CH, Dichter MA. Coexistence of acetylcholinesterase and somatostatin-immunoreactivity in neurons cultured from rat cerebrum. Science. 1984 Jan 6;223(4631):61-3. doi: 10.1126/science.6140757. PMID: 6140757. </t>
   </si>
   <si>
-    <t xml:space="preserve">[55] Willis LM, Shukitt-Hale B, Joseph JA. Dietary polyunsaturated fatty acids improve cholinergic transmission in the aged brain. Genes Nutr. 2009 Dec;4(4):309-14. doi: 10.1007/s12263-009-0141-6. Epub 2009 Aug 29. PMID: 19727886; PMCID: PMC2775891. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[56] Sharma HS, Nyberg F, Gordh T, Alm P, Westman J. Topical application of insulin like growth factor-1 reduces edema and upregulation of neuronal nitric oxide synthase following trauma to the rat spinal cord. Acta Neurochir Suppl. 1997;70:130-3. doi: 10.1007/978-3-7091-6837-0_40. PMID: 9416300. </t>
   </si>
   <si>
-    <t xml:space="preserve">[57] Sharma B, Sharma PM. Arsenic toxicity induced endothelial dysfunction and dementia: pharmacological interdiction by histone deacetylase and inducible nitric oxide synthase inhibitors. Toxicol Appl Pharmacol. 2013 Nov 15;273(1):180-8. doi: 10.1016/j.taap.2013.07.017. Epub 2013 Aug 3. PMID: 23921152. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[58] Sharma B, Singh N. Pharmacological inhibition of inducible nitric oxide synthase (iNOS) and nicotinamide adenine dinucleotide phosphate (NADPH) oxidase, convalesce behavior and biochemistry of hypertension induced vascular dementia in rats. Pharmacol Biochem Behav. 2013 Feb;103(4):821-30. doi: 10.1016/j.pbb.2012.11.011. Epub 2012 Nov 30. PMID: 23201648. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[61] Librizzi L, Folco G, de Curtis M. Nitric oxide synthase inhibitors unmask acetylcholine-mediated constriction of cerebral vessels in the in vitro isolated guinea-pig brain. Neuroscience. 2000;101(2):283-7. doi: 10.1016/s0306-4522(00)00365-1. PMID: 11074151. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[63] Teaktong T, Graham A, Court J, Perry R, Jaros E, Johnson M, Hall R, Perry E. Alzheimer's disease is associated with a selective increase in alpha7 nicotinic acetylcholine receptor immunoreactivity in astrocytes. Glia. 2003 Jan 15;41(2):207-11. doi: 10.1002/glia.10132. PMID: 12509811. </t>
   </si>
   <si>
-    <t xml:space="preserve">[64] Steinert JR, Chernova T, Forsythe ID. Nitric oxide signaling in brain function, dysfunction, and dementia. Neuroscientist. 2010 Aug;16(4):435-52. doi: 10.1177/1073858410366481. PMID: 20817920. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[65] Doherty GH. Nitric oxide in neurodegeneration: potential benefits of non-steroidal anti-inflammatories. Neurosci Bull. 2011 Dec;27(6):366-82. doi: 10.1007/s12264-011-1530-6. PMID: 22108814; PMCID: PMC5560384. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[67] Manukhina EB, Goryacheva AV, Barskov IV, Viktorov IV, Guseva AA, Pshennikova MG, Khomenko IP, Mashina SY, Pokidyshev DA, Malyshev IY. Prevention of neurodegenerative damage to the brain in rats in experimental Alzheimer's disease by adaptation to hypoxia. Neurosci Behav Physiol. 2010 Sep;40(7):737-43. doi: 10.1007/s11055-010-9320-6. Epub 2010 Jul 16. PMID: 20635216. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[68] Levine JD, Strauss LR, Muenz LR, Dratman MB, Stewart KT, Adler NT. Thyroparathyroidectomy produces a progressive escape deficit in rats. Physiol Behav. 1990 Jul;48(1):165-7. doi: 10.1016/0031-9384(90)90278-c. PMID: 2236264. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[69] Flemmer DD, Dilsaver SC, Peck JA. Bright light blocks the capacity of inescapable swim stress to supersensitize a central muscarinic mechanism. Pharmacol Biochem Behav. 1990 Aug;36(4):775-8. doi: 10.1016/0091-3057(90)90076-t. PMID: 2217505. </t>
   </si>
   <si>
     <t xml:space="preserve">[71] Martin P, Brochet D, Soubrie P, Simon P. Triiodothyronine-induced reversal of learned helplessness in rats. Biol Psychiatry. 1985 Sep;20(9):1023-5. doi: 10.1016/0006-3223(85)90202-1. PMID: 2992618. </t>
   </si>
   <si>
-    <t xml:space="preserve">[74] Östberg A, Virta J, Rinne JO, Oikonen V, Luoto P, Någren K, Arponen E, Tenovuo O. Cholinergic dysfunction after traumatic brain injury: preliminary findings from a PET study. Neurology. 2011 Mar 22;76(12):1046-50. doi: 10.1212/WNL.0b013e318211c1c4. PMID: 21422456. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[76] Katayama S, Kito S, Yamamura Y. Increase of muscarinic receptor following kainic acid lesions of the nucleus basalis magnocellularis in rat brain: an autoradiographic study. Res Commun Chem Pathol Pharmacol. 1990 Jun;68(3):391-4. PMID: 2385763. </t>
   </si>
   <si>
@@ -4495,24 +4202,9 @@
     <t xml:space="preserve">[82] Oriaku ET, Soliman KF. Effect of stress and glucocorticoids on the gastrointestinal cholinergic enzymes. Arch Int Pharmacodyn Ther. 1986 Mar;280(1):136-44. PMID: 3718075. </t>
   </si>
   <si>
-    <t xml:space="preserve">[83] Nyquist Battie C, Moran N. Sympathectomy alters acetylcholinesterase expression in adult rat heart. Cardiovasc Res. 1990 Apr;24(4):335-9. doi: 10.1093/cvr/24.4.335. PMID: 2112043. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[84] Harris LW, Garry VF Jr, Moore RD. Biosynthesis of cholinesterase in rabbit bone marrow cells in culture. Biochem Pharmacol. 1974 Aug;23(15):2155-63. doi: 10.1016/0006-2952(74)90581-4. PMID: 4369814. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[85] Heller M, Hanahan DJ. Human erythrocyte membrane bound enzyme acetylcholinesterase. Biochim Biophys Acta. 1972 Jan 17;255(1):251-72. doi: 10.1016/0005-2736(72)90027-2. PMID: 4622094. </t>
   </si>
   <si>
-    <t xml:space="preserve">[86] Bartos EM, Glinos AD. Properties of growth-related acetylcholinesterase in a cell line of fibroblastic origin. J Cell Biol. 1976 Jun;69(3):638-46. doi: 10.1083/jcb.69.3.638. PMID: 1270513; PMCID: PMC2109698. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[87] Grahn RE, Watkins LR, Maier SF. Impaired escape performance and enhanced conditioned fear in rats following exposure to an uncontrollable stressor are mediated by glutamate and nitric oxide in the dorsal raphe nucleus. Behav Brain Res. 2000 Jul;112(1-2):33-41. doi: 10.1016/s0166-4328(00)00161-3. PMID: 10862933. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[88] Anisman H, Glazier SJ, Sklar LS. Cholinergic influences on escape deficits produced by uncontrollable stress. Psychopharmacology (Berl). 1981;74(1):81-7. doi: 10.1007/BF00431762. PMID: 6791211. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[89] [96] Gatón J, Fernández de la Gándara F, Velasco A. The role of the neurotransmitters acetylcholine and noradrenaline in the pathogenesis of stress ulcers. Comp Biochem Physiol C Comp Pharmacol Toxicol. 1993 Sep;106(1):125-9. doi: 10.1016/0742-8413(93)90263-k. PMID: 7903607. </t>
   </si>
   <si>
@@ -4603,33 +4295,6 @@
     <t xml:space="preserve">[120] Hunt JS, Miller L, Roby KF, Huang J, Platt JS, DeBrot BL. Female steroid hormones regulate production of pro-inflammatory molecules in uterine leukocytes. J Reprod Immunol. 1997 Nov 15;35(2):87-99. doi: 10.1016/s0165-0378(97)00060-0. PMID: 9421794. </t>
   </si>
   <si>
-    <t xml:space="preserve">[122] Srinivasarao P, Narayanareddy K, Vajreswari A, Rupalatha M, Prakash PS, Rao P. Influence of dietary fat on the activities of subcellular membrane-bound enzymes from different regions of rat brain. Neurochem Int. 1997 Dec;31(6):789-94. doi: 10.1016/s0197-0186(97)00037-5. PMID: 9413840. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2021 Some Effects of Progesterone in Men</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[02] Wu F, Xiong ZQ, Mao SH, Hu JM, Wang JQ, Jiang HW, Ding Q. Aldosterone induces inflammatory cytokines in penile corpus cavernosum by activating the NF-κB pathway. Asian J Androl. 2018 Jan-Feb;20(1):24-29. doi: 10.4103/aja.aja_8_17. PMID: 28382926; PMCID: PMC5753550. </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -4724,9 +4389,6 @@
   </si>
   <si>
     <t xml:space="preserve">[03] F. W. Cope, "A primer of water structuring and cation association in cels," Physiol. Chem. &amp; Physics 8, 479-483, 1976. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[05] V. V. Malyshev, et al., "Relationship between inflammation and the stress reaction," Bul. Exp. Biol. &amp; Med., 1194-1196, 1994. </t>
   </si>
   <si>
     <t xml:space="preserve">Newsletter</t>
@@ -7864,15 +7526,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7940,7 +7602,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7952,7 +7614,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8079,10 +7741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH97"/>
+  <dimension ref="A1:BH95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8132,7 +7794,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="63" style="2" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8280,7 +7942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -8290,7 +7952,7 @@
       <c r="C3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -8302,2976 +7964,2758 @@
       <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="6" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="2" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="45.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="R10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="4" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="N11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="P11" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="12" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="4" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="N13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="P13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="2" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="291.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="4" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="244.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="L15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I14" s="2" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I15" s="4" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E16" s="4" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="20" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G19" s="4" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F21" s="4" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="I24" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E23" s="4" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="I26" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G24" s="2" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="X28" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="AB28" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="AC28" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="AF28" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="J27" s="4" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="H29" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="J29" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="J28" s="4" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="R28" s="4" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="W28" s="4" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="Y28" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AA28" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="AC28" s="4" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="AD28" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="AE28" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="AF28" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="AG28" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="AH28" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="AI28" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="AJ28" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="AK28" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="AL28" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="AM28" s="4" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AN28" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="AO28" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="AP28" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="AQ28" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="AR28" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="AS28" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="I36" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="K37" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    <row r="39" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E32" s="4" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D41" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    <row r="43" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G34" s="4" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+    <row r="45" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="J45" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="F37" s="4" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J37" s="4" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E38" s="4" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="34.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C40" s="4" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="45.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="H50" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="I50" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="L50" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="I43" s="4" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="L51" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M51" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="M44" s="4" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L52" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N52" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O52" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="P52" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="Q52" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="R52" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="S52" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="T52" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+    <row r="53" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="E48" s="4" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="E49" s="4" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="L56" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="N56" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="P56" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="R56" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D52" s="4" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="I52" s="4" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B53" s="4" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="L59" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="M59" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="N59" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="P59" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="R53" s="4" t="s">
+      <c r="Q59" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="S53" s="4" t="s">
+      <c r="R59" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="T53" s="4" t="s">
+      <c r="S59" s="4" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="T59" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B54" s="4" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="L60" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="N60" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="P60" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="Q60" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="R60" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="T60" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="H56" s="4" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="145.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="L61" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="M57" s="4" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="O57" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="P57" s="4" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="Q57" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="R57" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="67.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="I63" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C59" s="4" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D60" s="4" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="J60" s="4" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="B66" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="O60" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="K66" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="T60" s="4" t="s">
+      <c r="L66" s="4" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="156.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+    <row r="67" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="F61" s="4" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="B68" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="L68" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="Q61" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="R61" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="S61" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="T61" s="4" t="s">
+      <c r="P68" s="4" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="Q68" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="R68" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="S68" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D62" s="4" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="C69" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="J69" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="M62" s="4" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="B64" s="4" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="J71" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="K71" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C65" s="4" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="I72" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="K72" s="4" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="L72" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="C67" s="4" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="K73" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="E68" s="4" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="134.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="156.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="E69" s="4" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="O69" s="4" t="s">
+      <c r="K76" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="P69" s="4" t="s">
+      <c r="L76" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="Q69" s="4" t="s">
+      <c r="M76" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="R69" s="4" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="S69" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="G70" s="4" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="G78" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="I78" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="J78" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C72" s="4" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="I79" s="4" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="J79" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="L79" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="M79" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="N79" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="O79" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="P79" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="H73" s="4" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="F80" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="D74" s="4" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="J74" s="4" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="111.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+      <c r="F82" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="I83" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="J83" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="L83" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="M83" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="N83" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="L77" s="4" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="B78" s="4" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="B79" s="4" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="I79" s="2" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="S87" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="T87" s="4"/>
+      <c r="U87" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="V87" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="W87" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+      <c r="AD87" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="AE87" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="AF87" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="AG87" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="AH87" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="O80" s="4" t="s">
+      <c r="AI87" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="P80" s="4" t="s">
+      <c r="AJ87" s="4" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+      <c r="AK87" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="AL87" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="AM87" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="AN87" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="AO87" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="AP87" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="AQ87" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="AR87" s="4" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+      <c r="AS87" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="AT87" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="AU87" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="AV87" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="AW87" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="AX87" s="4" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+      <c r="AY87" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="AZ87" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="BA87" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="BB87" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="BC87" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="BD87" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="BE87" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="BF87" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="BG87" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="BH87" s="4"/>
+    </row>
+    <row r="88" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="K84" s="4" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="M84" s="4" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="145.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="89.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="P88" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="Q88" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="R88" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="S88" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="T88" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="U88" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="V88" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="W88" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="X88" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="Y88" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="Z88" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="AA88" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="AB88" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="AC88" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="AD88" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="AE88" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="AF88" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="AG88" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="AH88" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="AI88" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="AJ88" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="AK88" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="AL88" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="AM88" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="AN88" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="AO88" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="AP88" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="AQ88" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="AR88" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="AS88" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="AT88" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="AU88" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="AV88" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="AW88" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="AX88" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="AY88" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="AZ88" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="BA88" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="BB88" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="BC88" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="BD88" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="BE88" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="BF88" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="BG88" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="BH88" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="78.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="2" t="n">
+        <f aca="false">COUNTIF(B2:CO90,"*")</f>
+        <v>750</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1"/>
+      <c r="B95" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A95:B95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="1971 Cold-Inactivated Enzymes as Metabolic Controls"/>
@@ -11319,53 +10763,50 @@
     <hyperlink ref="A44" r:id="rId43" display="2007 Salt, energy, metabolic rate, and longevity"/>
     <hyperlink ref="A45" r:id="rId44" display="2007 Stem cells, cell culture, and culture Issues in regener"/>
     <hyperlink ref="A46" r:id="rId45" display="2007 Suitable Fats, Unsuitable Fats - Issues in Nutrition"/>
-    <hyperlink ref="A47" r:id="rId46" display="2007 TSH, temperature, pulse rate, and other indicators in hypothyroidism"/>
-    <hyperlink ref="A48" r:id="rId47" display="2007 The Great Fish Oil Experiment"/>
-    <hyperlink ref="A49" r:id="rId48" display="2008 Adaptive substance, creative regeneration"/>
-    <hyperlink ref="A50" r:id="rId49" display="2008 Natural Estrogens"/>
-    <hyperlink ref="A51" r:id="rId50" display="2009 Calcium and Disease Hypertension, organ calcificat"/>
-    <hyperlink ref="A52" r:id="rId51" display="2009 Estrogen, memory and heredity Imprinting and"/>
-    <hyperlink ref="A53" r:id="rId52" display="2009 Fats and degeneration"/>
-    <hyperlink ref="A54" r:id="rId53" display="2009 Gelatin, stress, longevity"/>
-    <hyperlink ref="A55" r:id="rId54" display="2009 Glycemia, starch, and sugar in context"/>
-    <hyperlink ref="A56" r:id="rId55" display="2009 Intelligence and metabolism"/>
-    <hyperlink ref="A57" r:id="rId56" display="2009 Intuitive knowledge and its development"/>
-    <hyperlink ref="A58" r:id="rId57" display="2009 Lactate vs. CO2 in wounds, sickness, and aging;"/>
-    <hyperlink ref="A59" r:id="rId58" display="2009 Membranes, plasma membranes, and surfaces"/>
-    <hyperlink ref="A60" r:id="rId59" display="2009 Multiple sclerosis, protein, fats, and progesterone"/>
-    <hyperlink ref="A61" r:id="rId60" display="2009 Thyroid, insomnia, and the insanities Commonalities in disease"/>
-    <hyperlink ref="A62" r:id="rId61" display="2009 Water swelling, tension, pain, fatigue, aging"/>
-    <hyperlink ref="A63" r:id="rId62" display="2011 Milk in context allergies, ecology, and some myths"/>
-    <hyperlink ref="A64" r:id="rId63" display="2012 Cascara, energy, cancer and the FDA's laxative abu"/>
-    <hyperlink ref="A65" r:id="rId64" display="2012 Genes, Carbon Dioxide and Adaptation"/>
-    <hyperlink ref="A66" r:id="rId65" display="2012 Glucose and sucrose for diabetes"/>
-    <hyperlink ref="A67" r:id="rId66" display="2012 Osteoporosis, aging, tissue renewal, and product science"/>
-    <hyperlink ref="A68" r:id="rId67" display="2012 Pathological Science &amp; General Electric - Threatenin"/>
-    <hyperlink ref="A69" r:id="rId68" display="2012 Protective CO2 and aging"/>
-    <hyperlink ref="A70" r:id="rId69" display="2012 Regeneration and degeneration Types of inflammati"/>
-    <hyperlink ref="A71" r:id="rId70" display="2012 Serotonin, depression, and aggression The problem of brain energy"/>
-    <hyperlink ref="A72" r:id="rId71" display="2012 Sugar issues"/>
-    <hyperlink ref="A73" r:id="rId72" display="2013 Fatigue, aging, and recuperation"/>
-    <hyperlink ref="A74" r:id="rId73" display="2013 Fats, functions &amp; malfunctions"/>
-    <hyperlink ref="A75" r:id="rId74" display="2013 Growth hormone Hormone of Stress, Aging, &amp; Death"/>
-    <hyperlink ref="A76" r:id="rId75" display="2013 Hot flashes, energy, and aging"/>
-    <hyperlink ref="A77" r:id="rId76" display="2013 Multiple sclerosis and other hormone-related brain s"/>
-    <hyperlink ref="A78" r:id="rId77" display="2013 Phosphate, activation, and aging"/>
-    <hyperlink ref="A79" r:id="rId78" display="2013 Prostate Cancer"/>
-    <hyperlink ref="A80" r:id="rId79" display="2013 Rosacea, inflammation, and aging, The inefficiency"/>
-    <hyperlink ref="A81" r:id="rId80" display="2013 When energy fails Edema, heart failure, hypertens"/>
-    <hyperlink ref="A82" r:id="rId81" display="2014 Cancer Disorder and Energy"/>
-    <hyperlink ref="A83" r:id="rId82" display="2014 Cataracts water, energy, light, and aging"/>
-    <hyperlink ref="A84" r:id="rId83" display="2014 Meat physiology, stress, and degenerative physiolo"/>
-    <hyperlink ref="K84" r:id="rId84" display="https://web.archive.org/web/20160221022832/https://www.fsis.usda.gov/wps/portal/fsis/topics/food-safety-education/get-answers/food-safety-fact-sheets/meat-preparation/water-in-meat-and-poultry/CT_Index"/>
-    <hyperlink ref="A85" r:id="rId85" display="2015 Heart and hormones"/>
-    <hyperlink ref="A86" r:id="rId86" display="2015 Serotonin Effects in disease, aging and inflammation"/>
-    <hyperlink ref="A87" r:id="rId87" display="2016 Mitochondria and mortality"/>
-    <hyperlink ref="A88" r:id="rId88" display="2016 The dark side of stress (Learned helplessness)"/>
-    <hyperlink ref="A89" r:id="rId89" display="2021 Some Effects of Progesterone in Men"/>
-    <hyperlink ref="A90" r:id="rId90" display="Energy and Structure in Biological Water"/>
-    <hyperlink ref="A91" r:id="rId91" display="Energy, structure and carbon dioxide A realistic view o"/>
-    <hyperlink ref="A92" r:id="rId92" display="Stress and Water"/>
+    <hyperlink ref="A48" r:id="rId46" display="2008 Adaptive substance, creative regeneration"/>
+    <hyperlink ref="A49" r:id="rId47" display="2008 Natural Estrogens"/>
+    <hyperlink ref="A50" r:id="rId48" display="2009 Calcium and Disease Hypertension, organ calcificat"/>
+    <hyperlink ref="A51" r:id="rId49" display="2009 Estrogen, memory and heredity Imprinting and"/>
+    <hyperlink ref="A52" r:id="rId50" display="2009 Fats and degeneration"/>
+    <hyperlink ref="A53" r:id="rId51" display="2009 Gelatin, stress, longevity"/>
+    <hyperlink ref="A54" r:id="rId52" display="2009 Glycemia, starch, and sugar in context"/>
+    <hyperlink ref="A55" r:id="rId53" display="2009 Intelligence and metabolism"/>
+    <hyperlink ref="A56" r:id="rId54" display="2009 Intuitive knowledge and its development"/>
+    <hyperlink ref="A57" r:id="rId55" display="2009 Lactate vs. CO2 in wounds, sickness, and aging;"/>
+    <hyperlink ref="A58" r:id="rId56" display="2009 Membranes, plasma membranes, and surfaces"/>
+    <hyperlink ref="A59" r:id="rId57" display="2009 Multiple sclerosis, protein, fats, and progesterone"/>
+    <hyperlink ref="A60" r:id="rId58" display="2009 Thyroid, insomnia, and the insanities Commonalities in disease"/>
+    <hyperlink ref="A61" r:id="rId59" display="2009 Water swelling, tension, pain, fatigue, aging"/>
+    <hyperlink ref="A62" r:id="rId60" display="2011 Milk in context allergies, ecology, and some myths"/>
+    <hyperlink ref="A63" r:id="rId61" display="2012 Cascara, energy, cancer and the FDA's laxative abu"/>
+    <hyperlink ref="A64" r:id="rId62" display="2012 Genes, Carbon Dioxide and Adaptation"/>
+    <hyperlink ref="A65" r:id="rId63" display="2012 Glucose and sucrose for diabetes"/>
+    <hyperlink ref="A66" r:id="rId64" display="2012 Osteoporosis, aging, tissue renewal, and product science"/>
+    <hyperlink ref="A67" r:id="rId65" display="2012 Pathological Science &amp; General Electric - Threatenin"/>
+    <hyperlink ref="A68" r:id="rId66" display="2012 Protective CO2 and aging"/>
+    <hyperlink ref="A69" r:id="rId67" display="2012 Regeneration and degeneration Types of inflammati"/>
+    <hyperlink ref="A70" r:id="rId68" display="2012 Serotonin, depression, and aggression The problem of brain energy"/>
+    <hyperlink ref="A71" r:id="rId69" display="2012 Sugar issues"/>
+    <hyperlink ref="A72" r:id="rId70" display="2013 Fatigue, aging, and recuperation"/>
+    <hyperlink ref="A73" r:id="rId71" display="2013 Fats, functions &amp; malfunctions"/>
+    <hyperlink ref="A74" r:id="rId72" display="2013 Growth hormone Hormone of Stress, Aging, &amp; Death"/>
+    <hyperlink ref="A75" r:id="rId73" display="2013 Hot flashes, energy, and aging"/>
+    <hyperlink ref="A76" r:id="rId74" display="2013 Multiple sclerosis and other hormone-related brain s"/>
+    <hyperlink ref="A77" r:id="rId75" display="2013 Phosphate, activation, and aging"/>
+    <hyperlink ref="A78" r:id="rId76" display="2013 Prostate Cancer"/>
+    <hyperlink ref="A79" r:id="rId77" display="2013 Rosacea, inflammation, and aging, The inefficiency"/>
+    <hyperlink ref="A80" r:id="rId78" display="2013 When energy fails Edema, heart failure, hypertens"/>
+    <hyperlink ref="A81" r:id="rId79" display="2014 Cancer Disorder and Energy"/>
+    <hyperlink ref="A82" r:id="rId80" display="2014 Cataracts water, energy, light, and aging"/>
+    <hyperlink ref="A83" r:id="rId81" display="2014 Meat physiology, stress, and degenerative physiolo"/>
+    <hyperlink ref="K83" r:id="rId82" display="https://web.archive.org/web/20160221022832/https://www.fsis.usda.gov/wps/portal/fsis/topics/food-safety-education/get-answers/food-safety-fact-sheets/meat-preparation/water-in-meat-and-poultry/CT_Index"/>
+    <hyperlink ref="A84" r:id="rId83" display="2015 Heart and hormones"/>
+    <hyperlink ref="A85" r:id="rId84" display="2015 Serotonin Effects in disease, aging and inflammation"/>
+    <hyperlink ref="A86" r:id="rId85" display="2016 Mitochondria and mortality"/>
+    <hyperlink ref="A87" r:id="rId86" display="2016 The dark side of stress (Learned helplessness)"/>
+    <hyperlink ref="A88" r:id="rId87" display="Energy and Structure in Biological Water"/>
+    <hyperlink ref="A89" r:id="rId88" display="Energy, structure and carbon dioxide A realistic view o"/>
+    <hyperlink ref="A90" r:id="rId89" display="Stress and Water"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -11384,8 +10825,8 @@
   </sheetPr>
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11395,7 +10836,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>974</v>
+        <v>881</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -11460,108 +10901,108 @@
     </row>
     <row r="2" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>975</v>
+        <v>882</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>976</v>
+        <v>883</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>977</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>978</v>
+        <v>885</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>979</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>980</v>
+        <v>887</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>981</v>
+        <v>888</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>982</v>
+        <v>889</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>983</v>
+        <v>890</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>984</v>
+        <v>891</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>985</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>986</v>
+        <v>893</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>987</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>988</v>
+        <v>895</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>989</v>
+        <v>896</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>990</v>
+        <v>897</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>991</v>
+        <v>898</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>992</v>
+        <v>899</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>993</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>994</v>
+        <v>901</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>995</v>
+        <v>902</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>996</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>997</v>
+        <v>904</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>998</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>999</v>
+        <v>906</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1001</v>
+        <v>908</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1002</v>
+        <v>909</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1003</v>
+        <v>910</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1004</v>
+        <v>911</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -11573,1675 +11014,1675 @@
     </row>
     <row r="10" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>1005</v>
+        <v>912</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1006</v>
+        <v>913</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1007</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>1008</v>
+        <v>915</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1009</v>
+        <v>916</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1010</v>
+        <v>917</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>1011</v>
+        <v>918</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1012</v>
+        <v>919</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1013</v>
+        <v>920</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1014</v>
+        <v>921</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1015</v>
+        <v>922</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1016</v>
+        <v>923</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1017</v>
+        <v>924</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1018</v>
+        <v>925</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1019</v>
+        <v>926</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>1020</v>
+        <v>927</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>1021</v>
+        <v>928</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>1022</v>
+        <v>929</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1023</v>
+        <v>930</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>1024</v>
+        <v>931</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>1025</v>
+        <v>932</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>1026</v>
+        <v>933</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>1027</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>1028</v>
+        <v>935</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1029</v>
+        <v>936</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1030</v>
+        <v>937</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1031</v>
+        <v>938</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1032</v>
+        <v>939</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1033</v>
+        <v>940</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1034</v>
+        <v>941</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1035</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>1036</v>
+        <v>943</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1037</v>
+        <v>944</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1038</v>
+        <v>945</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1039</v>
+        <v>946</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1040</v>
+        <v>947</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1041</v>
+        <v>948</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>1042</v>
+        <v>949</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1043</v>
+        <v>950</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1044</v>
+        <v>951</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1045</v>
+        <v>952</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1046</v>
+        <v>953</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1047</v>
+        <v>954</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1048</v>
+        <v>955</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1049</v>
+        <v>956</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1050</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>1051</v>
+        <v>958</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1052</v>
+        <v>959</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>1053</v>
+        <v>960</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1054</v>
+        <v>961</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1055</v>
+        <v>962</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1056</v>
+        <v>963</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1057</v>
+        <v>964</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1058</v>
+        <v>965</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>1059</v>
+        <v>966</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1060</v>
+        <v>967</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1061</v>
+        <v>968</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1062</v>
+        <v>969</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>1063</v>
+        <v>970</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1064</v>
+        <v>971</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1065</v>
+        <v>972</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1066</v>
+        <v>973</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1067</v>
+        <v>974</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1068</v>
+        <v>975</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1069</v>
+        <v>976</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>1070</v>
+        <v>977</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1071</v>
+        <v>978</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1072</v>
+        <v>979</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>1073</v>
+        <v>980</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1074</v>
+        <v>981</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1075</v>
+        <v>982</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1076</v>
+        <v>983</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1077</v>
+        <v>984</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1078</v>
+        <v>985</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1079</v>
+        <v>986</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>1080</v>
+        <v>987</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1081</v>
+        <v>988</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1082</v>
+        <v>989</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1083</v>
+        <v>990</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>1084</v>
+        <v>991</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1085</v>
+        <v>992</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1086</v>
+        <v>993</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>1087</v>
+        <v>994</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>1088</v>
+        <v>995</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1089</v>
+        <v>996</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1090</v>
+        <v>997</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>1091</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>1092</v>
+        <v>999</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1093</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1094</v>
+        <v>1001</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1095</v>
+        <v>1002</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1096</v>
+        <v>1003</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1097</v>
+        <v>1004</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1098</v>
+        <v>1005</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>1099</v>
+        <v>1006</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1100</v>
+        <v>1007</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1101</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>1102</v>
+        <v>1009</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1103</v>
+        <v>1010</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1104</v>
+        <v>1011</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1105</v>
+        <v>1012</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1106</v>
+        <v>1013</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>1107</v>
+        <v>1014</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1108</v>
+        <v>1015</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1109</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>1110</v>
+        <v>1017</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1111</v>
+        <v>1018</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1112</v>
+        <v>1019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1113</v>
+        <v>1020</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1114</v>
+        <v>1021</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>1115</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>1116</v>
+        <v>1023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1117</v>
+        <v>1024</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1118</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="184.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>1119</v>
+        <v>1026</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1120</v>
+        <v>1027</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1121</v>
+        <v>1028</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1122</v>
+        <v>1029</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1123</v>
+        <v>1030</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1124</v>
+        <v>1031</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1125</v>
+        <v>1032</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1126</v>
+        <v>1033</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>1127</v>
+        <v>1034</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>1128</v>
+        <v>1035</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1129</v>
+        <v>1036</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>1130</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>1131</v>
+        <v>1038</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1132</v>
+        <v>1039</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1133</v>
+        <v>1040</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1134</v>
+        <v>1041</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1135</v>
+        <v>1042</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1136</v>
+        <v>1043</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1137</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>1138</v>
+        <v>1045</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1139</v>
+        <v>1046</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1140</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>1141</v>
+        <v>1048</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1142</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>1143</v>
+        <v>1050</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1144</v>
+        <v>1051</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1145</v>
+        <v>1052</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1146</v>
+        <v>1053</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1147</v>
+        <v>1054</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1148</v>
+        <v>1055</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1149</v>
+        <v>1056</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1150</v>
+        <v>1057</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1151</v>
+        <v>1058</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1152</v>
+        <v>1059</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>1153</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>1154</v>
+        <v>1061</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1155</v>
+        <v>1062</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1156</v>
+        <v>1063</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1157</v>
+        <v>1064</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1158</v>
+        <v>1065</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1159</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="196.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>1160</v>
+        <v>1067</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1161</v>
+        <v>1068</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1162</v>
+        <v>1069</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1163</v>
+        <v>1070</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>1164</v>
+        <v>1071</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1165</v>
+        <v>1072</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1166</v>
+        <v>1073</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1167</v>
+        <v>1074</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1168</v>
+        <v>1075</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1169</v>
+        <v>1076</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>1170</v>
+        <v>1077</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>1171</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>1172</v>
+        <v>1079</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1173</v>
+        <v>1080</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>883</v>
+        <v>812</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1174</v>
+        <v>1081</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>1175</v>
+        <v>1082</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1176</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>1177</v>
+        <v>1084</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1178</v>
+        <v>1085</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1179</v>
+        <v>1086</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1180</v>
+        <v>1087</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>1181</v>
+        <v>1088</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>1182</v>
+        <v>1089</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1183</v>
+        <v>1090</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1184</v>
+        <v>1091</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1185</v>
+        <v>1092</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>1186</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>1187</v>
+        <v>1094</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1188</v>
+        <v>1095</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1189</v>
+        <v>1096</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1190</v>
+        <v>1097</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>1191</v>
+        <v>1098</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1192</v>
+        <v>1099</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1193</v>
+        <v>1100</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1194</v>
+        <v>1101</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1195</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>1196</v>
+        <v>1103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1197</v>
+        <v>1104</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1198</v>
+        <v>1105</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1199</v>
+        <v>1106</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1200</v>
+        <v>1107</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1201</v>
+        <v>1108</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1202</v>
+        <v>1109</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1203</v>
+        <v>1110</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1204</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>1205</v>
+        <v>1112</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1206</v>
+        <v>1113</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1207</v>
+        <v>1114</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1208</v>
+        <v>1115</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1209</v>
+        <v>1116</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1210</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>1211</v>
+        <v>1118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1212</v>
+        <v>1119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1213</v>
+        <v>1120</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1214</v>
+        <v>1121</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1215</v>
+        <v>1122</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1216</v>
+        <v>1123</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1217</v>
+        <v>1124</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1218</v>
+        <v>1125</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1219</v>
+        <v>1126</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>1220</v>
+        <v>1127</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>1221</v>
+        <v>1128</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1222</v>
+        <v>1129</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1223</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>1224</v>
+        <v>1131</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1225</v>
+        <v>1132</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1226</v>
+        <v>1133</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1227</v>
+        <v>1134</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>1228</v>
+        <v>1135</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1229</v>
+        <v>1136</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1230</v>
+        <v>1137</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1231</v>
+        <v>1138</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1232</v>
+        <v>1139</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>1233</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>1234</v>
+        <v>1141</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1235</v>
+        <v>1142</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1236</v>
+        <v>1143</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1237</v>
+        <v>1144</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1238</v>
+        <v>1145</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1239</v>
+        <v>1146</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1240</v>
+        <v>1147</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1241</v>
+        <v>1148</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1242</v>
+        <v>1149</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>1243</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>1244</v>
+        <v>1151</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1245</v>
+        <v>1152</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1246</v>
+        <v>1153</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1247</v>
+        <v>1154</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>1248</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>1249</v>
+        <v>1156</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1250</v>
+        <v>1157</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1251</v>
+        <v>1158</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1252</v>
+        <v>1159</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1253</v>
+        <v>1160</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1254</v>
+        <v>1161</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1255</v>
+        <v>1162</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>1256</v>
+        <v>1163</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1257</v>
+        <v>1164</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>1258</v>
+        <v>1165</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>1259</v>
+        <v>1166</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>1260</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>1261</v>
+        <v>1168</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1262</v>
+        <v>1169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1263</v>
+        <v>1170</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1264</v>
+        <v>1171</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1265</v>
+        <v>1172</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1266</v>
+        <v>1173</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1267</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>1268</v>
+        <v>1175</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1269</v>
+        <v>1176</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1270</v>
+        <v>1177</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1271</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>1272</v>
+        <v>1179</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1273</v>
+        <v>1180</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1274</v>
+        <v>1181</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1275</v>
+        <v>1182</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>1276</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>1277</v>
+        <v>1184</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1278</v>
+        <v>1185</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1279</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>1280</v>
+        <v>1187</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1281</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>1282</v>
+        <v>1189</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1283</v>
+        <v>1190</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1284</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>1285</v>
+        <v>1192</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1286</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>1287</v>
+        <v>1194</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1288</v>
+        <v>1195</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1289</v>
+        <v>1196</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1290</v>
+        <v>1197</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>1291</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>1292</v>
+        <v>1199</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1293</v>
+        <v>1200</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1294</v>
+        <v>1201</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1295</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>1296</v>
+        <v>1203</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1297</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>1298</v>
+        <v>1205</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1299</v>
+        <v>1206</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1300</v>
+        <v>1207</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1301</v>
+        <v>1208</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>1302</v>
+        <v>1209</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1303</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>1304</v>
+        <v>1211</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1305</v>
+        <v>1212</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1306</v>
+        <v>1213</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1307</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>1308</v>
+        <v>1215</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1309</v>
+        <v>1216</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1310</v>
+        <v>1217</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1311</v>
+        <v>1218</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1312</v>
+        <v>1219</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>1313</v>
+        <v>1220</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>1314</v>
+        <v>1221</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>1315</v>
+        <v>1222</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>1316</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>1317</v>
+        <v>1224</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1318</v>
+        <v>1225</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1319</v>
+        <v>1226</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1320</v>
+        <v>1227</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>1321</v>
+        <v>1228</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1322</v>
+        <v>1229</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1323</v>
+        <v>1230</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>1324</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>1325</v>
+        <v>1232</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1326</v>
+        <v>1233</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1327</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="184.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>1328</v>
+        <v>1235</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1329</v>
+        <v>1236</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1330</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>1331</v>
+        <v>1238</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1332</v>
+        <v>1239</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1333</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>1334</v>
+        <v>1241</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1335</v>
+        <v>1242</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1336</v>
+        <v>1243</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1337</v>
+        <v>1244</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>1338</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>1339</v>
+        <v>1246</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1340</v>
+        <v>1247</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1341</v>
+        <v>1248</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1342</v>
+        <v>1249</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>1343</v>
+        <v>1250</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>1344</v>
+        <v>1251</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>1345</v>
+        <v>1252</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1346</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>1347</v>
+        <v>1254</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1348</v>
+        <v>1255</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1349</v>
+        <v>1256</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1350</v>
+        <v>1257</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1351</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>1352</v>
+        <v>1259</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1353</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>1354</v>
+        <v>1261</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1355</v>
+        <v>1262</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1356</v>
+        <v>1263</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1357</v>
+        <v>1264</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1358</v>
+        <v>1265</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>1359</v>
+        <v>1266</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1360</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>1361</v>
+        <v>1268</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1362</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>1363</v>
+        <v>1270</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1364</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>1365</v>
+        <v>1272</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1366</v>
+        <v>1273</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1367</v>
+        <v>1274</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1368</v>
+        <v>1275</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>1369</v>
+        <v>1276</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1370</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>1371</v>
+        <v>1278</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1372</v>
+        <v>1279</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1373</v>
+        <v>1280</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1374</v>
+        <v>1281</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1375</v>
+        <v>1282</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>1376</v>
+        <v>1283</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1377</v>
+        <v>1284</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>1378</v>
+        <v>1285</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>1379</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>1380</v>
+        <v>1287</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1381</v>
+        <v>1288</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1382</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>1383</v>
+        <v>1290</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1384</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>1385</v>
+        <v>1292</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1386</v>
+        <v>1293</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1387</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>1388</v>
+        <v>1295</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1389</v>
+        <v>1296</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1390</v>
+        <v>1297</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1391</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>1392</v>
+        <v>1299</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1393</v>
+        <v>1300</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1394</v>
+        <v>1301</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1395</v>
+        <v>1302</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>1396</v>
+        <v>1303</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>1397</v>
+        <v>1304</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1398</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>1399</v>
+        <v>1306</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1400</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>1401</v>
+        <v>1308</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1402</v>
+        <v>1309</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1403</v>
+        <v>1310</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1404</v>
+        <v>1311</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1405</v>
+        <v>1312</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1406</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>1407</v>
+        <v>1314</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1408</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>1409</v>
+        <v>1316</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1410</v>
+        <v>1317</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1411</v>
+        <v>1318</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1412</v>
+        <v>1319</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>1413</v>
+        <v>1320</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>1414</v>
+        <v>1321</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1415</v>
+        <v>1322</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>1416</v>
+        <v>1323</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>1417</v>
+        <v>1324</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>1418</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>1419</v>
+        <v>1326</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1420</v>
+        <v>1327</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1421</v>
+        <v>1328</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1422</v>
+        <v>1329</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>1423</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>1424</v>
+        <v>1331</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1425</v>
+        <v>1332</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1426</v>
+        <v>1333</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1427</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>1428</v>
+        <v>1335</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1429</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>1430</v>
+        <v>1337</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>1431</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>1432</v>
+        <v>1339</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>1433</v>
+        <v>1340</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1434</v>
+        <v>1341</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1435</v>
+        <v>1342</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>1436</v>
+        <v>1343</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1437</v>
+        <v>1344</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1438</v>
+        <v>1345</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1439</v>
+        <v>1346</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>1440</v>
+        <v>1347</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>1441</v>
+        <v>1348</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>1442</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>1443</v>
+        <v>1350</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>1444</v>
+        <v>1351</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1445</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>1446</v>
+        <v>1353</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1447</v>
+        <v>1354</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1448</v>
+        <v>1355</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1449</v>
+        <v>1356</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>1450</v>
+        <v>1357</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1451</v>
+        <v>1358</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1452</v>
+        <v>1359</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1453</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>1454</v>
+        <v>1361</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1455</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>1456</v>
+        <v>1363</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1457</v>
+        <v>1364</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1458</v>
+        <v>1365</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1459</v>
+        <v>1366</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>1460</v>
+        <v>1367</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>1461</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="242.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>1462</v>
+        <v>1369</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>1463</v>
+        <v>1370</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1464</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>1465</v>
+        <v>1372</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>1466</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>1467</v>
+        <v>1374</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1468</v>
+        <v>1375</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1469</v>
+        <v>1376</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1470</v>
+        <v>1377</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>1471</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>1472</v>
+        <v>1379</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>1473</v>
+        <v>1380</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1474</v>
+        <v>1381</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1475</v>
+        <v>1382</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>1476</v>
+        <v>1383</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>1477</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>1478</v>
+        <v>1385</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1479</v>
+        <v>1386</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1480</v>
+        <v>1387</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1481</v>
+        <v>1388</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1482</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>1483</v>
+        <v>1390</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1484</v>
+        <v>1391</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1485</v>
+        <v>1392</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>1486</v>
+        <v>1393</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>1487</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>1488</v>
+        <v>1395</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1489</v>
+        <v>1396</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1490</v>
+        <v>1397</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1491</v>
+        <v>1398</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>1492</v>
+        <v>1399</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>1493</v>
+        <v>1400</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1494</v>
+        <v>1401</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>1495</v>
+        <v>1402</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>1496</v>
+        <v>1403</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>1497</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>1498</v>
+        <v>1405</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1499</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>1500</v>
+        <v>1407</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1501</v>
+        <v>1408</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1502</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>

--- a/MissingReferences.xlsx
+++ b/MissingReferences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Articles" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,14 +14,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1268">
   <si>
     <t xml:space="preserve">Articles</t>
   </si>
@@ -228,7 +228,7 @@
 375, Vol. 196, 1972b.</t>
   </si>
   <si>
-    <t xml:space="preserve">[30] Proctor, P. E. T. E. R. "Electron-transfer factors in psychosis and dyskinesia."'Physiological chemistry and physics'4.4 (1972): 349-360. </t>
+    <t xml:space="preserve">[30] Proctor P. Electron-transfer factors in psychosis and dyskinesia. Physiol Chem Phys. 1972;4(4):349-60. PMID: 4680784.</t>
   </si>
   <si>
     <t xml:space="preserve">[38] CHERNIGOVSKII, V. N.: Interoceptors. American Psychological Association,
@@ -245,20 +245,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[43] Vovsi, B. M. "Treatment of wounds of the cornea under high-altitude conditions."'Vestnik oftalmologii'1 (1972): 70-74. </t>
+    <t xml:space="preserve">[43] Vovsi BM. O lechenii ran rogovoĭ obolochki v usloviiakh vysokogor'ia [Treatment of wounds of the cornea under high-altitude conditions]. Vestn Oftalmol. 1972;1:70-4. Russian. PMID: 5016818. </t>
   </si>
   <si>
     <t xml:space="preserve">[51] BELENKIY, B.: LIDA apparatus for biorhythmological studies. Sov. Mold. p. 4, December 8, 1973.</t>
   </si>
   <si>
-    <t xml:space="preserve">[52] KONDRASHCHENKO, V. T., GLANTS, B. R., and MAYEROVICH, I. M.:
-Hyperbaric Oxygen Therapy of Hypoxia in Acute Brain Injuries and Acute
-Exogenous Psychoses. Zh. neuropatologii i psikhiatrii, No. 2: 271-277, 1971.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[53] MIRRAKHIMOV, M. M.: Human High-altitude Pathology in Kirgiz SSR.
-Klinicheskava Meditsina 50:12, 104-109, 1972</t>
+    <t xml:space="preserve">[52] Kondrashenko VT, Glants BR, Maerovich IM. Giperbaricheskaia oksigenoterapiia gipolsicheskikh osotoianiĭ p ostrylh cherepno-moxgovykh travmakh i ostrykh ékzogennykh psikhozakh [Hyperbaric oxygen therapy of hypoxic states in acute cranio-cerebral tauma and acute exogenous psychoses]. Zh Nevropatol Psikhiatr Im S S Korsakova. 1971;71(2):271-7. Russian. PMID: 5572073.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[53] Mirrakhimov MM. O vysokogornoi patologii cheloveka v Kirgizskoi SS [High-altitude pathology in man in the Kirghiz SSR]. Klin Med (Mosk). 1972 Dec;50(12):104-9. Russian. PMID: 4267245.</t>
   </si>
   <si>
     <t xml:space="preserve">[54] MEYERSON, F. Z., POMOYNITSKIY, V. D., and YAMPOL'SKAYA, B. A.:
@@ -267,9 +263,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[55] KHVATOVA, Ye. M., RUBANOVA, N.A., and ZHILINA, I. A.: The Activity
-of Monoaminooxidase and Respiratory Chain Enzyme in Acute Hypoxia.
-Voprosy Meditsinskoy Khimii 19:1, 3-5, 1973.</t>
+    <t xml:space="preserve">[55] Khvatova EM, Rubanova NA, Zhilina IA. Aktivnost' monoaminoksidazy i fermentov dykhatel'noĭ tsepi v usloviiakh ostroĭ gipoksii [Monoamine oxidase and respiratory chain enzymatic activity in acute hypoxia]. Vopr Med Khim. 1973 Jan-Feb;19(1):3-5. Russian. PMID: 4150857.</t>
   </si>
   <si>
     <t xml:space="preserve">[56] DARDYMOV, I. V.: The Effect of Ginseng and Eleutherococ-cus Preparation
@@ -365,7 +359,7 @@
     <t xml:space="preserve">1986-01 Hormone Balancing </t>
   </si>
   <si>
-    <t xml:space="preserve">[01] Meerson, F. Z. "Role of stress in the mechanism of long-term-adaptation and the prevention of stress injuries."'Patologicheskaia Fiziologiia i Eksperimental'naia Terapiia'5 (1980): 3-16. </t>
+    <t xml:space="preserve">[01] Meerson FZ. Rol' stressa v mekhanizme dolgovremennoĭ adaptatsii i profilaktika stressornykh povrezheniĭ [Role of stress in the mechanism of long-term-adaptation and the prevention of stress injuries]. Patol Fiziol Eksp Ter. 1980 Sep-Oct;(5):3-16. Russian. PMID: 6999435.</t>
   </si>
   <si>
     <t xml:space="preserve">[04] Rosenfeld, A. "Superpowder."'Omni magazine'(1980). </t>
@@ -389,7 +383,7 @@
     <t xml:space="preserve">[01] Alleva, E., et al. "Consensus statement from the work session on environmental endocrine disrupting chemicals: neural, endocrine and behavioural effects. held in Erice."'Sicily, November'(1995): 5-10. </t>
   </si>
   <si>
-    <t xml:space="preserve">[03] Kundu, N., et al. "Sequential determination of serum human placental lactogen, estriol, and estetrol for assessment of fetal morbidity."'Obstetrics &amp; Gynecology'52.5 (1978): 513-520. </t>
+    <t xml:space="preserve">[03] Kundu N, Carmody PJ, Didolkar SM, Petersen LP. Sequential determination of serum human placental lactogen, estriol, and estetrol for assessment of fetal morbidity. Obstet Gynecol. 1978 Nov;52(5):513-20. PMID: 724167.</t>
   </si>
   <si>
     <t xml:space="preserve">[05] Lippman M, Monaco ME, Bolan G. Effects of estrone, estradiol, and estriol on hormone-responsive human breast cancer in long-term tissue culture. Cancer Res. 1977 Jun;37(6):1901-7. PMID: 870192.</t>
@@ -431,19 +425,10 @@
     <t xml:space="preserve">[34] Transfusions: Amer. J. of Surgery 155, p. 43, 1988. </t>
   </si>
   <si>
-    <t xml:space="preserve">[35] Salonen, JT, Nyyssonen, K, Korpela, H, Tuomilehto, J, Seppanen, R, Salonen, R. High stored iron levels are associated with excess risk of myocardial infarction in eastern Finnish men.'Circulation'1992;86:803-811 </t>
-  </si>
-  <si>
     <t xml:space="preserve">[36] Sullivan, J. (1981). Iron and the sex difference in heart disease risk.'The Lancet,'317(8233), 1293-1294. </t>
   </si>
   <si>
-    <t xml:space="preserve">[38] Ascherio, Alberto, et al. "Dietary iron intake and risk of coronary disease among men."'Circulation'89.3 (1994): 969-974. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[39] Stevens, Richard G., et al. "Body iron stores and the risk of cancer."'New England Journal of Medicine'319.16 (1988): 1047-1052. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40] Knekt, Paul, et al. "Body iron stores and risk of cancer."'International journal of cancer'56.3 (1994): 379-382. </t>
   </si>
   <si>
     <t xml:space="preserve">[41] Erickson, Kent L. "Dietary fat modulation of immune response."'International journal of immunopharmacology'8.6 (1986): 529-543. </t>
@@ -466,16 +451,16 @@
     <t xml:space="preserve">[03] Bazan NG. The metabolism of omega-3 polyunsaturated fatty acids in the eye: the possible role of docosahexaenoic acid and docosanoids in retinal physiology and ocular pathology. Prog Clin Biol Res. 1989;312:95-112. PMID: 2529559. </t>
   </si>
   <si>
-    <t xml:space="preserve">[04] Biull Eksp Biol Med 1976 Oct;82(10):1181-3. [Role of the biological activity of serotonin in the production of the "shock lung" syndrome.] ; Bazarevich GI, Deviataev AM, Likhtenshtein AO, Natsvlishvili BP, Sadeko MK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] Chen, Enping. "Inhibition of enzymes by short-wave optical radiation and its effect on the retina."'Acta ophthalmologica. Supplement'208 (1993): 1-50. </t>
+    <t xml:space="preserve">[04] Bazarevich GIa, Deviataev AM, Likhtenshteĭn AO, Natsvlishvili BP, Sadeko MKh. Rol' biologicheskoĭ aktivnosti serotonina v formirovanii sindroma "shokovogo" legkogo [Role of the biological activity of serotonin in the production of the "shock lung" syndrome]. Biull Eksp Biol Med. 1976 Oct;82(10):1181-3. Russian. PMID: 1029497. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] Chen E. Inhibition of enzymes by short-wave optical radiation and its effect on the retina. Acta Ophthalmol Suppl (1985). 1993;(208):1-50. PMID: 8384503.. </t>
   </si>
   <si>
     <t xml:space="preserve">[14] Dubocovich ML. Luzindole (N-0774): a novel melatonin receptor antagonist. J Pharmacol Exp Ther. 1988 Sep;246(3):902-10. PMID: 2843633.</t>
   </si>
   <si>
-    <t xml:space="preserve">[18] Fielder, Alistiar R., et al. "Light and retinopathy of prematurity: does retinal location offer a clue?."'Pediatrics'89.4 (1992): 648-653. </t>
+    <t xml:space="preserve">[18] Fielder AR, Robinson J, Shaw DE, Ng YK, Moseley MJ. Light and retinopathy of prematurity: does retinal location offer a clue? Pediatrics. 1992 Apr;89(4 Pt 1):648-53. PMID: 1557245. </t>
   </si>
   <si>
     <t xml:space="preserve">[32] John TM, George JC. Diurnal variation in the effect of melatonin on plasma and muscle free fatty acid levels in the pigeon. Endocrinol Exp. 1976 Jun;10(2):131-7. PMID: 1084268.
@@ -557,9 +542,6 @@
     <t xml:space="preserve">[24] Chen CH, Chen AC, Liu HJ. Involvement of nitric oxide and N-methyl-D-aspartate in acute hypoxic altitude convulsion in mice. Aviat Space Environ Med. 1997 Apr;68(4):296-9. PMID: 9096824. </t>
   </si>
   <si>
-    <t xml:space="preserve">[30] Franken NA, Hollaar L, Bosker FJ, van Ravels FJ, van der Laarse A, Wondergem J. Effects of in vivo heart irradiation on myocardial energy metabolism in rats. Radiat Res. 1993 Apr;134(1):79-85. PMID: 8475257. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[33] Sugimoto H. [Energy substrate metabolism during stress]. Nihon Geka Gakkai Zasshi. 1996 Sep;97(9):726-32. Japanese. PMID: 8940683.
 </t>
   </si>
@@ -683,19 +665,25 @@
     <t xml:space="preserve">[18] Hankins GD, Snyder R, Dinh T, Van Hook J, Clark S, Vandelan A. Documentation of amniotic fluid embolism via lung histopathology. Fact or fiction? J Reprod Med. 2002 Dec;47(12):1021-4. PMID: 12516321. </t>
   </si>
   <si>
-    <t xml:space="preserve">[22] Lindquist O, Bagge L, Saldeen T. Induction of endogenous fibrinolysis inhibition in the dog. Effect of intravascular coagulation and release of free fatty acids. Acta Chir Scand. 1976;142(1):20-5. PMID: 1266538. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[28] Rickles FR, Hair GA, Zeff RA, Lee E, Bona RD. Tissue factor expression in human leukocytes and tumor cells. Thromb Haemost. 1995 Jul;74(1):391-5. PMID: 8578492. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[32] Tersenov OA, Mikhaleva IV, Usol'tseva VA, Byshevski? ASh. O svertyvaiushche? aktivnosti okoloplodnykh vod [Coagulative activity of the amniotic fluid]. Akush Ginekol (Mosk). 1989 Jan;(1):43-6. Russian. PMID: 2712221.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[39] Zacharski LR, Loynes JT. Low-molecular-weight heparin in oncology. Anticancer Res. 2003 May-Jun;23(3C):2789-93. PMID: 12926114. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">needs fixed whole list, missing [21] changes in flow etc</t>
+    <t xml:space="preserve">[20] Heilmann L. Die Veränderungen der Fliesseigenschaften des Blutes während der Schwangerschaft [Changes in flow properties of the blood in pregnancy]. Zentralbl Gynakol. 1986;108(7):393-402. German. PMID: 3716677. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Lindquist O, Bagge L, Saldeen T. Induction of endogenous fibrinolysis inhibition in the dog. Effect of intravascular coagulation and release of free fatty acids. Acta Chir Scand. 1976;142(1):20-5. PMID: 1266538. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] Mkrtchian LN, Shukurian SG, Sarkisian OM, Magakian AG, Khachaturova TS, Ambartsumian AM. Gemokoaguliatsionnye narusheniia i opukholevyĭ rost [Blood coagulation disorders and tumor growth]. Vopr Onkol. 1991;37(9-10):992-7. Russian. PMID: 1842664. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27] Usp Fiziol Nauk. 1989 Oct-Dec;20(4):94-109. [The physiologic coagulation fibrinolytic system of the body and thrombohemorrhagic theory in oncology] [Article in Russian] Nadiradze ISh, Machabeli MS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[33] Rickles FR, Hair GA, Zeff RA, Lee E, Bona RD. Tissue factor expression in human leukocytes and tumor cells. Thromb Haemost. 1995 Jul;74(1):391-5. PMID: 8578492. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[37] Tersenov OA, Mikhaleva IV, Usol'tseva VA, Byshevski? ASh. O svertyvaiushche? aktivnosti okoloplodnykh vod [Coagulative activity of the amniotic fluid]. Akush Ginekol (Mosk). 1989 Jan;(1):43-6. Russian. PMID: 2712221.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[44] Zacharski LR, Loynes JT. Low-molecular-weight heparin in oncology. Anticancer Res. 2003 May-Jun;23(3C):2789-93. PMID: 12926114. </t>
   </si>
   <si>
     <t xml:space="preserve">2006 Bone Density First Do No Harm </t>
@@ -2896,31 +2884,34 @@
     <t xml:space="preserve">1999-03 Estrogen Receptors'what do they explain </t>
   </si>
   <si>
-    <t xml:space="preserve">[06] ]16] McCall WV, Ellinwood EH Jr, Nishita JK, Lee TH. Clomiphene blocks the effect of intravenous estradiol on the firing rate of rat nigral dopamine neurons. Res Commun Chem Pathol Pharmacol. 1988 Apr;60(1):141-4. PMID: 3381008. </t>
+    <t xml:space="preserve">[06] [16] McCall WV, Ellinwood EH Jr, Nishita JK, Lee TH. Clomiphene blocks the effect of intravenous estradiol on the firing rate of rat nigral dopamine neurons. Res Commun Chem Pathol Pharmacol. 1988 Apr;60(1):141-4. PMID: 3381008. </t>
   </si>
   <si>
     <t xml:space="preserve">[11] Burtea C, David A, Butnaru F. The role of catecholamines in the distribution of steroid hormones in the striated and cardiac muscle. Rom J Endocrinol. 1993;31(1-2):41-8. PMID: 8173572. </t>
   </si>
   <si>
-    <t xml:space="preserve">[20] Verrecchia F, Herv' JC. Reversible inhibition of gap junctional communication elicited by several classes of lipophilic compounds in cultured rat cardiomyocytes. Can J Cardiol. 1997 Nov;13(11):1093-100. PMID: 9413243. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[27] Moss RL, Gu Q, Wong M. Estrogen: nontranscriptional signaling pathway. Recent Prog Horm Res. 1997;52:33-68; discussion 68-9. PMID: 9238847. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[28] Wiebe JP. Nongenomic actions of steroids on gonadotropin release. Recent Prog Horm Res. 1997;52:71-99; discussion 99-101. PMID: 9238848. </t>
+    <t xml:space="preserve">[17] Lévesque D, Di Paolo T. Rapid conversion of high into low striatal D2-dopamine receptor agonist binding states after an acute physiological dose of 17 beta-estradiol. Neurosci Lett. 1988 May 16;88(1):113-8. doi: 10.1016/0304-3940(88)90324-2. PMID: 2969467. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Verrecchia F, Herv' JC. Reversible inhibition of gap junctional communication elicited by several classes of lipophilic compounds in cultured rat cardiomyocytes. Can J Cardiol. 1997 Nov;13(11):1093-100. PMID: 9413243. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28] Moss RL, Gu Q, Wong M. Estrogen: nontranscriptional signaling pathway. Recent Prog Horm Res. 1997;52:33-68; discussion 68-9. PMID: 9238847. </t>
   </si>
   <si>
     <t xml:space="preserve">[29] Wiebe JP. Nongenomic actions of steroids on gonadotropin release. Recent Prog Horm Res. 1997;52:71-99; discussion 99-101. PMID: 9238848. </t>
   </si>
   <si>
-    <t xml:space="preserve">[30] Kobayashi K, Kobayashi H, Ueda M, Honda Y. Estrogen receptor expression in bovine and rat retinas. Invest Ophthalmol Vis Sci. 1998 Oct;39(11):2105-10. PMID: 9761289. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33] Bodey B, Bodey B Jr, Kaiser HE. Immunocytochemical detection of prostate specific antigen expression in human breast carcinoma cells. Anticancer Res. 1997 Jul-Aug;17(4A):2577-81. PMID: 9252683. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[35] Tsukamoto Y, Kuwabara K, Hirota S, Kawano K, Yoshikawa K, Ozawa K, Kobayashi T, Yanagi H, Stern DM, Tohyama M, Kitamura Y, Ogawa S. Expression of the 150-kd oxygen-regulated protein in human breast cancer. Lab Invest. 1998 Jun;78(6):699-706. PMID: 9645760. </t>
+    <t xml:space="preserve">[30] Troyan MB, Gilman VR, Gay CV. Mitochondrial membrane potential changes in osteoblasts treated with parathyroid hormone and estradiol. Exp Cell Res. 1997 Jun 15;233(2):274-80. doi: 10.1006/excr.1997.3570. PMID: 9194489. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[31] Kobayashi K, Kobayashi H, Ueda M, Honda Y. Estrogen receptor expression in bovine and rat retinas. Invest Ophthalmol Vis Sci. 1998 Oct;39(11):2105-10. PMID: 9761289. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34] Bodey B, Bodey B Jr, Kaiser HE. Immunocytochemical detection of prostate specific antigen expression in human breast carcinoma cells. Anticancer Res. 1997 Jul-Aug;17(4A):2577-81. PMID: 9252683. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[36] Tsukamoto Y, Kuwabara K, Hirota S, Kawano K, Yoshikawa K, Ozawa K, Kobayashi T, Yanagi H, Stern DM, Tohyama M, Kitamura Y, Ogawa S. Expression of the 150-kd oxygen-regulated protein in human breast cancer. Lab Invest. 1998 Jun;78(6):699-706. PMID: 9645760. </t>
   </si>
   <si>
     <t xml:space="preserve">1999-12 Homeostasis And Aging </t>
@@ -2962,10 +2953,19 @@
     <t xml:space="preserve">2000-03 Progesterone and ideas of balance in hormo </t>
   </si>
   <si>
-    <t xml:space="preserve">[25] T. Nencioni and F. Polvani, "Rationale for the use of calcitonin in the prevention of post-menopausal osteopo rosis," in Calcitonin, A. Pecile, editor, Elsevier Science Publ., 1985. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[26] C. C. Johnston, et aI., "Age-related bone loss," pages 91-100 in U. S. Barrel, editor, Osteoporosis II, Grone and Stratton, N. Y., 1979. </t>
+    <t xml:space="preserve">[11] Medlock KL, Forrester TM, Sheehan DM. Progesterone and estradiol interaction in the regulation of rat uterine weight and estrogen receptor concentration. Proc Soc Exp Biol Med. 1994 Feb;205(2):146-53. doi: 10.3181/00379727-205-43690. PMID: 8108464. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17] Leavitt WW, Cobb AD, Takeda A. Progesterone-modulation of estrogen action: rapid down regulation of nuclear acceptor sites for the estrogen receptor. Adv Exp Med Biol. 1987;230:49-78. doi: 10.1007/978-1-4684-1297-0_4. PMID: 3454123. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Trams G, Engel B, Lehmann F, Maass H. Specific binding of oestradiol in human uterine tissue. Acta Endocrinol (Copenh). 1973 Feb;72(2):351-60. doi: 10.1530/acta.0.0720351. PMID: 4739184. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28] T. Nencioni and F. Polvani, "Rationale for the use of calcitonin in the prevention of post-menopausal osteopo rosis," in Calcitonin, A. Pecile, editor, Elsevier Science Publ., 1985. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29] C. C. Johnston, et aI., "Age-related bone loss," pages 91-100 in U. S. Barrel, editor, Osteoporosis II, Grone and Stratton, N. Y., 1979. </t>
   </si>
   <si>
     <t xml:space="preserve">2000-10 Estrogen, Aging, Radiation, Migraine &amp; </t>
@@ -3067,7 +3067,10 @@
     <t xml:space="preserve">[09] Donchenko GV, Kuchmerovskaia TM, Parkhomets PK, Obrosova IG, Klimenko AP, Efimov AS. Vliianie nikotinamida na zakhvat i vysvobozhdenie serotonina i GAMK sinaptosomami kory golovnogo mozga krys s diabetom, vyzvannym vozde?stviem streptozototsina [Effect of nicotinamide on the uptake and release of serotonin and GABA by cerebral cortex synaptosomes in rats with diabetes induced by streptozotocin]. Ukr Biokhim Zh (1978). 1995 Jan-Feb;67(1):105-11. Russian. PMID: 8588246. </t>
   </si>
   <si>
-    <t xml:space="preserve">[13] Thase ME. Treatment issues related to sleep and depression. J Clin Psychiatry. 2000;61 Suppl 11:46-50. PMID: 10926055. </t>
+    <t xml:space="preserve">[11] Rüther E, Davis L, Papousek M, Reichinger M, Reiter H, Rudolph M. Pharmakologische Beeinflussung zentraler serotonerger Mechanismen am Menschen und Auswirkungen auf den Schlaf [Pharmacological influence on central serotonergic mechanisms in man and its consequences on sleep (author's transl)]. Arzneimittelforschung. 1976;26(6):1071-3. German. PMID: 134732. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[14] Thase ME. Treatment issues related to sleep and depression. J Clin Psychiatry. 2000;61 Suppl 11:46-50. PMID: 10926055. </t>
   </si>
   <si>
     <t xml:space="preserve">2001-11 Postpartum, Premenstrual, and Seasonal S </t>
@@ -3433,13 +3436,13 @@
     <t xml:space="preserve">2014-09 Antioxidants and formative fields Disruptor </t>
   </si>
   <si>
-    <t xml:space="preserve">[20] Romanovich EA, Basieva FI. Obmen askorbinovo? kisloty, ketokislot i oksikislot v iadrakh kletok nekotorykh opukhole? [Ascorbic, keto and hydroxy acid metabolism in the cell nuclei of certain tumors]. Vopr Onkol. 1975;21(10):34-6. Russian. PMID: 1189349. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[22] Sauer LA, Nagel WO, Dauchy RT, Miceli LA, Austin JE. Stimulation of tumor growth in adult rats in vivo during an acute fast. Cancer Res. 1986 Jul;46(7):3469-75. PMID: 3708579. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[23] Sauer LA, Dauchy RT. Blood nutrient concentrations and tumor growth in vivo in rats: relationships during the onset of an acute fast. Cancer Res. 1987 Feb 15;47(4):1065-8. PMID: 3802090. </t>
+    <t xml:space="preserve">[21] Romanovich EA, Basieva FI. Obmen askorbinovo? kisloty, ketokislot i oksikislot v iadrakh kletok nekotorykh opukhole? [Ascorbic, keto and hydroxy acid metabolism in the cell nuclei of certain tumors]. Vopr Onkol. 1975;21(10):34-6. Russian. PMID: 1189349. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Sauer LA, Nagel WO, Dauchy RT, Miceli LA, Austin JE. Stimulation of tumor growth in adult rats in vivo during an acute fast. Cancer Res. 1986 Jul;46(7):3469-75. PMID: 3708579. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[24] Sauer LA, Dauchy RT. Blood nutrient concentrations and tumor growth in vivo in rats: relationships during the onset of an acute fast. Cancer Res. 1987 Feb 15;47(4):1065-8. PMID: 3802090. </t>
   </si>
   <si>
     <t xml:space="preserve">2015 Mushrooms'observations and interpretations </t>
@@ -3679,22 +3682,22 @@
     <t xml:space="preserve">[05] Contemporary Problems in Science and Education Number 5, (2009) p.15-20. Influence of soybean gene EPSPS CP4 on the physiological state and reproductive functions of rats in the first two generations.</t>
   </si>
   <si>
-    <t xml:space="preserve">[13] Huaux F. Une nouvelle voie pathologique menant a la fibrose pulmonaire induite par la silice: implication des r'ponses immunitaires suppressives [A new pathologic pathway for pulmonary fibrosis induced by silica: involvement of immunosuppressive responses]. Bull Mem Acad R Med Belg. 2009;164(5-6):240-6. French. PMID: 20666153. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[23] Soy diet suppresses reproductive function of rodents. Modern problems of science and education ' 6. (2008) (Annex 'Biological sciences'). C. 26. Maligin AG, Ermakova IV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[25] Machado EA, Lair SV. Giant multinucleate macrophages in methyl cellulose-stimulated athymic nude mice. J Reticuloendothel Soc. 1978 May;23(5):383-7. PMID: 671424. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[32] What's killing America's teens? Inside CDC's new mortality report. News June 01, 2018. By Fiza Pirani, The Atlanta Journal-Constitution </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[44] AV Surov, NY Feoktistov, MV Ushakov, AV Gureeva (2010) Changing the physiological parameters of mammals feeding genetically modified ingredients of vegetable origin. Insti tution of the Russian Academy of Sciences Insti tute of Ecology and Evolution behalf of A. N. Severtsov RAS (IEE RAS) http://oagb.ru/ lib.php?txt_id=12292. Commissioned by the National Association for Genetic Safety </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[46] Udina M, Castellv' P, Moreno-Espa'a J, Navin's R, Vald's M, Forns X, Langohr K, Sol' R, Vieta E, Mart'n-Santos R. Interferon-induced depression in chronic hepatitis C: a systematic review and meta-analysis. J Clin Psychiatry. 2012 Aug;73(8):1128-38. doi: 10.4088/JCP.12r07694. PMID: 22967776. </t>
+    <t xml:space="preserve">[11] Huaux F. Une nouvelle voie pathologique menant a la fibrose pulmonaire induite par la silice: implication des r'ponses immunitaires suppressives [A new pathologic pathway for pulmonary fibrosis induced by silica: involvement of immunosuppressive responses]. Bull Mem Acad R Med Belg. 2009;164(5-6):240-6. French. PMID: 20666153. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21] Soy diet suppresses reproductive function of rodents. Modern problems of science and education ' 6. (2008) (Annex 'Biological sciences'). C. 26. Maligin AG, Ermakova IV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[23] Machado EA, Lair SV. Giant multinucleate macrophages in methyl cellulose-stimulated athymic nude mice. J Reticuloendothel Soc. 1978 May;23(5):383-7. PMID: 671424. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30] What's killing America's teens? Inside CDC's new mortality report. News June 01, 2018. By Fiza Pirani, The Atlanta Journal-Constitution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[42] AV Surov, NY Feoktistov, MV Ushakov, AV Gureeva (2010) Changing the physiological parameters of mammals feeding genetically modified ingredients of vegetable origin. Insti tution of the Russian Academy of Sciences Insti tute of Ecology and Evolution behalf of A. N. Severtsov RAS (IEE RAS) http://oagb.ru/ lib.php?txt_id=12292. Commissioned by the National Association for Genetic Safety </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[44] Udina M, Castellv' P, Moreno-Espa'a J, Navin's R, Vald's M, Forns X, Langohr K, Sol' R, Vieta E, Mart'n-Santos R. Interferon-induced depression in chronic hepatitis C: a systematic review and meta-analysis. J Clin Psychiatry. 2012 Aug;73(8):1128-38. doi: 10.4088/JCP.12r07694. PMID: 22967776. </t>
   </si>
   <si>
     <t xml:space="preserve">2019-05 Postpartum Depression, Brain Aging, </t>
@@ -3896,7 +3899,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3916,6 +3919,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3960,12 +3968,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4094,8 +4106,8 @@
   </sheetPr>
   <dimension ref="A1:AT92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M15" colorId="64" zoomScale="25" zoomScaleNormal="25" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4274,7 +4286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4329,7 @@
       <c r="N4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -4415,7 +4427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -4491,910 +4503,904 @@
       <c r="I10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="276.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L15" s="1" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="146.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H19" s="1" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="S28" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>106</v>
@@ -5402,1383 +5408,1384 @@
     </row>
     <row r="42" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="S60" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="O68" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="P68" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="Q68" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="R68" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="n">
-        <v>693</v>
+        <f aca="false">COUNTIF(B2:BL90,"*")</f>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6788,10 +6795,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="25" zoomScaleNormal="25" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6801,7 +6808,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6866,1514 +6873,1535 @@
     </row>
     <row r="2" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="H21" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="97.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>957</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="85.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="122.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1264</v>
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="n">
+        <f aca="false">COUNTIF(B2:BL91,"*")</f>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>